--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W267"/>
+  <dimension ref="A1:W271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18589,6 +18589,268 @@
         </is>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="n">
+        <v>205.89</v>
+      </c>
+      <c r="E268" t="n">
+        <v>264.4533333333333</v>
+      </c>
+      <c r="F268" t="n">
+        <v>278.2433333333333</v>
+      </c>
+      <c r="G268" t="n">
+        <v>289.1633333333333</v>
+      </c>
+      <c r="H268" t="n">
+        <v>296.7</v>
+      </c>
+      <c r="I268" t="n">
+        <v>297.51</v>
+      </c>
+      <c r="J268" t="n">
+        <v>291.17</v>
+      </c>
+      <c r="K268" t="n">
+        <v>290.26</v>
+      </c>
+      <c r="L268" t="n">
+        <v>296.74</v>
+      </c>
+      <c r="M268" t="n">
+        <v>294.08</v>
+      </c>
+      <c r="N268" t="n">
+        <v>278.5222222222222</v>
+      </c>
+      <c r="O268" t="n">
+        <v>279.4222222222222</v>
+      </c>
+      <c r="P268" t="n">
+        <v>268.9422222222222</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>270.33</v>
+      </c>
+      <c r="R268" t="n">
+        <v>268.0922222222222</v>
+      </c>
+      <c r="S268" t="n">
+        <v>277.9654545454546</v>
+      </c>
+      <c r="T268" t="n">
+        <v>268.08</v>
+      </c>
+      <c r="U268" t="n">
+        <v>283.9722222222222</v>
+      </c>
+      <c r="V268" t="n">
+        <v>284.85</v>
+      </c>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="n">
+        <v>236.43</v>
+      </c>
+      <c r="E269" t="n">
+        <v>246.2033333333333</v>
+      </c>
+      <c r="F269" t="n">
+        <v>248.4333333333334</v>
+      </c>
+      <c r="G269" t="n">
+        <v>261.8633333333333</v>
+      </c>
+      <c r="H269" t="n">
+        <v>279.5485714285714</v>
+      </c>
+      <c r="I269" t="n">
+        <v>275.2585714285714</v>
+      </c>
+      <c r="J269" t="n">
+        <v>278.31</v>
+      </c>
+      <c r="K269" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="L269" t="n">
+        <v>281.64</v>
+      </c>
+      <c r="M269" t="n">
+        <v>273.93</v>
+      </c>
+      <c r="N269" t="n">
+        <v>263.7988888888889</v>
+      </c>
+      <c r="O269" t="n">
+        <v>254.9188888888889</v>
+      </c>
+      <c r="P269" t="n">
+        <v>253.0888888888889</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>247.3</v>
+      </c>
+      <c r="R269" t="n">
+        <v>247.4488888888889</v>
+      </c>
+      <c r="S269" t="n">
+        <v>259.6281818181818</v>
+      </c>
+      <c r="T269" t="n">
+        <v>253.4015384615385</v>
+      </c>
+      <c r="U269" t="n">
+        <v>265.7588888888889</v>
+      </c>
+      <c r="V269" t="n">
+        <v>269.7315384615384</v>
+      </c>
+      <c r="W269" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="inlineStr"/>
+      <c r="O270" t="n">
+        <v>264.5577777777777</v>
+      </c>
+      <c r="P270" t="n">
+        <v>264.2677777777778</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>256.02</v>
+      </c>
+      <c r="R270" t="n">
+        <v>258.2277777777778</v>
+      </c>
+      <c r="S270" t="n">
+        <v>263.6072727272727</v>
+      </c>
+      <c r="T270" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="U270" t="n">
+        <v>270.1477777777778</v>
+      </c>
+      <c r="V270" t="n">
+        <v>272.39</v>
+      </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="n">
+        <v>242.04</v>
+      </c>
+      <c r="E271" t="n">
+        <v>252.0433333333333</v>
+      </c>
+      <c r="F271" t="n">
+        <v>248.3633333333333</v>
+      </c>
+      <c r="G271" t="n">
+        <v>274.4133333333333</v>
+      </c>
+      <c r="H271" t="n">
+        <v>284.3271428571429</v>
+      </c>
+      <c r="I271" t="n">
+        <v>278.4271428571428</v>
+      </c>
+      <c r="J271" t="n">
+        <v>281.29</v>
+      </c>
+      <c r="K271" t="n">
+        <v>290.95</v>
+      </c>
+      <c r="L271" t="n">
+        <v>298.59</v>
+      </c>
+      <c r="M271" t="n">
+        <v>291.82</v>
+      </c>
+      <c r="N271" t="n">
+        <v>286.1288888888889</v>
+      </c>
+      <c r="O271" t="n">
+        <v>277.0888888888889</v>
+      </c>
+      <c r="P271" t="n">
+        <v>275.0088888888889</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>267.14</v>
+      </c>
+      <c r="R271" t="n">
+        <v>269.0188888888889</v>
+      </c>
+      <c r="S271" t="n">
+        <v>268.5218181818182</v>
+      </c>
+      <c r="T271" t="n">
+        <v>272.4069230769231</v>
+      </c>
+      <c r="U271" t="n">
+        <v>283.8488888888889</v>
+      </c>
+      <c r="V271" t="n">
+        <v>295.7169230769231</v>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18600,7 +18862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B271"/>
+  <dimension ref="A1:B275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21318,6 +21580,46 @@
       </c>
       <c r="B271" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -21483,7 +21785,7 @@
         <v>0.7484669319273403</v>
       </c>
       <c r="J2" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K2" t="n">
         <v>73</v>
@@ -21554,7 +21856,7 @@
         <v>-0.5931061820598472</v>
       </c>
       <c r="J3" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K3" t="n">
         <v>114</v>
@@ -21628,28 +21930,28 @@
         <v>0.0683</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6668288836573364</v>
+        <v>-0.5624449496551699</v>
       </c>
       <c r="J4" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K4" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04850120112854361</v>
+        <v>0.03498642207537273</v>
       </c>
       <c r="M4" t="n">
-        <v>15.29417951146275</v>
+        <v>15.52239931987331</v>
       </c>
       <c r="N4" t="n">
-        <v>385.6952517300174</v>
+        <v>394.8614700266375</v>
       </c>
       <c r="O4" t="n">
-        <v>19.63912553374048</v>
+        <v>19.87112150903007</v>
       </c>
       <c r="P4" t="n">
-        <v>218.916336914727</v>
+        <v>217.7927766872839</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -21705,28 +22007,28 @@
         <v>0.0346</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4730374331038491</v>
+        <v>-0.44351909888281</v>
       </c>
       <c r="J5" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K5" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03251687403251269</v>
+        <v>0.02935063593339093</v>
       </c>
       <c r="M5" t="n">
-        <v>14.61448379050099</v>
+        <v>14.57835339864971</v>
       </c>
       <c r="N5" t="n">
-        <v>327.6579276507962</v>
+        <v>325.5475941089927</v>
       </c>
       <c r="O5" t="n">
-        <v>18.10132391983515</v>
+        <v>18.042937513304</v>
       </c>
       <c r="P5" t="n">
-        <v>255.4872103549648</v>
+        <v>255.1926727609048</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -21782,28 +22084,28 @@
         <v>0.0326</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5289027884785028</v>
+        <v>-0.5205215313898217</v>
       </c>
       <c r="J6" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K6" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05384463878718204</v>
+        <v>0.05317598451009486</v>
       </c>
       <c r="M6" t="n">
-        <v>12.15547695585574</v>
+        <v>12.15777208081239</v>
       </c>
       <c r="N6" t="n">
-        <v>231.9710791872994</v>
+        <v>231.6458442053774</v>
       </c>
       <c r="O6" t="n">
-        <v>15.23059680995132</v>
+        <v>15.21991603805282</v>
       </c>
       <c r="P6" t="n">
-        <v>268.6176172778287</v>
+        <v>268.5332884053765</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -21859,28 +22161,28 @@
         <v>0.0337</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3422798663332051</v>
+        <v>-0.3296459659212153</v>
       </c>
       <c r="J7" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K7" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02744513676258542</v>
+        <v>0.02596674932239962</v>
       </c>
       <c r="M7" t="n">
-        <v>11.18369924305736</v>
+        <v>11.17287553823983</v>
       </c>
       <c r="N7" t="n">
-        <v>201.8785690355937</v>
+        <v>201.220146337777</v>
       </c>
       <c r="O7" t="n">
-        <v>14.20839783492825</v>
+        <v>14.18520871675059</v>
       </c>
       <c r="P7" t="n">
-        <v>278.8379844458486</v>
+        <v>278.7103766949813</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -21936,28 +22238,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3925619159775834</v>
+        <v>-0.3690172908793306</v>
       </c>
       <c r="J8" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K8" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03539461964073609</v>
+        <v>0.03203887275150374</v>
       </c>
       <c r="M8" t="n">
-        <v>10.97592418916529</v>
+        <v>10.95296004011428</v>
       </c>
       <c r="N8" t="n">
-        <v>199.0128742779526</v>
+        <v>198.1713193562967</v>
       </c>
       <c r="O8" t="n">
-        <v>14.10719228896922</v>
+        <v>14.07733353147167</v>
       </c>
       <c r="P8" t="n">
-        <v>287.8138525158478</v>
+        <v>287.5749593069471</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -22013,28 +22315,28 @@
         <v>0.037</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2341143939148433</v>
+        <v>-0.2156611907711517</v>
       </c>
       <c r="J9" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K9" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01342103414602613</v>
+        <v>0.01163343321576094</v>
       </c>
       <c r="M9" t="n">
-        <v>10.91586502337182</v>
+        <v>10.87090889795262</v>
       </c>
       <c r="N9" t="n">
-        <v>195.2248697585438</v>
+        <v>194.6168764035171</v>
       </c>
       <c r="O9" t="n">
-        <v>13.97228935280628</v>
+        <v>13.9505152737638</v>
       </c>
       <c r="P9" t="n">
-        <v>282.5340487261556</v>
+        <v>282.3499966909187</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -22090,28 +22392,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1481034849727198</v>
+        <v>-0.1337299268220082</v>
       </c>
       <c r="J10" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K10" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005575234809774288</v>
+        <v>0.004662879981947476</v>
       </c>
       <c r="M10" t="n">
-        <v>10.62565770484797</v>
+        <v>10.56405569620644</v>
       </c>
       <c r="N10" t="n">
-        <v>189.8067276794094</v>
+        <v>188.2160679630284</v>
       </c>
       <c r="O10" t="n">
-        <v>13.7770362443963</v>
+        <v>13.71918612611653</v>
       </c>
       <c r="P10" t="n">
-        <v>281.8146738556514</v>
+        <v>281.6707932928334</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -22167,28 +22469,28 @@
         <v>0.0408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008117796625748012</v>
+        <v>0.02275038866096014</v>
       </c>
       <c r="J11" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K11" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L11" t="n">
-        <v>2.065160608899497e-05</v>
+        <v>0.0001661826789515208</v>
       </c>
       <c r="M11" t="n">
-        <v>9.508855612810708</v>
+        <v>9.469428450459796</v>
       </c>
       <c r="N11" t="n">
-        <v>155.6674399705202</v>
+        <v>154.3021886946238</v>
       </c>
       <c r="O11" t="n">
-        <v>12.47667583815979</v>
+        <v>12.42184320842216</v>
       </c>
       <c r="P11" t="n">
-        <v>281.8408462999981</v>
+        <v>281.6928310085845</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -22244,28 +22546,28 @@
         <v>0.0406</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03444187004182556</v>
+        <v>-0.01583408035622579</v>
       </c>
       <c r="J12" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K12" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003962013095601957</v>
+        <v>8.534995861231298e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>9.135324401873453</v>
+        <v>9.13452145388964</v>
       </c>
       <c r="N12" t="n">
-        <v>146.0804695527135</v>
+        <v>145.6139159760463</v>
       </c>
       <c r="O12" t="n">
-        <v>12.08637536868326</v>
+        <v>12.06705912706349</v>
       </c>
       <c r="P12" t="n">
-        <v>285.9778900050428</v>
+        <v>285.7908563245666</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -22321,28 +22623,28 @@
         <v>0.0422</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01223056179888669</v>
+        <v>0.03017737442329892</v>
       </c>
       <c r="J13" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K13" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L13" t="n">
-        <v>4.822522960035158e-05</v>
+        <v>0.0002989075244277384</v>
       </c>
       <c r="M13" t="n">
-        <v>9.70765415983529</v>
+        <v>9.70797246188603</v>
       </c>
       <c r="N13" t="n">
-        <v>151.2281248229902</v>
+        <v>150.9347643384952</v>
       </c>
       <c r="O13" t="n">
-        <v>12.29748449167512</v>
+        <v>12.28555103926947</v>
       </c>
       <c r="P13" t="n">
-        <v>279.3994431223238</v>
+        <v>279.2205555953357</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -22398,28 +22700,28 @@
         <v>0.0473</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0291940126848092</v>
+        <v>0.03867266859774288</v>
       </c>
       <c r="J14" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K14" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002958905049752492</v>
+        <v>0.0005302652935205154</v>
       </c>
       <c r="M14" t="n">
-        <v>9.245494090175315</v>
+        <v>9.242777720187521</v>
       </c>
       <c r="N14" t="n">
-        <v>137.3954071421824</v>
+        <v>136.900034703075</v>
       </c>
       <c r="O14" t="n">
-        <v>11.72157869666806</v>
+        <v>11.70042882560614</v>
       </c>
       <c r="P14" t="n">
-        <v>271.9670375788553</v>
+        <v>271.8717838251212</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -22475,28 +22777,28 @@
         <v>0.0473</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08264213686186306</v>
+        <v>0.08581710004502104</v>
       </c>
       <c r="J15" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K15" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002297090530769541</v>
+        <v>0.002544765456783948</v>
       </c>
       <c r="M15" t="n">
-        <v>9.401286227987674</v>
+        <v>9.397486075062631</v>
       </c>
       <c r="N15" t="n">
-        <v>143.636513745838</v>
+        <v>142.9222603428176</v>
       </c>
       <c r="O15" t="n">
-        <v>11.98484516987341</v>
+        <v>11.95500984285741</v>
       </c>
       <c r="P15" t="n">
-        <v>265.9881998223826</v>
+        <v>265.9566505049345</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -22552,28 +22854,28 @@
         <v>0.0465</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09840144773450868</v>
+        <v>0.1084312803661306</v>
       </c>
       <c r="J16" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K16" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003530052250163229</v>
+        <v>0.004410958264763565</v>
       </c>
       <c r="M16" t="n">
-        <v>9.047190068102783</v>
+        <v>9.020635354032173</v>
       </c>
       <c r="N16" t="n">
-        <v>130.7560720480411</v>
+        <v>129.7911995287211</v>
       </c>
       <c r="O16" t="n">
-        <v>11.43486213506928</v>
+        <v>11.39259406494944</v>
       </c>
       <c r="P16" t="n">
-        <v>260.0216458516285</v>
+        <v>259.9201420480406</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -22629,28 +22931,28 @@
         <v>0.0529</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1215610679656565</v>
+        <v>0.1295293335080514</v>
       </c>
       <c r="J17" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K17" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006161842398525241</v>
+        <v>0.007169689440989835</v>
       </c>
       <c r="M17" t="n">
-        <v>8.228457411353038</v>
+        <v>8.226665813262422</v>
       </c>
       <c r="N17" t="n">
-        <v>114.775622731897</v>
+        <v>114.3524228780086</v>
       </c>
       <c r="O17" t="n">
-        <v>10.71333854276514</v>
+        <v>10.69356923005638</v>
       </c>
       <c r="P17" t="n">
-        <v>254.833683344148</v>
+        <v>254.7536846769624</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -22706,28 +23008,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08920600570868566</v>
+        <v>0.1042781232772419</v>
       </c>
       <c r="J18" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K18" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003299462566300759</v>
+        <v>0.004620755117575759</v>
       </c>
       <c r="M18" t="n">
-        <v>8.481569664425715</v>
+        <v>8.47059942559912</v>
       </c>
       <c r="N18" t="n">
-        <v>112.4264823361525</v>
+        <v>112.0956122242725</v>
       </c>
       <c r="O18" t="n">
-        <v>10.6031354955104</v>
+        <v>10.58752153359191</v>
       </c>
       <c r="P18" t="n">
-        <v>254.3123476342747</v>
+        <v>254.1582425839409</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -22783,28 +23085,28 @@
         <v>0.0623</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09937425822164728</v>
+        <v>0.1205948602107363</v>
       </c>
       <c r="J19" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K19" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004757659544490034</v>
+        <v>0.007178650176773105</v>
       </c>
       <c r="M19" t="n">
-        <v>7.76959368603235</v>
+        <v>7.747933811948961</v>
       </c>
       <c r="N19" t="n">
-        <v>97.38694356882228</v>
+        <v>97.04544087774286</v>
       </c>
       <c r="O19" t="n">
-        <v>9.868482333612514</v>
+        <v>9.851164442731775</v>
       </c>
       <c r="P19" t="n">
-        <v>259.2228472143266</v>
+        <v>259.0066145656599</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -22860,28 +23162,28 @@
         <v>0.0711</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07774424144918654</v>
+        <v>0.0866660738899125</v>
       </c>
       <c r="J20" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K20" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003074160165227324</v>
+        <v>0.003926126790289586</v>
       </c>
       <c r="M20" t="n">
-        <v>7.24877734634536</v>
+        <v>7.243404337655911</v>
       </c>
       <c r="N20" t="n">
-        <v>90.42288585293467</v>
+        <v>89.8943256762637</v>
       </c>
       <c r="O20" t="n">
-        <v>9.509094901878656</v>
+        <v>9.481261818780435</v>
       </c>
       <c r="P20" t="n">
-        <v>259.080390879102</v>
+        <v>258.987354493723</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -22937,28 +23239,28 @@
         <v>0.0505</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2128583440035372</v>
+        <v>0.2236096039551778</v>
       </c>
       <c r="J21" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K21" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01888749480488372</v>
+        <v>0.02138271008836012</v>
       </c>
       <c r="M21" t="n">
-        <v>8.129138898893942</v>
+        <v>8.122936708228004</v>
       </c>
       <c r="N21" t="n">
-        <v>108.3253096567217</v>
+        <v>107.7364099789945</v>
       </c>
       <c r="O21" t="n">
-        <v>10.40794454523667</v>
+        <v>10.37961511709343</v>
       </c>
       <c r="P21" t="n">
-        <v>267.6750620101247</v>
+        <v>267.5630778858084</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -23014,28 +23316,28 @@
         <v>0.0769</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3071552496582788</v>
+        <v>0.3033120217387797</v>
       </c>
       <c r="J22" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K22" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02902157296349628</v>
+        <v>0.02906330785485944</v>
       </c>
       <c r="M22" t="n">
-        <v>9.147735566251166</v>
+        <v>9.156005013509647</v>
       </c>
       <c r="N22" t="n">
-        <v>144.5393639072631</v>
+        <v>143.910958757458</v>
       </c>
       <c r="O22" t="n">
-        <v>12.0224524913706</v>
+        <v>11.99628937452986</v>
       </c>
       <c r="P22" t="n">
-        <v>273.9417326482889</v>
+        <v>273.9817452635455</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -23072,7 +23374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W267"/>
+  <dimension ref="A1:W271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50491,6 +50793,398 @@
         </is>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>-35.513890586002866,174.46825807596113</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>-35.51491793792007,174.4676394515635</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>-35.51553326008512,174.46705130566244</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>-35.516127411399545,174.46644749437178</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>-35.516790831947134,174.46585257648405</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>-35.517483106211714,174.4653814841094</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>-35.518093513114906,174.46488097860754</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>-35.51872740524248,174.46443300072318</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>-35.519429150286115,174.46403353204227</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>-35.520140624637925,174.46365658061882</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>-35.52077789500639,174.46317409758888</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>-35.521473279562834,174.4628588115898</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>-35.52215297314051,174.46244322662093</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>-35.52286389832415,174.462179268224</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>-35.5235569884631,174.4618804230456</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>-35.52435189398702,174.46169338211197</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>-35.525139027680744,174.46146686392368</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>-35.52588062722543,174.46153700169583</t>
+        </is>
+      </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>-35.526607898502576,174.4614430544075</t>
+        </is>
+      </c>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>-35.51413539640821,174.46841212063964</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>-35.51479386277029,174.4675073142347</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>-35.51533872714525,174.46682454683776</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>-35.51595832038254,174.4662287859397</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>-35.516703254481236,174.46569672552127</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>-35.51738684575631,174.46516623253697</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>-35.5180378800111,174.46475657522933</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>-35.51868929248989,174.4643477751342</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>-35.51937210957458,174.46388235595987</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>-35.52007675467818,174.4634485834483</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>-35.52073183640596,174.463021837311</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>-35.52139942276098,174.46260417050323</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>-35.522108862429384,174.46227694986055</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>-35.522802524684295,174.46193666829978</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>-35.52350259155865,174.46166273067055</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>-35.52431909682554,174.46149519429798</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>-35.52512498049425,174.461305915564</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>-35.52586324728893,174.4613372853369</t>
+        </is>
+      </c>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>-35.52659351323367,174.46127726764666</t>
+        </is>
+      </c>
+      <c r="W269" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="inlineStr"/>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>-35.521428475914874,174.46270433874528</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>-35.52213996687371,174.46239419896534</t>
+        </is>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>-35.52282576304677,174.46202852545917</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>-35.523530994879536,174.46177639841795</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>-35.52432621366363,174.46153819998955</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>-35.52513119950381,174.46137717075885</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>-35.525867435383624,174.46138541122184</t>
+        </is>
+      </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>-35.526596042785734,174.4613064199298</t>
+        </is>
+      </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>-35.51418036646761,174.46844041775222</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>-35.5148335668353,174.46754959813546</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>-35.51533827034144,174.46682401436277</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>-35.51603605275243,174.4663293276143</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>-35.51672765452101,174.46574014723262</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>-35.51740055313103,174.46519688402051</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>-35.51805077167529,174.46478540274677</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>-35.51873039023408,174.46443967560236</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>-35.519436138704236,174.46405205362964</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>-35.520133461077606,174.463633251888</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>-35.52080169065629,174.46325276144333</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>-35.52146624656227,174.46283456333745</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>-35.52216985312365,174.462506856546</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>-35.5228553971853,174.46214566447915</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>-35.523559430297645,174.46189019513042</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>-35.52433500359573,174.46159131600766</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>-35.52514316847504,174.4615143083582</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>-35.52588050953664,174.4615356492971</t>
+        </is>
+      </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>-35.526618238276086,174.46156221947268</t>
+        </is>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -21633,7 +21633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21724,35 +21724,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -21805,27 +21810,28 @@
       <c r="P2" t="n">
         <v>280.6737333944236</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.46966235014142 -35.51161548616763, 174.47250980413526 -35.51961811393626)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4696623501414</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.51161548616763</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4725098041353</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.51961811393626</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4710860771384</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.51561680005194</v>
       </c>
     </row>
@@ -21876,27 +21882,28 @@
       <c r="P3" t="n">
         <v>165.4884366067936</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.4687973215507 -35.511812637420284, 174.4716447254193 -35.519815272812544)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4687973215507</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.51181263742028</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4716447254193</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.51981527281254</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.470221023485</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.51581395511641</v>
       </c>
     </row>
@@ -21953,27 +21960,28 @@
       <c r="P4" t="n">
         <v>217.7927766872839</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.46721958553752 -35.51224015388926, 174.4718841242677 -35.519652699781766)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4672195855375</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.51224015388926</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4718841242677</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.51965269978177</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4695518549026</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.51594642683551</v>
       </c>
     </row>
@@ -22030,27 +22038,28 @@
       <c r="P5" t="n">
         <v>255.1926727609048</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.4657247431536 -35.51312000000017, 174.4724226186078 -35.519408902606436)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4657247431536</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.51312000000017</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4724226186078</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.51940890260644</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4690736808807</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.5162644513033</v>
       </c>
     </row>
@@ -22107,27 +22116,28 @@
       <c r="P6" t="n">
         <v>268.5332884053765</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.46493480581543 -35.51371749270894, 174.47197208622046 -35.51975437813518)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.4649348058154</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.51371749270894</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4719720862205</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.51975437813518</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4684534460179</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.51673593542206</v>
       </c>
     </row>
@@ -22184,27 +22194,28 @@
       <c r="P7" t="n">
         <v>278.7103766949813</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.4641309673118 -35.514336367110175, 174.47154301703716 -35.52006661507325)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.4641309673118</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.51433636711018</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.4715430170372</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.52006661507325</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.4678369921745</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.51720149109171</v>
       </c>
     </row>
@@ -22261,27 +22272,28 @@
       <c r="P8" t="n">
         <v>287.5749593069471</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.46315658117618 -35.515275812736704, 174.47156556867586 -35.52000086321672)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.4631565811762</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.5152758127367</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.4715655686759</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.52000086321672</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.467361074926</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.51763833797671</v>
       </c>
     </row>
@@ -22338,27 +22350,28 @@
       <c r="P9" t="n">
         <v>282.3499966909187</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.46250353105123 -35.51619603466691, 174.471456812004 -35.520199734282315)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.4625035310512</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.51619603466691</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.471456812004</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.52019973428231</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.4669801715276</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.51819788447462</v>
       </c>
     </row>
@@ -22415,27 +22428,28 @@
       <c r="P10" t="n">
         <v>281.6707932928334</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.4620643378096 -35.516833862280436, 174.47101765227808 -35.52083757069674)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.4620643378096</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.51683386228044</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.4710176522781</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.52083757069674</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.4665409950438</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.51883571648859</v>
       </c>
     </row>
@@ -22492,27 +22506,28 @@
       <c r="P11" t="n">
         <v>281.6928310085845</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.46162514456805 -35.51747168482567, 174.47057849255216 -35.52147540204349)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.461625144568</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.51747168482567</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.4705784925522</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.52147540204349</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.4661018185601</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.51947354343459</v>
       </c>
     </row>
@@ -22569,27 +22584,28 @@
       <c r="P12" t="n">
         <v>285.7908563245666</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.4610627099729 -35.51830817009679, 174.4703295693365 -35.521804484185004)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.4610627099729</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.51830817009679</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.4703295693365</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.521804484185</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.4656961396547</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.52005632714089</v>
       </c>
     </row>
@@ -22646,27 +22662,28 @@
       <c r="P13" t="n">
         <v>279.2205555953357</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.4606209890113 -35.519208435454736, 174.47017624285465 -35.52214238992012)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.4606209890113</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.51920843545474</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.4701762428546</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.52214238992012</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.465398615933</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.52067541268742</v>
       </c>
     </row>
@@ -22723,27 +22740,28 @@
       <c r="P14" t="n">
         <v>271.8717838251212</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.46029380883112 -35.5199065682204, 174.46986666582924 -35.52280214637211)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.4602938088311</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-35.5199065682204</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.4698666658292</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-35.52280214637211</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.4650802373302</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-35.52135435729625</v>
       </c>
     </row>
@@ -22800,27 +22818,28 @@
       <c r="P15" t="n">
         <v>265.9566505049345</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.45995505464828 -35.52063102555026, 174.46957491859948 -35.52342099213534)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.4599550546483</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-35.52063102555026</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.4695749185995</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-35.52342099213534</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.4647649866239</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-35.5220260088428</v>
       </c>
     </row>
@@ -22877,27 +22896,28 @@
       <c r="P16" t="n">
         <v>259.9201420480406</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.4596224654955 -35.521404629894185, 174.4693317301919 -35.52398014265805)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.4596224654955</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-35.52140462989419</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.4693317301919</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-35.52398014265805</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.4644770978437</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-35.52269238627612</v>
       </c>
     </row>
@@ -22954,27 +22974,28 @@
       <c r="P17" t="n">
         <v>254.7536846769624</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.45933161194912 -35.52214345289546, 174.46908321486862 -35.52461023290601)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.4593316119491</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-35.52214345289546</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.4690832148686</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-35.52461023290601</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.4642074134089</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-35.52337684290073</v>
       </c>
     </row>
@@ -23031,27 +23052,28 @@
       <c r="P18" t="n">
         <v>254.1582425839409</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.45905330303466 -35.522850511929555, 174.4688153896553 -35.52528964941197)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.4590533030347</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-35.52285051192955</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.4688153896553</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-35.52528964941197</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.463934346345</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-35.52407008067076</v>
       </c>
     </row>
@@ -23108,27 +23130,28 @@
       <c r="P19" t="n">
         <v>259.0066145656599</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.45868916926796 -35.52385470299246, 174.46869492677703 -35.52551031883241)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.458689169268</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-35.52385470299246</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.468694926777</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-35.52551031883241</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.4636920480225</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-35.52468251091243</v>
       </c>
     </row>
@@ -23185,27 +23208,28 @@
       <c r="P20" t="n">
         <v>258.987354493723</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.45852739211213 -35.524882442881996, 174.46867889714437 -35.525768250357125)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.4585273921121</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-35.524882442882</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.4686788971444</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-35.52576825035712</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.4636031446283</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-35.52532534661956</v>
       </c>
     </row>
@@ -23262,27 +23286,28 @@
       <c r="P21" t="n">
         <v>267.5630778858084</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (174.4584231431351 -35.5256096109946, 174.46857503903536 -35.52649288231186)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>174.4584231431351</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-35.5256096109946</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>174.4685750390354</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-35.52649288231186</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>174.4634990910852</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-35.52605124665322</v>
       </c>
     </row>
@@ -23339,27 +23364,28 @@
       <c r="P22" t="n">
         <v>273.9817452635455</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (174.45831944102278 -35.526336824174926, 174.46847172685446 -35.52721755923771)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>174.4583194410228</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-35.52633682417493</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>174.4684717268545</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-35.52721755923771</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>174.4633955839386</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-35.52677719170632</v>
       </c>
     </row>

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W271"/>
+  <dimension ref="A1:W273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18851,6 +18851,154 @@
         </is>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="n">
+        <v>180.09</v>
+      </c>
+      <c r="D272" t="n">
+        <v>237.7</v>
+      </c>
+      <c r="E272" t="n">
+        <v>237.2866666666666</v>
+      </c>
+      <c r="F272" t="n">
+        <v>251.2866666666666</v>
+      </c>
+      <c r="G272" t="n">
+        <v>252.3866666666667</v>
+      </c>
+      <c r="H272" t="n">
+        <v>264.8471428571428</v>
+      </c>
+      <c r="I272" t="n">
+        <v>264.9771428571428</v>
+      </c>
+      <c r="J272" t="n">
+        <v>274.68</v>
+      </c>
+      <c r="K272" t="n">
+        <v>278.18</v>
+      </c>
+      <c r="L272" t="n">
+        <v>281.58</v>
+      </c>
+      <c r="M272" t="n">
+        <v>271.99</v>
+      </c>
+      <c r="N272" t="n">
+        <v>264.3777777777778</v>
+      </c>
+      <c r="O272" t="n">
+        <v>262.1777777777777</v>
+      </c>
+      <c r="P272" t="n">
+        <v>255.6077777777778</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>253.86</v>
+      </c>
+      <c r="R272" t="n">
+        <v>247.5277777777778</v>
+      </c>
+      <c r="S272" t="n">
+        <v>257.9263636363636</v>
+      </c>
+      <c r="T272" t="n">
+        <v>261.2230769230769</v>
+      </c>
+      <c r="U272" t="n">
+        <v>272.7777777777778</v>
+      </c>
+      <c r="V272" t="n">
+        <v>282.3530769230769</v>
+      </c>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>271.08</v>
+      </c>
+      <c r="C273" t="n">
+        <v>167.18</v>
+      </c>
+      <c r="D273" t="n">
+        <v>270.34</v>
+      </c>
+      <c r="E273" t="n">
+        <v>242.7333333333333</v>
+      </c>
+      <c r="F273" t="n">
+        <v>262.3633333333333</v>
+      </c>
+      <c r="G273" t="n">
+        <v>270.4733333333333</v>
+      </c>
+      <c r="H273" t="n">
+        <v>283.1228571428572</v>
+      </c>
+      <c r="I273" t="n">
+        <v>283.7428571428572</v>
+      </c>
+      <c r="J273" t="n">
+        <v>276.83</v>
+      </c>
+      <c r="K273" t="n">
+        <v>297.68</v>
+      </c>
+      <c r="L273" t="n">
+        <v>291.53</v>
+      </c>
+      <c r="M273" t="n">
+        <v>284.66</v>
+      </c>
+      <c r="N273" t="n">
+        <v>282.6088888888889</v>
+      </c>
+      <c r="O273" t="n">
+        <v>281.6688888888889</v>
+      </c>
+      <c r="P273" t="n">
+        <v>280.7688888888889</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>279.69</v>
+      </c>
+      <c r="R273" t="n">
+        <v>266.4488888888889</v>
+      </c>
+      <c r="S273" t="n">
+        <v>260.8627272727272</v>
+      </c>
+      <c r="T273" t="n">
+        <v>267.5130769230769</v>
+      </c>
+      <c r="U273" t="n">
+        <v>284.0988888888889</v>
+      </c>
+      <c r="V273" t="n">
+        <v>310.0030769230769</v>
+      </c>
+      <c r="W273" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18862,7 +19010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21620,6 +21768,26 @@
       </c>
       <c r="B275" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -21787,28 +21955,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.7484669319273403</v>
+        <v>0.6545238307994911</v>
       </c>
       <c r="J2" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04672210637255425</v>
+        <v>0.0366281019710275</v>
       </c>
       <c r="M2" t="n">
-        <v>17.94215173294852</v>
+        <v>18.08292904114782</v>
       </c>
       <c r="N2" t="n">
-        <v>490.115015622757</v>
+        <v>494.0668791316979</v>
       </c>
       <c r="O2" t="n">
-        <v>22.13854140684876</v>
+        <v>22.22761523717058</v>
       </c>
       <c r="P2" t="n">
-        <v>280.6737333944236</v>
+        <v>281.6826671634829</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21859,28 +22027,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.5931061820598472</v>
+        <v>-0.4953067028428652</v>
       </c>
       <c r="J3" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K3" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005544754710330113</v>
+        <v>0.004032953066206768</v>
       </c>
       <c r="M3" t="n">
-        <v>37.00534882486337</v>
+        <v>36.8344879585965</v>
       </c>
       <c r="N3" t="n">
-        <v>2546.600702838237</v>
+        <v>2512.175786653242</v>
       </c>
       <c r="O3" t="n">
-        <v>50.4638554099688</v>
+        <v>50.12160997666817</v>
       </c>
       <c r="P3" t="n">
-        <v>165.4884366067936</v>
+        <v>164.387897829666</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21937,28 +22105,28 @@
         <v>0.0683</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5624449496551699</v>
+        <v>-0.4303313973993592</v>
       </c>
       <c r="J4" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K4" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03498642207537273</v>
+        <v>0.01973314367139445</v>
       </c>
       <c r="M4" t="n">
-        <v>15.52239931987331</v>
+        <v>15.98826931623748</v>
       </c>
       <c r="N4" t="n">
-        <v>394.8614700266375</v>
+        <v>422.5977772989362</v>
       </c>
       <c r="O4" t="n">
-        <v>19.87112150903007</v>
+        <v>20.5571831071024</v>
       </c>
       <c r="P4" t="n">
-        <v>217.7927766872839</v>
+        <v>216.3606142278792</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22015,28 +22183,28 @@
         <v>0.0346</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.44351909888281</v>
+        <v>-0.4506073556694644</v>
       </c>
       <c r="J5" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K5" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02935063593339093</v>
+        <v>0.03083621546611059</v>
       </c>
       <c r="M5" t="n">
-        <v>14.57835339864971</v>
+        <v>14.48031710861557</v>
       </c>
       <c r="N5" t="n">
-        <v>325.5475941089927</v>
+        <v>322.9092550392121</v>
       </c>
       <c r="O5" t="n">
-        <v>18.042937513304</v>
+        <v>17.9696759859273</v>
       </c>
       <c r="P5" t="n">
-        <v>255.1926727609048</v>
+        <v>255.2640843750638</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22093,28 +22261,28 @@
         <v>0.0326</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5205215313898217</v>
+        <v>-0.5176551104451947</v>
       </c>
       <c r="J6" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K6" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05317598451009486</v>
+        <v>0.0535624136366295</v>
       </c>
       <c r="M6" t="n">
-        <v>12.15777208081239</v>
+        <v>12.10307664810296</v>
       </c>
       <c r="N6" t="n">
-        <v>231.6458442053774</v>
+        <v>229.9846834831304</v>
       </c>
       <c r="O6" t="n">
-        <v>15.21991603805282</v>
+        <v>15.16524590908866</v>
       </c>
       <c r="P6" t="n">
-        <v>268.5332884053765</v>
+        <v>268.503775676952</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22171,28 +22339,28 @@
         <v>0.0337</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3296459659212153</v>
+        <v>-0.3447018903027582</v>
       </c>
       <c r="J7" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K7" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02596674932239962</v>
+        <v>0.02864934979432732</v>
       </c>
       <c r="M7" t="n">
-        <v>11.17287553823983</v>
+        <v>11.15883091129202</v>
       </c>
       <c r="N7" t="n">
-        <v>201.220146337777</v>
+        <v>200.8779504302288</v>
       </c>
       <c r="O7" t="n">
-        <v>14.18520871675059</v>
+        <v>14.1731418686976</v>
       </c>
       <c r="P7" t="n">
-        <v>278.7103766949813</v>
+        <v>278.8641425899522</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22249,28 +22417,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3690172908793306</v>
+        <v>-0.3762887807024051</v>
       </c>
       <c r="J8" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K8" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03203887275150374</v>
+        <v>0.0337516735939688</v>
       </c>
       <c r="M8" t="n">
-        <v>10.95296004011428</v>
+        <v>10.93816544851597</v>
       </c>
       <c r="N8" t="n">
-        <v>198.1713193562967</v>
+        <v>197.3949840902634</v>
       </c>
       <c r="O8" t="n">
-        <v>14.07733353147167</v>
+        <v>14.04973252735665</v>
       </c>
       <c r="P8" t="n">
-        <v>287.5749593069471</v>
+        <v>287.6493298457285</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22327,28 +22495,28 @@
         <v>0.037</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2156611907711517</v>
+        <v>-0.2199398072365022</v>
       </c>
       <c r="J9" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K9" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01163343321576094</v>
+        <v>0.01227446542600708</v>
       </c>
       <c r="M9" t="n">
-        <v>10.87090889795262</v>
+        <v>10.86131567950672</v>
       </c>
       <c r="N9" t="n">
-        <v>194.6168764035171</v>
+        <v>193.8135031927198</v>
       </c>
       <c r="O9" t="n">
-        <v>13.9505152737638</v>
+        <v>13.92169182221471</v>
       </c>
       <c r="P9" t="n">
-        <v>282.3499966909187</v>
+        <v>282.3930228703138</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22405,28 +22573,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1337299268220082</v>
+        <v>-0.138068646918668</v>
       </c>
       <c r="J10" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K10" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004662879981947476</v>
+        <v>0.005061232338653854</v>
       </c>
       <c r="M10" t="n">
-        <v>10.56405569620644</v>
+        <v>10.49830311613394</v>
       </c>
       <c r="N10" t="n">
-        <v>188.2160679630284</v>
+        <v>186.7569979580044</v>
       </c>
       <c r="O10" t="n">
-        <v>13.71918612611653</v>
+        <v>13.6659064082118</v>
       </c>
       <c r="P10" t="n">
-        <v>281.6707932928334</v>
+        <v>281.7146766641284</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22483,28 +22651,28 @@
         <v>0.0408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02275038866096014</v>
+        <v>0.03271933544261075</v>
       </c>
       <c r="J11" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K11" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001661826789515208</v>
+        <v>0.0003477799026435635</v>
       </c>
       <c r="M11" t="n">
-        <v>9.469428450459796</v>
+        <v>9.477231432209066</v>
       </c>
       <c r="N11" t="n">
-        <v>154.3021886946238</v>
+        <v>154.0670182688728</v>
       </c>
       <c r="O11" t="n">
-        <v>12.42184320842216</v>
+        <v>12.41237359528276</v>
       </c>
       <c r="P11" t="n">
-        <v>281.6928310085845</v>
+        <v>281.5909565967013</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22561,28 +22729,28 @@
         <v>0.0406</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01583408035622579</v>
+        <v>-0.01382738273725608</v>
       </c>
       <c r="J12" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K12" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L12" t="n">
-        <v>8.534995861231298e-05</v>
+        <v>6.620277080349179e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>9.13452145388964</v>
+        <v>9.100572473008944</v>
       </c>
       <c r="N12" t="n">
-        <v>145.6139159760463</v>
+        <v>144.6538125216488</v>
       </c>
       <c r="O12" t="n">
-        <v>12.06705912706349</v>
+        <v>12.027211336035</v>
       </c>
       <c r="P12" t="n">
-        <v>285.7908563245666</v>
+        <v>285.7704396939739</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22639,28 +22807,28 @@
         <v>0.0422</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03017737442329892</v>
+        <v>0.02733795249224429</v>
       </c>
       <c r="J13" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K13" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002989075244277384</v>
+        <v>0.0002494113469390102</v>
       </c>
       <c r="M13" t="n">
-        <v>9.70797246188603</v>
+        <v>9.682703935931563</v>
       </c>
       <c r="N13" t="n">
-        <v>150.9347643384952</v>
+        <v>150.0698540563876</v>
       </c>
       <c r="O13" t="n">
-        <v>12.28555103926947</v>
+        <v>12.25030016188941</v>
       </c>
       <c r="P13" t="n">
-        <v>279.2205555953357</v>
+        <v>279.24899897671</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22717,28 +22885,28 @@
         <v>0.0473</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03867266859774288</v>
+        <v>0.03985274709527023</v>
       </c>
       <c r="J14" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K14" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0005302652935205154</v>
+        <v>0.0005715498241632977</v>
       </c>
       <c r="M14" t="n">
-        <v>9.242777720187521</v>
+        <v>9.24119406463395</v>
       </c>
       <c r="N14" t="n">
-        <v>136.900034703075</v>
+        <v>136.463881610869</v>
       </c>
       <c r="O14" t="n">
-        <v>11.70042882560614</v>
+        <v>11.68177561892322</v>
       </c>
       <c r="P14" t="n">
-        <v>271.8717838251212</v>
+        <v>271.8597195198157</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22795,28 +22963,28 @@
         <v>0.0473</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08581710004502104</v>
+        <v>0.09231859967706424</v>
       </c>
       <c r="J15" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K15" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002544765456783948</v>
+        <v>0.002981602499897873</v>
       </c>
       <c r="M15" t="n">
-        <v>9.397486075062631</v>
+        <v>9.397117831113309</v>
       </c>
       <c r="N15" t="n">
-        <v>142.9222603428176</v>
+        <v>142.6529303945268</v>
       </c>
       <c r="O15" t="n">
-        <v>11.95500984285741</v>
+        <v>11.94374021797723</v>
       </c>
       <c r="P15" t="n">
-        <v>265.9566505049345</v>
+        <v>265.8913519937283</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22873,28 +23041,28 @@
         <v>0.0465</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1084312803661306</v>
+        <v>0.1181274535383895</v>
       </c>
       <c r="J16" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K16" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004410958264763565</v>
+        <v>0.005268556835814953</v>
       </c>
       <c r="M16" t="n">
-        <v>9.020635354032173</v>
+        <v>9.048957229976535</v>
       </c>
       <c r="N16" t="n">
-        <v>129.7911995287211</v>
+        <v>130.2620825145862</v>
       </c>
       <c r="O16" t="n">
-        <v>11.39259406494944</v>
+        <v>11.41324154281273</v>
       </c>
       <c r="P16" t="n">
-        <v>259.9201420480406</v>
+        <v>259.8212712189397</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22951,28 +23119,28 @@
         <v>0.0529</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1295293335080514</v>
+        <v>0.1446283543109487</v>
       </c>
       <c r="J17" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K17" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L17" t="n">
-        <v>0.007169689440989835</v>
+        <v>0.008939399150165617</v>
       </c>
       <c r="M17" t="n">
-        <v>8.226665813262422</v>
+        <v>8.252285605055439</v>
       </c>
       <c r="N17" t="n">
-        <v>114.3524228780086</v>
+        <v>115.3678332946803</v>
       </c>
       <c r="O17" t="n">
-        <v>10.69356923005638</v>
+        <v>10.74094191841108</v>
       </c>
       <c r="P17" t="n">
-        <v>254.7536846769624</v>
+        <v>254.600532650902</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23029,28 +23197,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1042781232772419</v>
+        <v>0.1046270672128802</v>
       </c>
       <c r="J18" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K18" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004620755117575759</v>
+        <v>0.004711691009350538</v>
       </c>
       <c r="M18" t="n">
-        <v>8.47059942559912</v>
+        <v>8.478420551510959</v>
       </c>
       <c r="N18" t="n">
-        <v>112.0956122242725</v>
+        <v>111.9095425694093</v>
       </c>
       <c r="O18" t="n">
-        <v>10.58752153359191</v>
+        <v>10.57873066910248</v>
       </c>
       <c r="P18" t="n">
-        <v>254.1582425839409</v>
+        <v>254.1544877411875</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23107,28 +23275,28 @@
         <v>0.0623</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1205948602107363</v>
+        <v>0.1156343326050268</v>
       </c>
       <c r="J19" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K19" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007178650176773105</v>
+        <v>0.006730537855784702</v>
       </c>
       <c r="M19" t="n">
-        <v>7.747933811948961</v>
+        <v>7.704389950261731</v>
       </c>
       <c r="N19" t="n">
-        <v>97.04544087774286</v>
+        <v>96.29419337022726</v>
       </c>
       <c r="O19" t="n">
-        <v>9.851164442731775</v>
+        <v>9.812960479398011</v>
       </c>
       <c r="P19" t="n">
-        <v>259.0066145656599</v>
+        <v>259.057629997159</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -23185,28 +23353,28 @@
         <v>0.0711</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0866660738899125</v>
+        <v>0.09248948766285209</v>
       </c>
       <c r="J20" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K20" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003926126790289586</v>
+        <v>0.004547720644974884</v>
       </c>
       <c r="M20" t="n">
-        <v>7.243404337655911</v>
+        <v>7.210473288220708</v>
       </c>
       <c r="N20" t="n">
-        <v>89.8943256762637</v>
+        <v>89.30420908289918</v>
       </c>
       <c r="O20" t="n">
-        <v>9.481261818780435</v>
+        <v>9.450090427233974</v>
       </c>
       <c r="P20" t="n">
-        <v>258.987354493723</v>
+        <v>258.9262101878992</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -23263,28 +23431,28 @@
         <v>0.0505</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2236096039551778</v>
+        <v>0.2332155303598155</v>
       </c>
       <c r="J21" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K21" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02138271008836012</v>
+        <v>0.02355818212989946</v>
       </c>
       <c r="M21" t="n">
-        <v>8.122936708228004</v>
+        <v>8.098841218502944</v>
       </c>
       <c r="N21" t="n">
-        <v>107.7364099789945</v>
+        <v>107.3154701118939</v>
       </c>
       <c r="O21" t="n">
-        <v>10.37961511709343</v>
+        <v>10.35931803314745</v>
       </c>
       <c r="P21" t="n">
-        <v>267.5630778858084</v>
+        <v>267.4621261032617</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -23341,28 +23509,28 @@
         <v>0.0769</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3033120217387797</v>
+        <v>0.3306899203783736</v>
       </c>
       <c r="J22" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K22" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02906330785485944</v>
+        <v>0.03422015419320124</v>
       </c>
       <c r="M22" t="n">
-        <v>9.156005013509647</v>
+        <v>9.199734446164742</v>
       </c>
       <c r="N22" t="n">
-        <v>143.910958757458</v>
+        <v>146.0989738946374</v>
       </c>
       <c r="O22" t="n">
-        <v>11.99628937452986</v>
+        <v>12.08714084863072</v>
       </c>
       <c r="P22" t="n">
-        <v>273.9817452635455</v>
+        <v>273.6909182631545</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -23400,7 +23568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W271"/>
+  <dimension ref="A1:W273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51211,6 +51379,236 @@
         </is>
       </c>
     </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>-35.51337148165524,174.46935192229265</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>-35.51414557679666,174.46841852657852</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>-35.51473324152128,174.4674427541358</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>-35.51535734733692,174.46684625153748</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>-35.515899623609386,174.46615286575434</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>-35.51662818687205,174.46556313739381</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>-35.517342367803586,174.46506677420928</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>-35.518022176397075,174.46472145984282</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>-35.518675146196934,174.46431614204698</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>-35.51937188292236,174.46388175526062</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>-35.52007060539218,174.46342855793105</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>-35.52073364733193,174.46302782384507</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>-35.52142130222184,174.46267960555443</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>-35.522115871064464,174.4623033690678</t>
+        </is>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>-35.52282000676178,174.46200577184615</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>-35.52350279943822,174.46166356258556</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>-35.52431605301891,174.4614768011874</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>-35.52513246567955,174.4613916782097</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>-35.525869945050346,174.4614142502036</t>
+        </is>
+      </c>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t>-35.52660552268736,174.46141567352345</t>
+        </is>
+      </c>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>-35.513961926667406,174.47049718391796</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>-35.51325973387156,174.46931216422698</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>-35.5144072206602,174.46858316481877</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>-35.51477027147747,174.4674821900874</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>-35.51542963105516,174.46693050947985</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>-35.51601164913359,174.46629776311553</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>-35.51672150527486,174.46572920418004</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>-35.517423549118924,174.46524830612208</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>-35.518031477436956,174.4647422582106</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>-35.51875950469738,174.4645047798844</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>-35.519409469373926,174.46398137126445</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>-35.520110765873675,174.46355934319223</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>-35.52079067917891,174.46321635958398</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>-35.52148005133296,174.46288215919665</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>-35.52218587980121,174.46256727003706</t>
+        </is>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>-35.52288884204947,174.46227786733903</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>-35.523552658157435,174.46186309341462</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>-35.52432130488435,174.46150853716432</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>-35.52513848514328,174.46146064764872</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>-35.52588074809498,174.4615383906459</t>
+        </is>
+      </c>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>-35.52663183123466,174.46171887935512</t>
+        </is>
+      </c>
+      <c r="W273" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W273"/>
+  <dimension ref="A1:W277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18858,9 +18858,7 @@
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
-      <c r="C272" t="n">
-        <v>180.09</v>
-      </c>
+      <c r="C272" t="inlineStr"/>
       <c r="D272" t="n">
         <v>237.7</v>
       </c>
@@ -18933,9 +18931,7 @@
       <c r="B273" t="n">
         <v>271.08</v>
       </c>
-      <c r="C273" t="n">
-        <v>167.18</v>
-      </c>
+      <c r="C273" t="inlineStr"/>
       <c r="D273" t="n">
         <v>270.34</v>
       </c>
@@ -18994,6 +18990,272 @@
         <v>310.0030769230769</v>
       </c>
       <c r="W273" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>290.33</v>
+      </c>
+      <c r="C274" t="n">
+        <v>254.15</v>
+      </c>
+      <c r="D274" t="n">
+        <v>231.2</v>
+      </c>
+      <c r="E274" t="n">
+        <v>251.5733333333333</v>
+      </c>
+      <c r="F274" t="n">
+        <v>263.2533333333333</v>
+      </c>
+      <c r="G274" t="n">
+        <v>271.8433333333333</v>
+      </c>
+      <c r="H274" t="n">
+        <v>279.5557142857143</v>
+      </c>
+      <c r="I274" t="n">
+        <v>276.8657142857143</v>
+      </c>
+      <c r="J274" t="n">
+        <v>278.63</v>
+      </c>
+      <c r="K274" t="n">
+        <v>275.47</v>
+      </c>
+      <c r="L274" t="n">
+        <v>271.9</v>
+      </c>
+      <c r="M274" t="n">
+        <v>262.42</v>
+      </c>
+      <c r="N274" t="n">
+        <v>260.5588888888889</v>
+      </c>
+      <c r="O274" t="n">
+        <v>253.8688888888889</v>
+      </c>
+      <c r="P274" t="n">
+        <v>250.5088888888889</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>245.13</v>
+      </c>
+      <c r="R274" t="n">
+        <v>248.4188888888889</v>
+      </c>
+      <c r="S274" t="n">
+        <v>256.0554545454545</v>
+      </c>
+      <c r="T274" t="n">
+        <v>250.7223076923077</v>
+      </c>
+      <c r="U274" t="n">
+        <v>263.5588888888889</v>
+      </c>
+      <c r="V274" t="n">
+        <v>275.9723076923077</v>
+      </c>
+      <c r="W274" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="n">
+        <v>228.4133333333334</v>
+      </c>
+      <c r="F275" t="n">
+        <v>243.9633333333333</v>
+      </c>
+      <c r="G275" t="n">
+        <v>253.4833333333333</v>
+      </c>
+      <c r="H275" t="n">
+        <v>271.2771428571428</v>
+      </c>
+      <c r="I275" t="n">
+        <v>262.9471428571429</v>
+      </c>
+      <c r="J275" t="n">
+        <v>267.79</v>
+      </c>
+      <c r="K275" t="n">
+        <v>270.77</v>
+      </c>
+      <c r="L275" t="n">
+        <v>277.04</v>
+      </c>
+      <c r="M275" t="n">
+        <v>266.09</v>
+      </c>
+      <c r="N275" t="n">
+        <v>262.5888888888889</v>
+      </c>
+      <c r="O275" t="n">
+        <v>250.4388888888889</v>
+      </c>
+      <c r="P275" t="n">
+        <v>254.6788888888889</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>241.28</v>
+      </c>
+      <c r="R275" t="n">
+        <v>256.3188888888889</v>
+      </c>
+      <c r="S275" t="n">
+        <v>255.1363636363636</v>
+      </c>
+      <c r="T275" t="n">
+        <v>259.0892307692308</v>
+      </c>
+      <c r="U275" t="n">
+        <v>268.9388888888889</v>
+      </c>
+      <c r="V275" t="n">
+        <v>276.0392307692308</v>
+      </c>
+      <c r="W275" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>302.98</v>
+      </c>
+      <c r="C276" t="n">
+        <v>268.08</v>
+      </c>
+      <c r="D276" t="n">
+        <v>267.66</v>
+      </c>
+      <c r="E276" t="n">
+        <v>267.1533333333333</v>
+      </c>
+      <c r="F276" t="n">
+        <v>272.1633333333333</v>
+      </c>
+      <c r="G276" t="n">
+        <v>263.8033333333333</v>
+      </c>
+      <c r="H276" t="n">
+        <v>273.3614285714286</v>
+      </c>
+      <c r="I276" t="n">
+        <v>270.2714285714285</v>
+      </c>
+      <c r="J276" t="n">
+        <v>273.85</v>
+      </c>
+      <c r="K276" t="n">
+        <v>298.46</v>
+      </c>
+      <c r="L276" t="n">
+        <v>299.1</v>
+      </c>
+      <c r="M276" t="n">
+        <v>287.35</v>
+      </c>
+      <c r="N276" t="n">
+        <v>282.2355555555555</v>
+      </c>
+      <c r="O276" t="n">
+        <v>259.9055555555556</v>
+      </c>
+      <c r="P276" t="n">
+        <v>257.4555555555555</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>252.16</v>
+      </c>
+      <c r="R276" t="n">
+        <v>248.0355555555556</v>
+      </c>
+      <c r="S276" t="n">
+        <v>262.0045454545455</v>
+      </c>
+      <c r="T276" t="n">
+        <v>257.3292307692308</v>
+      </c>
+      <c r="U276" t="n">
+        <v>272.8055555555555</v>
+      </c>
+      <c r="V276" t="n">
+        <v>285.0192307692308</v>
+      </c>
+      <c r="W276" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="n">
+        <v>229.8133333333333</v>
+      </c>
+      <c r="F277" t="n">
+        <v>244.7133333333333</v>
+      </c>
+      <c r="G277" t="n">
+        <v>267.0133333333333</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr"/>
+      <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr"/>
+      <c r="S277" t="n">
+        <v>278.9736363636364</v>
+      </c>
+      <c r="T277" t="n">
+        <v>260.7438461538462</v>
+      </c>
+      <c r="U277" t="n">
+        <v>275.8455555555556</v>
+      </c>
+      <c r="V277" t="n">
+        <v>278.4238461538461</v>
+      </c>
+      <c r="W277" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -19010,7 +19272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21788,6 +22050,46 @@
       </c>
       <c r="B277" t="n">
         <v>-0.59</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -21955,28 +22257,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.6545238307994911</v>
+        <v>0.643729523757005</v>
       </c>
       <c r="J2" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0366281019710275</v>
+        <v>0.03775957763910831</v>
       </c>
       <c r="M2" t="n">
-        <v>18.08292904114782</v>
+        <v>17.7737830495719</v>
       </c>
       <c r="N2" t="n">
-        <v>494.0668791316979</v>
+        <v>482.1908935661954</v>
       </c>
       <c r="O2" t="n">
-        <v>22.22761523717058</v>
+        <v>21.9588454515759</v>
       </c>
       <c r="P2" t="n">
-        <v>281.6826671634829</v>
+        <v>281.7987928731888</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22027,28 +22329,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.4953067028428652</v>
+        <v>-0.1203487154699667</v>
       </c>
       <c r="J3" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K3" t="n">
         <v>116</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004032953066206768</v>
+        <v>0.0002224774316704758</v>
       </c>
       <c r="M3" t="n">
-        <v>36.8344879585965</v>
+        <v>38.62863275328484</v>
       </c>
       <c r="N3" t="n">
-        <v>2512.175786653242</v>
+        <v>2702.367086582723</v>
       </c>
       <c r="O3" t="n">
-        <v>50.12160997666817</v>
+        <v>51.98429653830783</v>
       </c>
       <c r="P3" t="n">
-        <v>164.387897829666</v>
+        <v>160.1398880183363</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22105,28 +22407,28 @@
         <v>0.0683</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4303313973993592</v>
+        <v>-0.3177116894019901</v>
       </c>
       <c r="J4" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K4" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01973314367139445</v>
+        <v>0.01049676394593335</v>
       </c>
       <c r="M4" t="n">
-        <v>15.98826931623748</v>
+        <v>16.36940323964338</v>
       </c>
       <c r="N4" t="n">
-        <v>422.5977772989362</v>
+        <v>443.5567089438546</v>
       </c>
       <c r="O4" t="n">
-        <v>20.5571831071024</v>
+        <v>21.06078604762545</v>
       </c>
       <c r="P4" t="n">
-        <v>216.3606142278792</v>
+        <v>215.1319740312832</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22183,28 +22485,28 @@
         <v>0.0346</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4506073556694644</v>
+        <v>-0.4487834172256719</v>
       </c>
       <c r="J5" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K5" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03083621546611059</v>
+        <v>0.03133712877058725</v>
       </c>
       <c r="M5" t="n">
-        <v>14.48031710861557</v>
+        <v>14.49246726595328</v>
       </c>
       <c r="N5" t="n">
-        <v>322.9092550392121</v>
+        <v>321.8261873261543</v>
       </c>
       <c r="O5" t="n">
-        <v>17.9696759859273</v>
+        <v>17.93951469037427</v>
       </c>
       <c r="P5" t="n">
-        <v>255.2640843750638</v>
+        <v>255.2456808034415</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22261,28 +22563,28 @@
         <v>0.0326</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5176551104451947</v>
+        <v>-0.5148923463182308</v>
       </c>
       <c r="J6" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K6" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0535624136366295</v>
+        <v>0.05445731720787128</v>
       </c>
       <c r="M6" t="n">
-        <v>12.10307664810296</v>
+        <v>12.09667220865003</v>
       </c>
       <c r="N6" t="n">
-        <v>229.9846834831304</v>
+        <v>228.6194629137686</v>
       </c>
       <c r="O6" t="n">
-        <v>15.16524590908866</v>
+        <v>15.12016742347017</v>
       </c>
       <c r="P6" t="n">
-        <v>268.503775676952</v>
+        <v>268.4753465487665</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22339,28 +22641,28 @@
         <v>0.0337</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3447018903027582</v>
+        <v>-0.3643360683934926</v>
       </c>
       <c r="J7" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K7" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02864934979432732</v>
+        <v>0.03281375715493229</v>
       </c>
       <c r="M7" t="n">
-        <v>11.15883091129202</v>
+        <v>11.09306670955636</v>
       </c>
       <c r="N7" t="n">
-        <v>200.8779504302288</v>
+        <v>198.949551709943</v>
       </c>
       <c r="O7" t="n">
-        <v>14.1731418686976</v>
+        <v>14.10494777409484</v>
       </c>
       <c r="P7" t="n">
-        <v>278.8641425899522</v>
+        <v>279.0663173609697</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22417,28 +22719,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3762887807024051</v>
+        <v>-0.3846475368373873</v>
       </c>
       <c r="J8" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K8" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0337516735939688</v>
+        <v>0.03612817654082046</v>
       </c>
       <c r="M8" t="n">
-        <v>10.93816544851597</v>
+        <v>10.85882583291229</v>
       </c>
       <c r="N8" t="n">
-        <v>197.3949840902634</v>
+        <v>195.3308691341006</v>
       </c>
       <c r="O8" t="n">
-        <v>14.04973252735665</v>
+        <v>13.97608203804273</v>
       </c>
       <c r="P8" t="n">
-        <v>287.6493298457285</v>
+        <v>287.7355847368392</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22495,28 +22797,28 @@
         <v>0.037</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2199398072365022</v>
+        <v>-0.2369408225322228</v>
       </c>
       <c r="J9" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K9" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01227446542600708</v>
+        <v>0.01454668385689994</v>
       </c>
       <c r="M9" t="n">
-        <v>10.86131567950672</v>
+        <v>10.82093534220902</v>
       </c>
       <c r="N9" t="n">
-        <v>193.8135031927198</v>
+        <v>192.4141500991189</v>
       </c>
       <c r="O9" t="n">
-        <v>13.92169182221471</v>
+        <v>13.87134276481981</v>
       </c>
       <c r="P9" t="n">
-        <v>282.3930228703138</v>
+        <v>282.5657551305225</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22573,28 +22875,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.138068646918668</v>
+        <v>-0.1501033549084718</v>
       </c>
       <c r="J10" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K10" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005061232338653854</v>
+        <v>0.006127815098694978</v>
       </c>
       <c r="M10" t="n">
-        <v>10.49830311613394</v>
+        <v>10.43066208806829</v>
       </c>
       <c r="N10" t="n">
-        <v>186.7569979580044</v>
+        <v>185.0193597519837</v>
       </c>
       <c r="O10" t="n">
-        <v>13.6659064082118</v>
+        <v>13.60218216875453</v>
       </c>
       <c r="P10" t="n">
-        <v>281.7146766641284</v>
+        <v>281.8372809061923</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22651,28 +22953,28 @@
         <v>0.0408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03271933544261075</v>
+        <v>0.0305457978849262</v>
       </c>
       <c r="J11" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K11" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003477799026435635</v>
+        <v>0.0003079559559697742</v>
       </c>
       <c r="M11" t="n">
-        <v>9.477231432209066</v>
+        <v>9.501565902935694</v>
       </c>
       <c r="N11" t="n">
-        <v>154.0670182688728</v>
+        <v>153.9803874721451</v>
       </c>
       <c r="O11" t="n">
-        <v>12.41237359528276</v>
+        <v>12.40888340956369</v>
       </c>
       <c r="P11" t="n">
-        <v>281.5909565967013</v>
+        <v>281.6130826251336</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22729,28 +23031,28 @@
         <v>0.0406</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01382738273725608</v>
+        <v>-0.02060186005848841</v>
       </c>
       <c r="J12" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K12" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L12" t="n">
-        <v>6.620277080349179e-05</v>
+        <v>0.0001491896297917128</v>
       </c>
       <c r="M12" t="n">
-        <v>9.100572473008944</v>
+        <v>9.134805135517997</v>
       </c>
       <c r="N12" t="n">
-        <v>144.6538125216488</v>
+        <v>144.6748145484613</v>
       </c>
       <c r="O12" t="n">
-        <v>12.027211336035</v>
+        <v>12.02808440893484</v>
       </c>
       <c r="P12" t="n">
-        <v>285.7704396939739</v>
+        <v>285.8393190563609</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22807,28 +23109,28 @@
         <v>0.0422</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02733795249224429</v>
+        <v>0.007278682898017331</v>
       </c>
       <c r="J13" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K13" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002494113469390102</v>
+        <v>1.792242973486236e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>9.682703935931563</v>
+        <v>9.734032254411074</v>
       </c>
       <c r="N13" t="n">
-        <v>150.0698540563876</v>
+        <v>150.4510575971194</v>
       </c>
       <c r="O13" t="n">
-        <v>12.25030016188941</v>
+        <v>12.26584924076272</v>
       </c>
       <c r="P13" t="n">
-        <v>279.24899897671</v>
+        <v>279.4517776294172</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22885,28 +23187,28 @@
         <v>0.0473</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03985274709527023</v>
+        <v>0.02826760376093186</v>
       </c>
       <c r="J14" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0005715498241632977</v>
+        <v>0.0002931935956875797</v>
       </c>
       <c r="M14" t="n">
-        <v>9.24119406463395</v>
+        <v>9.262829161895075</v>
       </c>
       <c r="N14" t="n">
-        <v>136.463881610869</v>
+        <v>136.1956046036303</v>
       </c>
       <c r="O14" t="n">
-        <v>11.68177561892322</v>
+        <v>11.67028725454649</v>
       </c>
       <c r="P14" t="n">
-        <v>271.8597195198157</v>
+        <v>271.9772383184887</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22963,28 +23265,28 @@
         <v>0.0473</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09231859967706424</v>
+        <v>0.05851302560053374</v>
       </c>
       <c r="J15" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K15" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002981602499897873</v>
+        <v>0.001214524480664503</v>
       </c>
       <c r="M15" t="n">
-        <v>9.397117831113309</v>
+        <v>9.45653822530668</v>
       </c>
       <c r="N15" t="n">
-        <v>142.6529303945268</v>
+        <v>143.219219662438</v>
       </c>
       <c r="O15" t="n">
-        <v>11.94374021797723</v>
+        <v>11.96742326745561</v>
       </c>
       <c r="P15" t="n">
-        <v>265.8913519937283</v>
+        <v>266.2322046618373</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23041,28 +23343,28 @@
         <v>0.0465</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1181274535383895</v>
+        <v>0.09602079794260313</v>
       </c>
       <c r="J16" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K16" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L16" t="n">
-        <v>0.005268556835814953</v>
+        <v>0.003559879543960975</v>
       </c>
       <c r="M16" t="n">
-        <v>9.048957229976535</v>
+        <v>9.042469275260187</v>
       </c>
       <c r="N16" t="n">
-        <v>130.2620825145862</v>
+        <v>129.6534849837726</v>
       </c>
       <c r="O16" t="n">
-        <v>11.41324154281273</v>
+        <v>11.38654842275624</v>
       </c>
       <c r="P16" t="n">
-        <v>259.8212712189397</v>
+        <v>260.0476081512448</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23119,28 +23421,28 @@
         <v>0.0529</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1446283543109487</v>
+        <v>0.1140603368889656</v>
       </c>
       <c r="J17" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K17" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L17" t="n">
-        <v>0.008939399150165617</v>
+        <v>0.005640355458944923</v>
       </c>
       <c r="M17" t="n">
-        <v>8.252285605055439</v>
+        <v>8.317345795279758</v>
       </c>
       <c r="N17" t="n">
-        <v>115.3678332946803</v>
+        <v>115.9155810225842</v>
       </c>
       <c r="O17" t="n">
-        <v>10.74094191841108</v>
+        <v>10.76640984834704</v>
       </c>
       <c r="P17" t="n">
-        <v>254.600532650902</v>
+        <v>254.912113671285</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23197,28 +23499,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1046270672128802</v>
+        <v>0.0890449885909015</v>
       </c>
       <c r="J18" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K18" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004711691009350538</v>
+        <v>0.00349816607495923</v>
       </c>
       <c r="M18" t="n">
-        <v>8.478420551510959</v>
+        <v>8.458589203357834</v>
       </c>
       <c r="N18" t="n">
-        <v>111.9095425694093</v>
+        <v>111.1315262259213</v>
       </c>
       <c r="O18" t="n">
-        <v>10.57873066910248</v>
+        <v>10.5418938633398</v>
       </c>
       <c r="P18" t="n">
-        <v>254.1544877411875</v>
+        <v>254.3160009208899</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23275,28 +23577,28 @@
         <v>0.0623</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1156343326050268</v>
+        <v>0.1193303905705025</v>
       </c>
       <c r="J19" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K19" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L19" t="n">
-        <v>0.006730537855784702</v>
+        <v>0.007327041852436489</v>
       </c>
       <c r="M19" t="n">
-        <v>7.704389950261731</v>
+        <v>7.70081839372415</v>
       </c>
       <c r="N19" t="n">
-        <v>96.29419337022726</v>
+        <v>96.23019367454654</v>
       </c>
       <c r="O19" t="n">
-        <v>9.812960479398011</v>
+        <v>9.809698959425134</v>
       </c>
       <c r="P19" t="n">
-        <v>259.057629997159</v>
+        <v>259.0190081751945</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -23353,28 +23655,28 @@
         <v>0.0711</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09248948766285209</v>
+        <v>0.07727388732640668</v>
       </c>
       <c r="J20" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K20" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L20" t="n">
-        <v>0.004547720644974884</v>
+        <v>0.003281465628335978</v>
       </c>
       <c r="M20" t="n">
-        <v>7.210473288220708</v>
+        <v>7.15656542689982</v>
       </c>
       <c r="N20" t="n">
-        <v>89.30420908289918</v>
+        <v>88.36007595679871</v>
       </c>
       <c r="O20" t="n">
-        <v>9.450090427233974</v>
+        <v>9.400004040254382</v>
       </c>
       <c r="P20" t="n">
-        <v>258.9262101878992</v>
+        <v>259.0867874589455</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -23431,28 +23733,28 @@
         <v>0.0505</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2332155303598155</v>
+        <v>0.2220326320169334</v>
       </c>
       <c r="J21" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K21" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02355818212989946</v>
+        <v>0.02211304263398262</v>
       </c>
       <c r="M21" t="n">
-        <v>8.098841218502944</v>
+        <v>8.038627050928646</v>
       </c>
       <c r="N21" t="n">
-        <v>107.3154701118939</v>
+        <v>106.0343088306192</v>
       </c>
       <c r="O21" t="n">
-        <v>10.35931803314745</v>
+        <v>10.29729619029283</v>
       </c>
       <c r="P21" t="n">
-        <v>267.4621261032617</v>
+        <v>267.5801512450849</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -23509,28 +23811,28 @@
         <v>0.0769</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3306899203783736</v>
+        <v>0.3187116860667621</v>
       </c>
       <c r="J22" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K22" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03422015419320124</v>
+        <v>0.0329805939075154</v>
       </c>
       <c r="M22" t="n">
-        <v>9.199734446164742</v>
+        <v>9.121768433353171</v>
       </c>
       <c r="N22" t="n">
-        <v>146.0989738946374</v>
+        <v>144.0012904507621</v>
       </c>
       <c r="O22" t="n">
-        <v>12.08714084863072</v>
+        <v>12.00005376866129</v>
       </c>
       <c r="P22" t="n">
-        <v>273.6909182631545</v>
+        <v>273.8188468119533</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -23568,7 +23870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W273"/>
+  <dimension ref="A1:W277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51386,11 +51688,7 @@
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>-35.51337148165524,174.46935192229265</t>
-        </is>
-      </c>
+      <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr">
         <is>
           <t>-35.51414557679666,174.46841852657852</t>
@@ -51503,11 +51801,7 @@
           <t>-35.513961926667406,174.47049718391796</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>-35.51325973387156,174.46931216422698</t>
-        </is>
-      </c>
+      <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
           <t>-35.5144072206602,174.46858316481877</t>
@@ -51604,6 +51898,406 @@
         </is>
       </c>
       <c r="W273" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>-35.514128552382644,174.47055646927424</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>-35.5140125379239,174.4695800021621</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>-35.51409347244214,174.46838574029454</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>-35.5148303714745,174.46754619514877</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>-35.51543543898282,174.46693727953473</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>-35.516020134656884,174.4663087385863</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>-35.51670329095364,174.46569679042662</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>-35.51739379832566,174.46518177938827</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>-35.518039264351216,174.46475967080124</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>-35.518663422504225,174.4642899262551</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>-35.51933531632335,174.4637848424916</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>-35.520040270978015,174.4633297723043</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>-35.52072170077628,174.46298833110987</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>-35.52139625788779,174.46259325880843</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>-35.522101683750726,174.46224988969783</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>-35.5227967417321,174.4619138093586</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>-35.52350514759849,174.46167295971014</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>-35.5243127067795,174.46145658055767</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>-35.525122416465535,174.4612765379811</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>-35.525861147932915,174.46131316147722</t>
+        </is>
+      </c>
+      <c r="V274" t="inlineStr">
+        <is>
+          <t>-35.526599451375176,174.46134570297122</t>
+        </is>
+      </c>
+      <c r="W274" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>-35.51467291484301,174.46737850788372</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>-35.51530955695337,174.46679054451874</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>-35.51590641616859,174.46616165144727</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>-35.51666101939609,174.46562156513164</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>-35.51733358591624,174.4650471368337</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>-35.517992369783755,174.46465480836096</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>-35.51864308988661,174.46424445977036</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>-35.51935473289521,174.46383630236033</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>-35.52005190393452,174.46336765560304</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>-35.520728051187355,174.46300932419172</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>-35.521385919294964,174.46255761394457</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>-35.52211328649572,174.46229362647478</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>-35.522786481644744,174.46187325318036</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>-35.52352596479726,174.4617562684062</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>-35.52431106292593,174.4614466471002</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>-35.52513042360222,174.4613682807281</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>-35.52586628180403,174.46137215528145</t>
+        </is>
+      </c>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t>-35.52659951505281,174.46134643683953</t>
+        </is>
+      </c>
+      <c r="W275" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>-35.51423804925971,174.4705954283623</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>-35.514133114604775,174.46962290229698</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>-35.51438573765675,174.46856964668683</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>-35.51493629423027,174.46765900068246</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>-35.51549358349456,174.46700505620564</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>-35.515970336388186,174.46624432782735</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>-35.51667166205861,174.46564050450402</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>-35.51736527114792,174.46511798894676</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>-35.51801858576208,174.46471343070672</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>-35.518762879031044,174.46451232540596</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>-35.519438065240614,174.4640571595813</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>-35.52011929242919,174.46358711056067</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>-35.52078951129428,174.4632124987813</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>-35.52141445338309,174.46265599240468</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>-35.522121012375266,174.4623227493713</t>
+        </is>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>-35.522815476349244,174.46198786391216</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>-35.523504137479755,174.4616689173061</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>-35.52432334709352,174.46152087784242</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>-35.52512873928989,174.46134898244554</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>-35.525869971557135,174.46141455479784</t>
+        </is>
+      </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t>-35.52660805952493,174.4614449101668</t>
+        </is>
+      </c>
+      <c r="W276" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>-35.51468243295398,174.4673886444009</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>-35.51531445128158,174.46679624960413</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>-35.51599021853718,174.46627004405366</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr"/>
+      <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr"/>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>-35.524353697162816,174.4617042784668</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>-35.52513200705913,174.46138642347603</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>-35.52587287245595,174.46144788959236</t>
+        </is>
+      </c>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>-35.5266017840228,174.46137258617085</t>
+        </is>
+      </c>
+      <c r="W277" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W277"/>
+  <dimension ref="A1:W278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19261,6 +19261,73 @@
         </is>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="n">
+        <v>276.5633333333333</v>
+      </c>
+      <c r="G278" t="n">
+        <v>281.0633333333333</v>
+      </c>
+      <c r="H278" t="n">
+        <v>287.7442857142857</v>
+      </c>
+      <c r="I278" t="n">
+        <v>289.0342857142857</v>
+      </c>
+      <c r="J278" t="n">
+        <v>296.09</v>
+      </c>
+      <c r="K278" t="n">
+        <v>296.24</v>
+      </c>
+      <c r="L278" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="M278" t="n">
+        <v>299.48</v>
+      </c>
+      <c r="N278" t="n">
+        <v>294.9722222222222</v>
+      </c>
+      <c r="O278" t="n">
+        <v>273.3822222222223</v>
+      </c>
+      <c r="P278" t="n">
+        <v>264.8822222222223</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>266.79</v>
+      </c>
+      <c r="R278" t="n">
+        <v>261.2022222222222</v>
+      </c>
+      <c r="S278" t="n">
+        <v>268.3109090909091</v>
+      </c>
+      <c r="T278" t="n">
+        <v>265.4769230769231</v>
+      </c>
+      <c r="U278" t="n">
+        <v>281.5522222222222</v>
+      </c>
+      <c r="V278" t="n">
+        <v>307.3769230769231</v>
+      </c>
+      <c r="W278" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19272,7 +19339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22090,6 +22157,16 @@
       </c>
       <c r="B281" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -22260,7 +22337,7 @@
         <v>0.643729523757005</v>
       </c>
       <c r="J2" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K2" t="n">
         <v>76</v>
@@ -22332,7 +22409,7 @@
         <v>-0.1203487154699667</v>
       </c>
       <c r="J3" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K3" t="n">
         <v>116</v>
@@ -22410,7 +22487,7 @@
         <v>-0.3177116894019901</v>
       </c>
       <c r="J4" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K4" t="n">
         <v>170</v>
@@ -22488,7 +22565,7 @@
         <v>-0.4487834172256719</v>
       </c>
       <c r="J5" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K5" t="n">
         <v>234</v>
@@ -22563,28 +22640,28 @@
         <v>0.0326</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5148923463182308</v>
+        <v>-0.4962636988542692</v>
       </c>
       <c r="J6" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K6" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05445731720787128</v>
+        <v>0.0508496577470896</v>
       </c>
       <c r="M6" t="n">
-        <v>12.09667220865003</v>
+        <v>12.13768266714354</v>
       </c>
       <c r="N6" t="n">
-        <v>228.6194629137686</v>
+        <v>229.5198230881259</v>
       </c>
       <c r="O6" t="n">
-        <v>15.12016742347017</v>
+        <v>15.14991165281586</v>
       </c>
       <c r="P6" t="n">
-        <v>268.4753465487665</v>
+        <v>268.2824300365055</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22641,28 +22718,28 @@
         <v>0.0337</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3643360683934926</v>
+        <v>-0.3551007933873394</v>
       </c>
       <c r="J7" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K7" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03281375715493229</v>
+        <v>0.03140699198728913</v>
       </c>
       <c r="M7" t="n">
-        <v>11.09306670955636</v>
+        <v>11.09252703879855</v>
       </c>
       <c r="N7" t="n">
-        <v>198.949551709943</v>
+        <v>198.6666735684977</v>
       </c>
       <c r="O7" t="n">
-        <v>14.10494777409484</v>
+        <v>14.09491658607803</v>
       </c>
       <c r="P7" t="n">
-        <v>279.0663173609697</v>
+        <v>278.9709967659065</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22719,28 +22796,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3846475368373873</v>
+        <v>-0.3763012820910546</v>
       </c>
       <c r="J8" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K8" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03612817654082046</v>
+        <v>0.03487134586875107</v>
       </c>
       <c r="M8" t="n">
-        <v>10.85882583291229</v>
+        <v>10.85548856443503</v>
       </c>
       <c r="N8" t="n">
-        <v>195.3308691341006</v>
+        <v>194.9435554424388</v>
       </c>
       <c r="O8" t="n">
-        <v>13.97608203804273</v>
+        <v>13.96221885813422</v>
       </c>
       <c r="P8" t="n">
-        <v>287.7355847368392</v>
+        <v>287.6492721651554</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22797,28 +22874,28 @@
         <v>0.037</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2369408225322228</v>
+        <v>-0.226446307659279</v>
       </c>
       <c r="J9" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K9" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01454668385689994</v>
+        <v>0.01338117754183643</v>
       </c>
       <c r="M9" t="n">
-        <v>10.82093534220902</v>
+        <v>10.82234123493659</v>
       </c>
       <c r="N9" t="n">
-        <v>192.4141500991189</v>
+        <v>192.2692525042124</v>
       </c>
       <c r="O9" t="n">
-        <v>13.87134276481981</v>
+        <v>13.86611886953997</v>
       </c>
       <c r="P9" t="n">
-        <v>282.5657551305225</v>
+        <v>282.4588635460814</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22875,28 +22952,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1501033549084718</v>
+        <v>-0.134935618399397</v>
       </c>
       <c r="J10" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K10" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006127815098694978</v>
+        <v>0.004968306165380576</v>
       </c>
       <c r="M10" t="n">
-        <v>10.43066208806829</v>
+        <v>10.46348532214891</v>
       </c>
       <c r="N10" t="n">
-        <v>185.0193597519837</v>
+        <v>185.5696420186223</v>
       </c>
       <c r="O10" t="n">
-        <v>13.60218216875453</v>
+        <v>13.62239487089632</v>
       </c>
       <c r="P10" t="n">
-        <v>281.8372809061923</v>
+        <v>281.682371176962</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22953,28 +23030,28 @@
         <v>0.0408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0305457978849262</v>
+        <v>0.04230679025947691</v>
       </c>
       <c r="J11" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K11" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003079559559697742</v>
+        <v>0.0005929384453026154</v>
       </c>
       <c r="M11" t="n">
-        <v>9.501565902935694</v>
+        <v>9.525902696199253</v>
       </c>
       <c r="N11" t="n">
-        <v>153.9803874721451</v>
+        <v>154.1249086395104</v>
       </c>
       <c r="O11" t="n">
-        <v>12.40888340956369</v>
+        <v>12.41470533840858</v>
       </c>
       <c r="P11" t="n">
-        <v>281.6130826251336</v>
+        <v>281.4919368903542</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23031,28 +23108,28 @@
         <v>0.0406</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.02060186005848841</v>
+        <v>-0.0113652013123279</v>
       </c>
       <c r="J12" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K12" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001491896297917128</v>
+        <v>4.56576637068995e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>9.134805135517997</v>
+        <v>9.140491438450942</v>
       </c>
       <c r="N12" t="n">
-        <v>144.6748145484613</v>
+        <v>144.5915843178076</v>
       </c>
       <c r="O12" t="n">
-        <v>12.02808440893484</v>
+        <v>12.02462408218268</v>
       </c>
       <c r="P12" t="n">
-        <v>285.8393190563609</v>
+        <v>285.7448324098555</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23109,28 +23186,28 @@
         <v>0.0422</v>
       </c>
       <c r="I13" t="n">
-        <v>0.007278682898017331</v>
+        <v>0.02378977504036818</v>
       </c>
       <c r="J13" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K13" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L13" t="n">
-        <v>1.792242973486236e-05</v>
+        <v>0.0001912171800795281</v>
       </c>
       <c r="M13" t="n">
-        <v>9.734032254411074</v>
+        <v>9.762112781619367</v>
       </c>
       <c r="N13" t="n">
-        <v>150.4510575971194</v>
+        <v>151.3885793070024</v>
       </c>
       <c r="O13" t="n">
-        <v>12.26584924076272</v>
+        <v>12.30400663633608</v>
       </c>
       <c r="P13" t="n">
-        <v>279.4517776294172</v>
+        <v>279.2842314031472</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23187,28 +23264,28 @@
         <v>0.0473</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02826760376093186</v>
+        <v>0.04764152172357798</v>
       </c>
       <c r="J14" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K14" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002931935956875797</v>
+        <v>0.0008283632316034018</v>
       </c>
       <c r="M14" t="n">
-        <v>9.262829161895075</v>
+        <v>9.306339459230834</v>
       </c>
       <c r="N14" t="n">
-        <v>136.1956046036303</v>
+        <v>137.6133210768432</v>
       </c>
       <c r="O14" t="n">
-        <v>11.67028725454649</v>
+        <v>11.73087043133813</v>
       </c>
       <c r="P14" t="n">
-        <v>271.9772383184887</v>
+        <v>271.7798806073619</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23265,28 +23342,28 @@
         <v>0.0473</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05851302560053374</v>
+        <v>0.06318841667190472</v>
       </c>
       <c r="J15" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K15" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001214524480664503</v>
+        <v>0.001427763588022768</v>
       </c>
       <c r="M15" t="n">
-        <v>9.45653822530668</v>
+        <v>9.439665401936551</v>
       </c>
       <c r="N15" t="n">
-        <v>143.219219662438</v>
+        <v>142.7844130684871</v>
       </c>
       <c r="O15" t="n">
-        <v>11.96742326745561</v>
+        <v>11.94924320065865</v>
       </c>
       <c r="P15" t="n">
-        <v>266.2322046618373</v>
+        <v>266.1849255818826</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23343,28 +23420,28 @@
         <v>0.0465</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09602079794260313</v>
+        <v>0.09802846762963846</v>
       </c>
       <c r="J16" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K16" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003559879543960975</v>
+        <v>0.003743097072819612</v>
       </c>
       <c r="M16" t="n">
-        <v>9.042469275260187</v>
+        <v>9.015679096688888</v>
       </c>
       <c r="N16" t="n">
-        <v>129.6534849837726</v>
+        <v>129.1570008459611</v>
       </c>
       <c r="O16" t="n">
-        <v>11.38654842275624</v>
+        <v>11.36472616678295</v>
       </c>
       <c r="P16" t="n">
-        <v>260.0476081512448</v>
+        <v>260.0269898972873</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23421,28 +23498,28 @@
         <v>0.0529</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1140603368889656</v>
+        <v>0.1215357345800686</v>
       </c>
       <c r="J17" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K17" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005640355458944923</v>
+        <v>0.006439496086472096</v>
       </c>
       <c r="M17" t="n">
-        <v>8.317345795279758</v>
+        <v>8.314578343901152</v>
       </c>
       <c r="N17" t="n">
-        <v>115.9155810225842</v>
+        <v>115.7697575170925</v>
       </c>
       <c r="O17" t="n">
-        <v>10.76640984834704</v>
+        <v>10.75963556618404</v>
       </c>
       <c r="P17" t="n">
-        <v>254.912113671285</v>
+        <v>254.8356877766913</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23499,28 +23576,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0890449885909015</v>
+        <v>0.09305606042748892</v>
       </c>
       <c r="J18" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K18" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00349816607495923</v>
+        <v>0.003852101267386554</v>
       </c>
       <c r="M18" t="n">
-        <v>8.458589203357834</v>
+        <v>8.439719789483798</v>
       </c>
       <c r="N18" t="n">
-        <v>111.1315262259213</v>
+        <v>110.7660699414179</v>
       </c>
       <c r="O18" t="n">
-        <v>10.5418938633398</v>
+        <v>10.5245460681883</v>
       </c>
       <c r="P18" t="n">
-        <v>254.3160009208899</v>
+        <v>254.2743117691368</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23577,28 +23654,28 @@
         <v>0.0623</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1193303905705025</v>
+        <v>0.1248160967804648</v>
       </c>
       <c r="J19" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K19" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L19" t="n">
-        <v>0.007327041852436489</v>
+        <v>0.008072226585174036</v>
       </c>
       <c r="M19" t="n">
-        <v>7.70081839372415</v>
+        <v>7.695792623859893</v>
       </c>
       <c r="N19" t="n">
-        <v>96.23019367454654</v>
+        <v>95.98756139730045</v>
       </c>
       <c r="O19" t="n">
-        <v>9.809698959425134</v>
+        <v>9.797324195784299</v>
       </c>
       <c r="P19" t="n">
-        <v>259.0190081751945</v>
+        <v>258.962040981129</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -23655,28 +23732,28 @@
         <v>0.0711</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07727388732640668</v>
+        <v>0.08112255343266692</v>
       </c>
       <c r="J20" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K20" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003281465628335978</v>
+        <v>0.003645169185637398</v>
       </c>
       <c r="M20" t="n">
-        <v>7.15656542689982</v>
+        <v>7.146440680426021</v>
       </c>
       <c r="N20" t="n">
-        <v>88.36007595679871</v>
+        <v>88.07524566918347</v>
       </c>
       <c r="O20" t="n">
-        <v>9.400004040254382</v>
+        <v>9.384841270324367</v>
       </c>
       <c r="P20" t="n">
-        <v>259.0867874589455</v>
+        <v>259.0460448128477</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -23733,28 +23810,28 @@
         <v>0.0505</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2220326320169334</v>
+        <v>0.2293266393495136</v>
       </c>
       <c r="J21" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K21" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02211304263398262</v>
+        <v>0.02370737420302194</v>
       </c>
       <c r="M21" t="n">
-        <v>8.038627050928646</v>
+        <v>8.037680200630064</v>
       </c>
       <c r="N21" t="n">
-        <v>106.0343088306192</v>
+        <v>105.8741787148489</v>
       </c>
       <c r="O21" t="n">
-        <v>10.29729619029283</v>
+        <v>10.28951790488013</v>
       </c>
       <c r="P21" t="n">
-        <v>267.5801512450849</v>
+        <v>267.5028738925697</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -23811,28 +23888,28 @@
         <v>0.0769</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3187116860667621</v>
+        <v>0.341538520778281</v>
       </c>
       <c r="J22" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K22" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0329805939075154</v>
+        <v>0.03734804125393854</v>
       </c>
       <c r="M22" t="n">
-        <v>9.121768433353171</v>
+        <v>9.192535125508465</v>
       </c>
       <c r="N22" t="n">
-        <v>144.0012904507621</v>
+        <v>146.0993544948002</v>
       </c>
       <c r="O22" t="n">
-        <v>12.00005376866129</v>
+        <v>12.08715659263171</v>
       </c>
       <c r="P22" t="n">
-        <v>273.8188468119533</v>
+        <v>273.5743362622912</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -23870,7 +23947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W277"/>
+  <dimension ref="A1:W278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52303,6 +52380,107 @@
         </is>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>-35.51552229681857,174.4670385262027</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>-35.51607724158153,174.46638260276336</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>-35.51674510291014,174.46577119799102</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>-35.5174464400233,174.4652994933219</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>-35.51811479728432,174.46492857310164</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>-35.518753275157025,174.4644908496924</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>-35.51942824368029,174.464031129242</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>-35.52015774109076,174.46371232185015</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>-35.5208293548581,174.463344214263</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>-35.521455074128255,174.46279604326494</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>-35.52214167651725,174.4624006435315</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>-35.5228544644579,174.4621419775483</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>-35.52353883278319,174.46180776515237</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>-35.524334626373836,174.4615890365187</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>-35.52513653656984,174.46143832135388</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>-35.52587831797779,174.46151046544034</t>
+        </is>
+      </c>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t>-35.52662933252289,174.46169008133108</t>
+        </is>
+      </c>
+      <c r="W278" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W278"/>
+  <dimension ref="A1:W281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19328,6 +19328,207 @@
         </is>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="n">
+        <v>298.47</v>
+      </c>
+      <c r="D279" t="n">
+        <v>301.09</v>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="n">
+        <v>274.74</v>
+      </c>
+      <c r="G279" t="n">
+        <v>262.81</v>
+      </c>
+      <c r="H279" t="n">
+        <v>268.3414285714285</v>
+      </c>
+      <c r="I279" t="n">
+        <v>272.2914285714286</v>
+      </c>
+      <c r="J279" t="n">
+        <v>276.24</v>
+      </c>
+      <c r="K279" t="n">
+        <v>267.49</v>
+      </c>
+      <c r="L279" t="n">
+        <v>263.59</v>
+      </c>
+      <c r="M279" t="n">
+        <v>253.78</v>
+      </c>
+      <c r="N279" t="n">
+        <v>249.2166666666667</v>
+      </c>
+      <c r="O279" t="n">
+        <v>252.7666666666667</v>
+      </c>
+      <c r="P279" t="n">
+        <v>248.5266666666667</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>245.72</v>
+      </c>
+      <c r="R279" t="n">
+        <v>241.9966666666666</v>
+      </c>
+      <c r="S279" t="n">
+        <v>249.1054545454546</v>
+      </c>
+      <c r="T279" t="n">
+        <v>250.3507692307692</v>
+      </c>
+      <c r="U279" t="n">
+        <v>264.5566666666667</v>
+      </c>
+      <c r="V279" t="n">
+        <v>270.4807692307692</v>
+      </c>
+      <c r="W279" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="n">
+        <v>282.3542857142857</v>
+      </c>
+      <c r="J280" t="n">
+        <v>277.13</v>
+      </c>
+      <c r="K280" t="n">
+        <v>285.06</v>
+      </c>
+      <c r="L280" t="n">
+        <v>284.06</v>
+      </c>
+      <c r="M280" t="n">
+        <v>278.52</v>
+      </c>
+      <c r="N280" t="n">
+        <v>277.5266666666667</v>
+      </c>
+      <c r="O280" t="n">
+        <v>270.9466666666667</v>
+      </c>
+      <c r="P280" t="n">
+        <v>270.6766666666667</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>261.18</v>
+      </c>
+      <c r="R280" t="n">
+        <v>262.1466666666666</v>
+      </c>
+      <c r="S280" t="n">
+        <v>259.5872727272728</v>
+      </c>
+      <c r="T280" t="n">
+        <v>261.8346153846153</v>
+      </c>
+      <c r="U280" t="n">
+        <v>272.2166666666667</v>
+      </c>
+      <c r="V280" t="n">
+        <v>279.9146153846153</v>
+      </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="n">
+        <v>232.16</v>
+      </c>
+      <c r="F281" t="n">
+        <v>250.98</v>
+      </c>
+      <c r="G281" t="n">
+        <v>270.22</v>
+      </c>
+      <c r="H281" t="n">
+        <v>273.5171428571429</v>
+      </c>
+      <c r="I281" t="n">
+        <v>276.5671428571428</v>
+      </c>
+      <c r="J281" t="n">
+        <v>274.47</v>
+      </c>
+      <c r="K281" t="n">
+        <v>279.47</v>
+      </c>
+      <c r="L281" t="n">
+        <v>284.07</v>
+      </c>
+      <c r="M281" t="n">
+        <v>275.37</v>
+      </c>
+      <c r="N281" t="n">
+        <v>272.98</v>
+      </c>
+      <c r="O281" t="n">
+        <v>264.49</v>
+      </c>
+      <c r="P281" t="n">
+        <v>268.64</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>252.26</v>
+      </c>
+      <c r="R281" t="n">
+        <v>258.87</v>
+      </c>
+      <c r="S281" t="n">
+        <v>254.5718181818182</v>
+      </c>
+      <c r="T281" t="n">
+        <v>258.1330769230769</v>
+      </c>
+      <c r="U281" t="n">
+        <v>270.32</v>
+      </c>
+      <c r="V281" t="n">
+        <v>277.6730769230769</v>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19339,7 +19540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22167,6 +22368,36 @@
       </c>
       <c r="B282" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -22337,7 +22568,7 @@
         <v>0.643729523757005</v>
       </c>
       <c r="J2" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K2" t="n">
         <v>76</v>
@@ -22406,28 +22637,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.1203487154699667</v>
+        <v>0.1753116810046363</v>
       </c>
       <c r="J3" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K3" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002224774316704758</v>
+        <v>0.0004543322185411869</v>
       </c>
       <c r="M3" t="n">
-        <v>38.62863275328484</v>
+        <v>39.73089995213483</v>
       </c>
       <c r="N3" t="n">
-        <v>2702.367086582723</v>
+        <v>2845.085357488852</v>
       </c>
       <c r="O3" t="n">
-        <v>51.98429653830783</v>
+        <v>53.33934155469912</v>
       </c>
       <c r="P3" t="n">
-        <v>160.1398880183363</v>
+        <v>156.7824812993192</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22484,28 +22715,28 @@
         <v>0.0683</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3177116894019901</v>
+        <v>-0.198584098273422</v>
       </c>
       <c r="J4" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K4" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01049676394593335</v>
+        <v>0.003750448764365255</v>
       </c>
       <c r="M4" t="n">
-        <v>16.36940323964338</v>
+        <v>16.89820987077928</v>
       </c>
       <c r="N4" t="n">
-        <v>443.5567089438546</v>
+        <v>491.8140836922474</v>
       </c>
       <c r="O4" t="n">
-        <v>21.06078604762545</v>
+        <v>22.17688173960098</v>
       </c>
       <c r="P4" t="n">
-        <v>215.1319740312832</v>
+        <v>213.8269409987442</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22562,28 +22793,28 @@
         <v>0.0346</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4487834172256719</v>
+        <v>-0.4588940611535282</v>
       </c>
       <c r="J5" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K5" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03133712877058725</v>
+        <v>0.03296547876507683</v>
       </c>
       <c r="M5" t="n">
-        <v>14.49246726595328</v>
+        <v>14.47290559822409</v>
       </c>
       <c r="N5" t="n">
-        <v>321.8261873261543</v>
+        <v>321.0123964213787</v>
       </c>
       <c r="O5" t="n">
-        <v>17.93951469037427</v>
+        <v>17.91681881421416</v>
       </c>
       <c r="P5" t="n">
-        <v>255.2456808034415</v>
+        <v>255.3490945382908</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22640,28 +22871,28 @@
         <v>0.0326</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4962636988542692</v>
+        <v>-0.4837019319375003</v>
       </c>
       <c r="J6" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K6" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0508496577470896</v>
+        <v>0.04897129038357706</v>
       </c>
       <c r="M6" t="n">
-        <v>12.13768266714354</v>
+        <v>12.13977274460893</v>
       </c>
       <c r="N6" t="n">
-        <v>229.5198230881259</v>
+        <v>229.227623837672</v>
       </c>
       <c r="O6" t="n">
-        <v>15.14991165281586</v>
+        <v>15.14026498571515</v>
       </c>
       <c r="P6" t="n">
-        <v>268.2824300365055</v>
+        <v>268.1522183587928</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22718,28 +22949,28 @@
         <v>0.0337</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3551007933873394</v>
+        <v>-0.3603638024641008</v>
       </c>
       <c r="J7" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K7" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03140699198728913</v>
+        <v>0.03282139570590092</v>
       </c>
       <c r="M7" t="n">
-        <v>11.09252703879855</v>
+        <v>11.03543962428802</v>
       </c>
       <c r="N7" t="n">
-        <v>198.6666735684977</v>
+        <v>197.3004435265777</v>
       </c>
       <c r="O7" t="n">
-        <v>14.09491658607803</v>
+        <v>14.04636762748924</v>
       </c>
       <c r="P7" t="n">
-        <v>278.9709967659065</v>
+        <v>279.0254122437119</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22796,28 +23027,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3763012820910546</v>
+        <v>-0.3879211735192291</v>
       </c>
       <c r="J8" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K8" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03487134586875107</v>
+        <v>0.03754458777956149</v>
       </c>
       <c r="M8" t="n">
-        <v>10.85548856443503</v>
+        <v>10.82363657897371</v>
       </c>
       <c r="N8" t="n">
-        <v>194.9435554424388</v>
+        <v>193.8531844190094</v>
       </c>
       <c r="O8" t="n">
-        <v>13.96221885813422</v>
+        <v>13.92311690746757</v>
       </c>
       <c r="P8" t="n">
-        <v>287.6492721651554</v>
+        <v>287.769760834413</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22874,28 +23105,28 @@
         <v>0.037</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.226446307659279</v>
+        <v>-0.2253555176903921</v>
       </c>
       <c r="J9" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K9" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01338117754183643</v>
+        <v>0.01359464184450987</v>
       </c>
       <c r="M9" t="n">
-        <v>10.82234123493659</v>
+        <v>10.73488735556196</v>
       </c>
       <c r="N9" t="n">
-        <v>192.2692525042124</v>
+        <v>190.2257362320546</v>
       </c>
       <c r="O9" t="n">
-        <v>13.86611886953997</v>
+        <v>13.7922346351871</v>
       </c>
       <c r="P9" t="n">
-        <v>282.4588635460814</v>
+        <v>282.4476887154168</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22952,28 +23183,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.134935618399397</v>
+        <v>-0.1404401170167397</v>
       </c>
       <c r="J10" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K10" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004968306165380576</v>
+        <v>0.0055221805836001</v>
       </c>
       <c r="M10" t="n">
-        <v>10.46348532214891</v>
+        <v>10.36500724681745</v>
       </c>
       <c r="N10" t="n">
-        <v>185.5696420186223</v>
+        <v>183.4585441269281</v>
       </c>
       <c r="O10" t="n">
-        <v>13.62239487089632</v>
+        <v>13.54468693351486</v>
       </c>
       <c r="P10" t="n">
-        <v>281.682371176962</v>
+        <v>281.7387912635022</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23030,28 +23261,28 @@
         <v>0.0408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04230679025947691</v>
+        <v>0.02938954576667207</v>
       </c>
       <c r="J11" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K11" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0005929384453026154</v>
+        <v>0.0002920562724627596</v>
       </c>
       <c r="M11" t="n">
-        <v>9.525902696199253</v>
+        <v>9.485986906766215</v>
       </c>
       <c r="N11" t="n">
-        <v>154.1249086395104</v>
+        <v>153.2227103926164</v>
       </c>
       <c r="O11" t="n">
-        <v>12.41470533840858</v>
+        <v>12.37831613720608</v>
       </c>
       <c r="P11" t="n">
-        <v>281.4919368903542</v>
+        <v>281.6253031103473</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23108,28 +23339,28 @@
         <v>0.0406</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0113652013123279</v>
+        <v>-0.03103283045101983</v>
       </c>
       <c r="J12" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K12" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L12" t="n">
-        <v>4.56576637068995e-05</v>
+        <v>0.0003448486862416278</v>
       </c>
       <c r="M12" t="n">
-        <v>9.140491438450942</v>
+        <v>9.131157088912985</v>
       </c>
       <c r="N12" t="n">
-        <v>144.5915843178076</v>
+        <v>144.749898920719</v>
       </c>
       <c r="O12" t="n">
-        <v>12.02462408218268</v>
+        <v>12.03120521480367</v>
       </c>
       <c r="P12" t="n">
-        <v>285.7448324098555</v>
+        <v>285.9464427130811</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23186,28 +23417,28 @@
         <v>0.0422</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02378977504036818</v>
+        <v>-0.00198042577791312</v>
       </c>
       <c r="J13" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K13" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001912171800795281</v>
+        <v>1.337187220395997e-06</v>
       </c>
       <c r="M13" t="n">
-        <v>9.762112781619367</v>
+        <v>9.786716502011245</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3885793070024</v>
+        <v>152.3125144416904</v>
       </c>
       <c r="O13" t="n">
-        <v>12.30400663633608</v>
+        <v>12.34149563228422</v>
       </c>
       <c r="P13" t="n">
-        <v>279.2842314031472</v>
+        <v>279.5463323386215</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23264,28 +23495,28 @@
         <v>0.0473</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04764152172357798</v>
+        <v>0.03145364230134167</v>
       </c>
       <c r="J14" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K14" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0008283632316034018</v>
+        <v>0.0003653186519211316</v>
       </c>
       <c r="M14" t="n">
-        <v>9.306339459230834</v>
+        <v>9.315968801991941</v>
       </c>
       <c r="N14" t="n">
-        <v>137.6133210768432</v>
+        <v>138.2826390127831</v>
       </c>
       <c r="O14" t="n">
-        <v>11.73087043133813</v>
+        <v>11.75936388640062</v>
       </c>
       <c r="P14" t="n">
-        <v>271.7798806073619</v>
+        <v>271.9450384917759</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23342,28 +23573,28 @@
         <v>0.0473</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06318841667190472</v>
+        <v>0.05098820577898966</v>
       </c>
       <c r="J15" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K15" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001427763588022768</v>
+        <v>0.0009489621844236407</v>
       </c>
       <c r="M15" t="n">
-        <v>9.439665401936551</v>
+        <v>9.418002243963389</v>
       </c>
       <c r="N15" t="n">
-        <v>142.7844130684871</v>
+        <v>142.0765722739056</v>
       </c>
       <c r="O15" t="n">
-        <v>11.94924320065865</v>
+        <v>11.91958775603861</v>
       </c>
       <c r="P15" t="n">
-        <v>266.1849255818826</v>
+        <v>266.3085754201035</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23420,28 +23651,28 @@
         <v>0.0465</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09802846762963846</v>
+        <v>0.09822472914330151</v>
       </c>
       <c r="J16" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K16" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003743097072819612</v>
+        <v>0.003824799211051721</v>
       </c>
       <c r="M16" t="n">
-        <v>9.015679096688888</v>
+        <v>9.020337648722858</v>
       </c>
       <c r="N16" t="n">
-        <v>129.1570008459611</v>
+        <v>128.8099645116626</v>
       </c>
       <c r="O16" t="n">
-        <v>11.36472616678295</v>
+        <v>11.34944776240953</v>
       </c>
       <c r="P16" t="n">
-        <v>260.0269898972873</v>
+        <v>260.0247556776204</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23498,28 +23729,28 @@
         <v>0.0529</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1215357345800686</v>
+        <v>0.109612602365277</v>
       </c>
       <c r="J17" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K17" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L17" t="n">
-        <v>0.006439496086472096</v>
+        <v>0.005350376597223705</v>
       </c>
       <c r="M17" t="n">
-        <v>8.314578343901152</v>
+        <v>8.307385748523526</v>
       </c>
       <c r="N17" t="n">
-        <v>115.7697575170925</v>
+        <v>115.1557689323861</v>
       </c>
       <c r="O17" t="n">
-        <v>10.75963556618404</v>
+        <v>10.731065600973</v>
       </c>
       <c r="P17" t="n">
-        <v>254.8356877766913</v>
+        <v>254.9579208000341</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23576,28 +23807,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09305606042748892</v>
+        <v>0.08718253310810573</v>
       </c>
       <c r="J18" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K18" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003852101267386554</v>
+        <v>0.00344561582775782</v>
       </c>
       <c r="M18" t="n">
-        <v>8.439719789483798</v>
+        <v>8.432865121259377</v>
       </c>
       <c r="N18" t="n">
-        <v>110.7660699414179</v>
+        <v>110.4346793925329</v>
       </c>
       <c r="O18" t="n">
-        <v>10.5245460681883</v>
+        <v>10.50879057706133</v>
       </c>
       <c r="P18" t="n">
-        <v>254.2743117691368</v>
+        <v>254.3353670564416</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23654,28 +23885,28 @@
         <v>0.0623</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1248160967804648</v>
+        <v>0.1049922538995957</v>
       </c>
       <c r="J19" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K19" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L19" t="n">
-        <v>0.008072226585174036</v>
+        <v>0.005826630868822513</v>
       </c>
       <c r="M19" t="n">
-        <v>7.695792623859893</v>
+        <v>7.692175008371315</v>
       </c>
       <c r="N19" t="n">
-        <v>95.98756139730045</v>
+        <v>95.74120692493945</v>
       </c>
       <c r="O19" t="n">
-        <v>9.797324195784299</v>
+        <v>9.784743579927859</v>
       </c>
       <c r="P19" t="n">
-        <v>258.962040981129</v>
+        <v>259.168503004181</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -23732,28 +23963,28 @@
         <v>0.0711</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08112255343266692</v>
+        <v>0.070064070958941</v>
       </c>
       <c r="J20" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K20" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003645169185637398</v>
+        <v>0.002779696666656672</v>
       </c>
       <c r="M20" t="n">
-        <v>7.146440680426021</v>
+        <v>7.114486480014334</v>
       </c>
       <c r="N20" t="n">
-        <v>88.07524566918347</v>
+        <v>87.50362655521262</v>
       </c>
       <c r="O20" t="n">
-        <v>9.384841270324367</v>
+        <v>9.354337312456325</v>
       </c>
       <c r="P20" t="n">
-        <v>259.0460448128477</v>
+        <v>259.1633964012688</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -23810,28 +24041,28 @@
         <v>0.0505</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2293266393495136</v>
+        <v>0.2181171169354561</v>
       </c>
       <c r="J21" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K21" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02370737420302194</v>
+        <v>0.02200076549369967</v>
       </c>
       <c r="M21" t="n">
-        <v>8.037680200630064</v>
+        <v>7.993496831362048</v>
       </c>
       <c r="N21" t="n">
-        <v>105.8741787148489</v>
+        <v>104.9293845837492</v>
       </c>
       <c r="O21" t="n">
-        <v>10.28951790488013</v>
+        <v>10.2435045069424</v>
       </c>
       <c r="P21" t="n">
-        <v>267.5028738925697</v>
+        <v>267.6219413980975</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -23888,28 +24119,28 @@
         <v>0.0769</v>
       </c>
       <c r="I22" t="n">
-        <v>0.341538520778281</v>
+        <v>0.324966116174554</v>
       </c>
       <c r="J22" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K22" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03734804125393854</v>
+        <v>0.03467601556141953</v>
       </c>
       <c r="M22" t="n">
-        <v>9.192535125508465</v>
+        <v>9.152261104518429</v>
       </c>
       <c r="N22" t="n">
-        <v>146.0993544948002</v>
+        <v>144.9450419494501</v>
       </c>
       <c r="O22" t="n">
-        <v>12.08715659263171</v>
+        <v>12.03931235367909</v>
       </c>
       <c r="P22" t="n">
-        <v>273.5743362622912</v>
+        <v>273.7523299308139</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -23947,7 +24178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W278"/>
+  <dimension ref="A1:W281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52481,6 +52712,309 @@
         </is>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>-35.51439616732065,174.4697164946581</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>-35.51465371395056,174.46873827077687</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>-35.51551039819234,174.46702465643588</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>-35.51596418386322,174.46623636995304</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>-35.5166460292116,174.46559488905356</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>-35.51737400976283,174.46513752960155</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>-35.51802892505894,174.46473655075107</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>-35.51862890030465,174.46421272998154</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>-35.519303924891794,174.46370164575106</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>-35.52001288435108,174.4632405865964</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>-35.52068621904561,174.4628710364891</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>-35.5213929356071,174.4625818044165</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>-35.52209616834484,174.46222909929173</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>-35.52279831405595,174.4619200244621</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>-35.523488224431645,174.46160523480899</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>-35.524300276234214,174.46138146554986</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>-35.52512206090198,174.4612724640873</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>-35.5258621000657,174.4613241025003</t>
+        </is>
+      </c>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t>-35.526594226134776,174.46128548359664</t>
+        </is>
+      </c>
+      <c r="W279" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>-35.517417542106806,174.46523487363268</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>-35.51803277525619,174.46474516030884</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>-35.51870490964123,174.4643826973013</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>-35.5193812512117,174.46390658416567</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>-35.52009130374846,174.46349596342088</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>-35.5207747806434,174.4631638021184</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>-35.52144773300169,174.46277073271932</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>-35.52215779908789,174.46246141825074</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>-35.52283951415425,174.46208288132507</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>-35.52354132146957,174.46181772470695</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>-35.52431902365715,174.46149475215591</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>-35.52513305091715,174.4613983836886</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>-35.525869409612945,174.4614080974</t>
+        </is>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>-35.52660320249211,174.46138893372122</t>
+        </is>
+      </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>-35.514698387118905,174.4674056351399</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>-35.51535534610157,174.4668439187889</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>-35.51601008003427,174.46629573358834</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>-35.516672457158016,174.46564191944017</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>-35.51739250669293,174.46517889112857</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>-35.51802126792322,174.4647194283746</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>-35.51868072684564,174.46432862115347</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>-35.51938128898703,174.46390668428222</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>-35.52008131909444,174.46346344775162</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>-35.520760557447495,174.46311678308226</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>-35.5214282716221,174.46270363439197</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>-35.52215213223203,174.46244005677917</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>-35.522815742844166,174.46198891731999</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>-35.52353268718815,174.46178317091372</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>-35.52431005319944,174.46144054554046</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>-35.525129508567545,174.4613577965649</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>-35.52586759972618,174.46138729970605</t>
+        </is>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>-35.52660106966382,174.46136435334898</t>
+        </is>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W281"/>
+  <dimension ref="A1:W283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19468,7 +19468,9 @@
       </c>
       <c r="B281" t="inlineStr"/>
       <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
+      <c r="D281" t="n">
+        <v>174.86</v>
+      </c>
       <c r="E281" t="n">
         <v>232.16</v>
       </c>
@@ -19526,6 +19528,148 @@
       <c r="W281" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="n">
+        <v>173.57</v>
+      </c>
+      <c r="E282" t="n">
+        <v>233.6266666666667</v>
+      </c>
+      <c r="F282" t="n">
+        <v>244.9266666666666</v>
+      </c>
+      <c r="G282" t="n">
+        <v>262.8666666666667</v>
+      </c>
+      <c r="H282" t="n">
+        <v>271.0657142857143</v>
+      </c>
+      <c r="I282" t="n">
+        <v>270.5857142857143</v>
+      </c>
+      <c r="J282" t="n">
+        <v>270.99</v>
+      </c>
+      <c r="K282" t="n">
+        <v>273</v>
+      </c>
+      <c r="L282" t="n">
+        <v>274.12</v>
+      </c>
+      <c r="M282" t="n">
+        <v>270.83</v>
+      </c>
+      <c r="N282" t="n">
+        <v>267.9311111111111</v>
+      </c>
+      <c r="O282" t="n">
+        <v>264.6611111111111</v>
+      </c>
+      <c r="P282" t="n">
+        <v>259.9311111111111</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>253.98</v>
+      </c>
+      <c r="R282" t="n">
+        <v>253.8311111111112</v>
+      </c>
+      <c r="S282" t="n">
+        <v>258.5663636363636</v>
+      </c>
+      <c r="T282" t="n">
+        <v>256.23</v>
+      </c>
+      <c r="U282" t="n">
+        <v>264.9211111111111</v>
+      </c>
+      <c r="V282" t="n">
+        <v>282.3</v>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="E283" t="n">
+        <v>229.1733333333333</v>
+      </c>
+      <c r="F283" t="n">
+        <v>242.8933333333333</v>
+      </c>
+      <c r="G283" t="n">
+        <v>262.6433333333333</v>
+      </c>
+      <c r="H283" t="n">
+        <v>269.5971428571428</v>
+      </c>
+      <c r="I283" t="n">
+        <v>265.9471428571428</v>
+      </c>
+      <c r="J283" t="n">
+        <v>260.65</v>
+      </c>
+      <c r="K283" t="n">
+        <v>264.95</v>
+      </c>
+      <c r="L283" t="n">
+        <v>269.76</v>
+      </c>
+      <c r="M283" t="n">
+        <v>272.16</v>
+      </c>
+      <c r="N283" t="n">
+        <v>258.0722222222222</v>
+      </c>
+      <c r="O283" t="n">
+        <v>264.5822222222222</v>
+      </c>
+      <c r="P283" t="n">
+        <v>256.9522222222222</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>252.95</v>
+      </c>
+      <c r="R283" t="n">
+        <v>250.0322222222222</v>
+      </c>
+      <c r="S283" t="n">
+        <v>255.9681818181818</v>
+      </c>
+      <c r="T283" t="n">
+        <v>254.9484615384616</v>
+      </c>
+      <c r="U283" t="n">
+        <v>261.7822222222222</v>
+      </c>
+      <c r="V283" t="n">
+        <v>273.4684615384616</v>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19540,7 +19684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22398,6 +22542,26 @@
       </c>
       <c r="B285" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -22568,7 +22732,7 @@
         <v>0.643729523757005</v>
       </c>
       <c r="J2" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K2" t="n">
         <v>76</v>
@@ -22640,7 +22804,7 @@
         <v>0.1753116810046363</v>
       </c>
       <c r="J3" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K3" t="n">
         <v>117</v>
@@ -22715,28 +22879,28 @@
         <v>0.0683</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.198584098273422</v>
+        <v>-0.311339862613389</v>
       </c>
       <c r="J4" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K4" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003750448764365255</v>
+        <v>0.009214361535760163</v>
       </c>
       <c r="M4" t="n">
-        <v>16.89820987077928</v>
+        <v>17.04463502002391</v>
       </c>
       <c r="N4" t="n">
-        <v>491.8140836922474</v>
+        <v>499.5017611908733</v>
       </c>
       <c r="O4" t="n">
-        <v>22.17688173960098</v>
+        <v>22.34953603972291</v>
       </c>
       <c r="P4" t="n">
-        <v>213.8269409987442</v>
+        <v>215.0672072133734</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22793,28 +22957,28 @@
         <v>0.0346</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4588940611535282</v>
+        <v>-0.4796698711430487</v>
       </c>
       <c r="J5" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K5" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03296547876507683</v>
+        <v>0.03642508136851896</v>
       </c>
       <c r="M5" t="n">
-        <v>14.47290559822409</v>
+        <v>14.43627026853506</v>
       </c>
       <c r="N5" t="n">
-        <v>321.0123964213787</v>
+        <v>319.5442461713941</v>
       </c>
       <c r="O5" t="n">
-        <v>17.91681881421416</v>
+        <v>17.87580057427902</v>
       </c>
       <c r="P5" t="n">
-        <v>255.3490945382908</v>
+        <v>255.5621237788947</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22871,28 +23035,28 @@
         <v>0.0326</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4837019319375003</v>
+        <v>-0.5034572166732304</v>
       </c>
       <c r="J6" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K6" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04897129038357706</v>
+        <v>0.05351374395822139</v>
       </c>
       <c r="M6" t="n">
-        <v>12.13977274460893</v>
+        <v>12.12818914007136</v>
       </c>
       <c r="N6" t="n">
-        <v>229.227623837672</v>
+        <v>228.4690765003197</v>
       </c>
       <c r="O6" t="n">
-        <v>15.14026498571515</v>
+        <v>15.11519356476521</v>
       </c>
       <c r="P6" t="n">
-        <v>268.1522183587928</v>
+        <v>268.3582385264754</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22949,28 +23113,28 @@
         <v>0.0337</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3603638024641008</v>
+        <v>-0.3712935536901514</v>
       </c>
       <c r="J7" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K7" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03282139570590092</v>
+        <v>0.03527633386140405</v>
       </c>
       <c r="M7" t="n">
-        <v>11.03543962428802</v>
+        <v>11.00513153534872</v>
       </c>
       <c r="N7" t="n">
-        <v>197.3004435265777</v>
+        <v>196.1321722044443</v>
       </c>
       <c r="O7" t="n">
-        <v>14.04636762748924</v>
+        <v>14.00471964033712</v>
       </c>
       <c r="P7" t="n">
-        <v>279.0254122437119</v>
+        <v>279.139051531386</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23027,28 +23191,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3879211735192291</v>
+        <v>-0.3999825816565842</v>
       </c>
       <c r="J8" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K8" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03754458777956149</v>
+        <v>0.04041978450145089</v>
       </c>
       <c r="M8" t="n">
-        <v>10.82363657897371</v>
+        <v>10.79445636988284</v>
       </c>
       <c r="N8" t="n">
-        <v>193.8531844190094</v>
+        <v>192.7734959109943</v>
       </c>
       <c r="O8" t="n">
-        <v>13.92311690746757</v>
+        <v>13.88428953569444</v>
       </c>
       <c r="P8" t="n">
-        <v>287.769760834413</v>
+        <v>287.8953583525409</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23105,28 +23269,28 @@
         <v>0.037</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2253555176903921</v>
+        <v>-0.2386642086785512</v>
       </c>
       <c r="J9" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K9" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01359464184450987</v>
+        <v>0.01544003880560807</v>
       </c>
       <c r="M9" t="n">
-        <v>10.73488735556196</v>
+        <v>10.72189397910629</v>
       </c>
       <c r="N9" t="n">
-        <v>190.2257362320546</v>
+        <v>189.3238328287856</v>
       </c>
       <c r="O9" t="n">
-        <v>13.7922346351871</v>
+        <v>13.75949973032398</v>
       </c>
       <c r="P9" t="n">
-        <v>282.4476887154168</v>
+        <v>282.5842220828569</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23183,28 +23347,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1404401170167397</v>
+        <v>-0.1600594868250478</v>
       </c>
       <c r="J10" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K10" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0055221805836001</v>
+        <v>0.007232056771495299</v>
       </c>
       <c r="M10" t="n">
-        <v>10.36500724681745</v>
+        <v>10.37236999263739</v>
       </c>
       <c r="N10" t="n">
-        <v>183.4585441269281</v>
+        <v>183.384487960935</v>
       </c>
       <c r="O10" t="n">
-        <v>13.54468693351486</v>
+        <v>13.54195288578922</v>
       </c>
       <c r="P10" t="n">
-        <v>281.7387912635022</v>
+        <v>281.9406376097102</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23261,28 +23425,28 @@
         <v>0.0408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02938954576667207</v>
+        <v>0.007676996895953234</v>
       </c>
       <c r="J11" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K11" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002920562724627596</v>
+        <v>2.007677209081571e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>9.485986906766215</v>
+        <v>9.504273951354174</v>
       </c>
       <c r="N11" t="n">
-        <v>153.2227103926164</v>
+        <v>153.5316331532616</v>
       </c>
       <c r="O11" t="n">
-        <v>12.37831613720608</v>
+        <v>12.39078823777009</v>
       </c>
       <c r="P11" t="n">
-        <v>281.6253031103473</v>
+        <v>281.8506378950286</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23339,28 +23503,28 @@
         <v>0.0406</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03103283045101983</v>
+        <v>-0.05182666719161775</v>
       </c>
       <c r="J12" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K12" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003448486862416278</v>
+        <v>0.0009685684648204074</v>
       </c>
       <c r="M12" t="n">
-        <v>9.131157088912985</v>
+        <v>9.167029538842375</v>
       </c>
       <c r="N12" t="n">
-        <v>144.749898920719</v>
+        <v>144.9830579150114</v>
       </c>
       <c r="O12" t="n">
-        <v>12.03120521480367</v>
+        <v>12.04089107645324</v>
       </c>
       <c r="P12" t="n">
-        <v>285.9464427130811</v>
+        <v>286.1607124467145</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23417,28 +23581,28 @@
         <v>0.0422</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.00198042577791312</v>
+        <v>-0.01466559100994694</v>
       </c>
       <c r="J13" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K13" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L13" t="n">
-        <v>1.337187220395997e-06</v>
+        <v>7.436826725437662e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>9.786716502011245</v>
+        <v>9.778716285803803</v>
       </c>
       <c r="N13" t="n">
-        <v>152.3125144416904</v>
+        <v>151.6217420298279</v>
       </c>
       <c r="O13" t="n">
-        <v>12.34149563228422</v>
+        <v>12.31347806388706</v>
       </c>
       <c r="P13" t="n">
-        <v>279.5463323386215</v>
+        <v>279.6759671762419</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23495,28 +23659,28 @@
         <v>0.0473</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03145364230134167</v>
+        <v>0.01531438518032175</v>
       </c>
       <c r="J14" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K14" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003653186519211316</v>
+        <v>8.76308257036218e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>9.315968801991941</v>
+        <v>9.325536248924221</v>
       </c>
       <c r="N14" t="n">
-        <v>138.2826390127831</v>
+        <v>138.1153592562597</v>
       </c>
       <c r="O14" t="n">
-        <v>11.75936388640062</v>
+        <v>11.75224911479755</v>
       </c>
       <c r="P14" t="n">
-        <v>271.9450384917759</v>
+        <v>272.1106167648326</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23573,28 +23737,28 @@
         <v>0.0473</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05098820577898966</v>
+        <v>0.0462460520509754</v>
       </c>
       <c r="J15" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K15" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009489621844236407</v>
+        <v>0.0007940835837862981</v>
       </c>
       <c r="M15" t="n">
-        <v>9.418002243963389</v>
+        <v>9.370237356191435</v>
       </c>
       <c r="N15" t="n">
-        <v>142.0765722739056</v>
+        <v>141.0592695042072</v>
       </c>
       <c r="O15" t="n">
-        <v>11.91958775603861</v>
+        <v>11.87683752116729</v>
       </c>
       <c r="P15" t="n">
-        <v>266.3085754201035</v>
+        <v>266.3568685191613</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23651,28 +23815,28 @@
         <v>0.0465</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09822472914330151</v>
+        <v>0.09156388459619726</v>
       </c>
       <c r="J16" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K16" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003824799211051721</v>
+        <v>0.003379938264303828</v>
       </c>
       <c r="M16" t="n">
-        <v>9.020337648722858</v>
+        <v>8.981823101620785</v>
       </c>
       <c r="N16" t="n">
-        <v>128.8099645116626</v>
+        <v>127.947087567608</v>
       </c>
       <c r="O16" t="n">
-        <v>11.34944776240953</v>
+        <v>11.31136983603701</v>
       </c>
       <c r="P16" t="n">
-        <v>260.0247556776204</v>
+        <v>260.0936580722503</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23729,28 +23893,28 @@
         <v>0.0529</v>
       </c>
       <c r="I17" t="n">
-        <v>0.109612602365277</v>
+        <v>0.1027215985208383</v>
       </c>
       <c r="J17" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K17" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L17" t="n">
-        <v>0.005350376597223705</v>
+        <v>0.004777574441044208</v>
       </c>
       <c r="M17" t="n">
-        <v>8.307385748523526</v>
+        <v>8.280021439479425</v>
       </c>
       <c r="N17" t="n">
-        <v>115.1557689323861</v>
+        <v>114.4067026155702</v>
       </c>
       <c r="O17" t="n">
-        <v>10.731065600973</v>
+        <v>10.69610689062007</v>
       </c>
       <c r="P17" t="n">
-        <v>254.9579208000341</v>
+        <v>255.0288779665812</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23807,28 +23971,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08718253310810573</v>
+        <v>0.07945045151256669</v>
       </c>
       <c r="J18" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K18" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00344561582775782</v>
+        <v>0.002909581428785168</v>
       </c>
       <c r="M18" t="n">
-        <v>8.432865121259377</v>
+        <v>8.408508799645013</v>
       </c>
       <c r="N18" t="n">
-        <v>110.4346793925329</v>
+        <v>109.7546684235175</v>
       </c>
       <c r="O18" t="n">
-        <v>10.50879057706133</v>
+        <v>10.47638622920697</v>
       </c>
       <c r="P18" t="n">
-        <v>254.3353670564416</v>
+        <v>254.4163030747117</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23885,28 +24049,28 @@
         <v>0.0623</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1049922538995957</v>
+        <v>0.09725742010063286</v>
       </c>
       <c r="J19" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K19" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005826630868822513</v>
+        <v>0.005084010613640277</v>
       </c>
       <c r="M19" t="n">
-        <v>7.692175008371315</v>
+        <v>7.666138306222417</v>
       </c>
       <c r="N19" t="n">
-        <v>95.74120692493945</v>
+        <v>95.14044057455938</v>
       </c>
       <c r="O19" t="n">
-        <v>9.784743579927859</v>
+        <v>9.753996133614129</v>
       </c>
       <c r="P19" t="n">
-        <v>259.168503004181</v>
+        <v>259.2494130880143</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -23963,28 +24127,28 @@
         <v>0.0711</v>
       </c>
       <c r="I20" t="n">
-        <v>0.070064070958941</v>
+        <v>0.06110169740226631</v>
       </c>
       <c r="J20" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K20" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002779696666656672</v>
+        <v>0.002147027657142919</v>
       </c>
       <c r="M20" t="n">
-        <v>7.114486480014334</v>
+        <v>7.096976764764568</v>
       </c>
       <c r="N20" t="n">
-        <v>87.50362655521262</v>
+        <v>87.02927870242442</v>
       </c>
       <c r="O20" t="n">
-        <v>9.354337312456325</v>
+        <v>9.328948424255781</v>
       </c>
       <c r="P20" t="n">
-        <v>259.1633964012688</v>
+        <v>259.2589501833589</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24041,28 +24205,28 @@
         <v>0.0505</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2181171169354561</v>
+        <v>0.2014744906025558</v>
       </c>
       <c r="J21" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K21" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02200076549369967</v>
+        <v>0.01901848149017604</v>
       </c>
       <c r="M21" t="n">
-        <v>7.993496831362048</v>
+        <v>8.008431181245834</v>
       </c>
       <c r="N21" t="n">
-        <v>104.9293845837492</v>
+        <v>104.8744566246046</v>
       </c>
       <c r="O21" t="n">
-        <v>10.2435045069424</v>
+        <v>10.24082304429701</v>
       </c>
       <c r="P21" t="n">
-        <v>267.6219413980975</v>
+        <v>267.7995223258959</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24119,28 +24283,28 @@
         <v>0.0769</v>
       </c>
       <c r="I22" t="n">
-        <v>0.324966116174554</v>
+        <v>0.3176486462086661</v>
       </c>
       <c r="J22" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K22" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03467601556141953</v>
+        <v>0.03368590064174048</v>
       </c>
       <c r="M22" t="n">
-        <v>9.152261104518429</v>
+        <v>9.111134449287784</v>
       </c>
       <c r="N22" t="n">
-        <v>144.9450419494501</v>
+        <v>144.0442186258176</v>
       </c>
       <c r="O22" t="n">
-        <v>12.03931235367909</v>
+        <v>12.00184230132264</v>
       </c>
       <c r="P22" t="n">
-        <v>273.7523299308139</v>
+        <v>273.831312637354</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -24178,7 +24342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W281"/>
+  <dimension ref="A1:W283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52918,7 +53082,11 @@
       </c>
       <c r="B281" t="inlineStr"/>
       <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>-35.51364184749478,174.46810156068628</t>
+        </is>
+      </c>
       <c r="E281" t="inlineStr">
         <is>
           <t>-35.514698387118905,174.4674056351399</t>
@@ -53012,6 +53180,224 @@
       <c r="W281" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>-35.51363150676535,174.46809505394953</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>-35.514708358470656,174.4674162543552</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>-35.515315843446004,174.4667978723841</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>-35.51596453484619,174.46623682392567</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>-35.516659939811234,174.46561964393445</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>-35.5173666307629,174.4651210292181</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>-35.518006213208324,174.46468576405044</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>-35.518652737066965,174.46426603216352</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>-35.51934370247194,174.46380706834634</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>-35.520066928497904,174.46341658391185</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>-35.520744763143426,174.46306457036877</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>-35.52142878737761,174.4627054125954</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>-35.5221279004283,174.46234871408714</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>-35.52282032655551,174.4620070359357</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>-35.523519409289094,174.4617300337786</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>-35.524317197698664,174.46148371825447</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>-35.525127687329245,174.46133692945386</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>-35.52586244783776,174.46132809877608</t>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>-35.52660547218476,174.4614150914899</t>
+        </is>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>-35.51371832078346,174.4681496803274</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>-35.51467808181766,174.46738401056416</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>-35.51530257437794,174.46678240526484</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>-35.5159631515603,174.46623503473933</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>-35.51665244107229,174.465606299404</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>-35.5173465640737,174.46507615758725</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>-35.51796148161299,174.46458573851646</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>-35.51861791202487,174.46418815875023</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>-35.519327232374295,174.4637634175728</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>-35.52007114424729,174.46343031274432</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>-35.52071392177832,174.46296261545075</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>-35.521428549594226,174.46270459277434</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>-35.522119611886225,174.46231747019038</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>-35.522817581658934,174.4619961858342</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>-35.5235093988793,174.46168997295948</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>-35.52431255068661,174.4614556373213</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>-35.52512646089915,174.46132287747088</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>-35.525859452540345,174.46129367963374</t>
+        </is>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>-35.526597068950366,174.4613182461747</t>
+        </is>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W283"/>
+  <dimension ref="A1:W284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19673,6 +19673,71 @@
         </is>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>244.6833333333334</v>
+      </c>
+      <c r="H284" t="n">
+        <v>255.9342857142857</v>
+      </c>
+      <c r="I284" t="n">
+        <v>252.9742857142857</v>
+      </c>
+      <c r="J284" t="n">
+        <v>243.62</v>
+      </c>
+      <c r="K284" t="n">
+        <v>239.83</v>
+      </c>
+      <c r="L284" t="n">
+        <v>246.88</v>
+      </c>
+      <c r="M284" t="n">
+        <v>260.35</v>
+      </c>
+      <c r="N284" t="n">
+        <v>250.0722222222223</v>
+      </c>
+      <c r="O284" t="n">
+        <v>234.8422222222222</v>
+      </c>
+      <c r="P284" t="n">
+        <v>233.4322222222222</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>227.57</v>
+      </c>
+      <c r="R284" t="n">
+        <v>224.3622222222222</v>
+      </c>
+      <c r="S284" t="n">
+        <v>239.7009090909091</v>
+      </c>
+      <c r="T284" t="n">
+        <v>243.1069230769231</v>
+      </c>
+      <c r="U284" t="n">
+        <v>251.3022222222222</v>
+      </c>
+      <c r="V284" t="n">
+        <v>270.1969230769231</v>
+      </c>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19684,7 +19749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22562,6 +22627,16 @@
       </c>
       <c r="B287" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -24342,7 +24417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W283"/>
+  <dimension ref="A1:W284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53401,6 +53476,103 @@
         </is>
       </c>
     </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>-35.51585191050718,174.46609115231183</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>-35.51658267646589,174.4654821486566</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>-35.517290442760824,174.4649506636231</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>-35.51788780840158,174.46442099650602</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>-35.51850924025424,174.46394515543045</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>-35.519240801870374,174.46353435141353</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>-35.52003370960479,174.46330840488977</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>-35.52068889547333,174.4628798841402</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>-35.52133890820106,174.46239553211402</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>-35.522054168903594,174.46207078230333</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>-35.522749944960985,174.4617288311298</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>-35.52344175579269,174.46141927268138</t>
+        </is>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>-35.524283455492856,174.46127982205826</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>-35.52511512848929,174.46119303581634</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>-35.52584945188636,174.4611787623576</t>
+        </is>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>-35.52659395605218,174.46128237098316</t>
+        </is>
+      </c>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -22807,7 +22807,7 @@
         <v>0.643729523757005</v>
       </c>
       <c r="J2" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K2" t="n">
         <v>76</v>
@@ -22879,7 +22879,7 @@
         <v>0.1753116810046363</v>
       </c>
       <c r="J3" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K3" t="n">
         <v>117</v>
@@ -22957,7 +22957,7 @@
         <v>-0.311339862613389</v>
       </c>
       <c r="J4" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K4" t="n">
         <v>174</v>
@@ -23035,7 +23035,7 @@
         <v>-0.4796698711430487</v>
       </c>
       <c r="J5" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K5" t="n">
         <v>237</v>
@@ -23113,7 +23113,7 @@
         <v>-0.5034572166732304</v>
       </c>
       <c r="J6" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K6" t="n">
         <v>248</v>
@@ -23188,28 +23188,28 @@
         <v>0.0337</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3712935536901514</v>
+        <v>-0.3908437380571446</v>
       </c>
       <c r="J7" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K7" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03527633386140405</v>
+        <v>0.03880890678477156</v>
       </c>
       <c r="M7" t="n">
-        <v>11.00513153534872</v>
+        <v>11.06259370457855</v>
       </c>
       <c r="N7" t="n">
-        <v>196.1321722044443</v>
+        <v>197.7255709613909</v>
       </c>
       <c r="O7" t="n">
-        <v>14.00471964033712</v>
+        <v>14.06149248697985</v>
       </c>
       <c r="P7" t="n">
-        <v>279.139051531386</v>
+        <v>279.3438076417021</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23266,28 +23266,28 @@
         <v>0.0361</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3999825816565842</v>
+        <v>-0.4175701076053481</v>
       </c>
       <c r="J8" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K8" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04041978450145089</v>
+        <v>0.04388301168391029</v>
       </c>
       <c r="M8" t="n">
-        <v>10.79445636988284</v>
+        <v>10.83160772636623</v>
       </c>
       <c r="N8" t="n">
-        <v>192.7734959109943</v>
+        <v>193.796120939795</v>
       </c>
       <c r="O8" t="n">
-        <v>13.88428953569444</v>
+        <v>13.92106752155865</v>
       </c>
       <c r="P8" t="n">
-        <v>287.8953583525409</v>
+        <v>288.079753240666</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23344,28 +23344,28 @@
         <v>0.037</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2386642086785512</v>
+        <v>-0.2573448004853053</v>
       </c>
       <c r="J9" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K9" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01544003880560807</v>
+        <v>0.01786777115917815</v>
       </c>
       <c r="M9" t="n">
-        <v>10.72189397910629</v>
+        <v>10.77782669121137</v>
       </c>
       <c r="N9" t="n">
-        <v>189.3238328287856</v>
+        <v>190.675243630975</v>
       </c>
       <c r="O9" t="n">
-        <v>13.75949973032398</v>
+        <v>13.80852068945023</v>
       </c>
       <c r="P9" t="n">
-        <v>282.5842220828569</v>
+        <v>282.777203310178</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23422,28 +23422,28 @@
         <v>0.0412</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1600594868250478</v>
+        <v>-0.187387743793651</v>
       </c>
       <c r="J10" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K10" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007232056771495299</v>
+        <v>0.009736128552173207</v>
       </c>
       <c r="M10" t="n">
-        <v>10.37236999263739</v>
+        <v>10.45720186978677</v>
       </c>
       <c r="N10" t="n">
-        <v>183.384487960935</v>
+        <v>187.1388152592584</v>
       </c>
       <c r="O10" t="n">
-        <v>13.54195288578922</v>
+        <v>13.67986897814662</v>
       </c>
       <c r="P10" t="n">
-        <v>281.9406376097102</v>
+        <v>282.2237523922565</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -23500,28 +23500,28 @@
         <v>0.0408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.007676996895953234</v>
+        <v>-0.0265882129978474</v>
       </c>
       <c r="J11" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K11" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L11" t="n">
-        <v>2.007677209081571e-05</v>
+        <v>0.0002321381963729108</v>
       </c>
       <c r="M11" t="n">
-        <v>9.504273951354174</v>
+        <v>9.625556754847487</v>
       </c>
       <c r="N11" t="n">
-        <v>153.5316331532616</v>
+        <v>159.9834779358516</v>
       </c>
       <c r="O11" t="n">
-        <v>12.39078823777009</v>
+        <v>12.64845753188315</v>
       </c>
       <c r="P11" t="n">
-        <v>281.8506378950286</v>
+        <v>282.208822334838</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -23578,28 +23578,28 @@
         <v>0.0406</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05182666719161775</v>
+        <v>-0.08177651029697118</v>
       </c>
       <c r="J12" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K12" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0009685684648204074</v>
+        <v>0.002339956328455295</v>
       </c>
       <c r="M12" t="n">
-        <v>9.167029538842375</v>
+        <v>9.287957241827991</v>
       </c>
       <c r="N12" t="n">
-        <v>144.9830579150114</v>
+        <v>149.9100659487796</v>
       </c>
       <c r="O12" t="n">
-        <v>12.04089107645324</v>
+        <v>12.24377662115654</v>
       </c>
       <c r="P12" t="n">
-        <v>286.1607124467145</v>
+        <v>286.4715491392421</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -23656,28 +23656,28 @@
         <v>0.0422</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01466559100994694</v>
+        <v>-0.02972466490938552</v>
       </c>
       <c r="J13" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K13" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L13" t="n">
-        <v>7.436826725437662e-05</v>
+        <v>0.000305358835851699</v>
       </c>
       <c r="M13" t="n">
-        <v>9.778716285803803</v>
+        <v>9.820030088025433</v>
       </c>
       <c r="N13" t="n">
-        <v>151.6217420298279</v>
+        <v>152.4016660143558</v>
       </c>
       <c r="O13" t="n">
-        <v>12.31347806388706</v>
+        <v>12.34510696650117</v>
       </c>
       <c r="P13" t="n">
-        <v>279.6759671762419</v>
+        <v>279.8309701678322</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23734,28 +23734,28 @@
         <v>0.0473</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01531438518032175</v>
+        <v>-0.003269896322558147</v>
       </c>
       <c r="J14" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K14" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L14" t="n">
-        <v>8.76308257036218e-05</v>
+        <v>3.975846667336747e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>9.325536248924221</v>
+        <v>9.382773367851145</v>
       </c>
       <c r="N14" t="n">
-        <v>138.1153592562597</v>
+        <v>139.5222416322184</v>
       </c>
       <c r="O14" t="n">
-        <v>11.75224911479755</v>
+        <v>11.81195333686255</v>
       </c>
       <c r="P14" t="n">
-        <v>272.1106167648326</v>
+        <v>272.3025558414382</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23812,28 +23812,28 @@
         <v>0.0473</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0462460520509754</v>
+        <v>0.02036818715968636</v>
       </c>
       <c r="J15" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K15" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007940835837862981</v>
+        <v>0.0001511637445258396</v>
       </c>
       <c r="M15" t="n">
-        <v>9.370237356191435</v>
+        <v>9.466419768906029</v>
       </c>
       <c r="N15" t="n">
-        <v>141.0592695042072</v>
+        <v>144.5423889246013</v>
       </c>
       <c r="O15" t="n">
-        <v>11.87683752116729</v>
+        <v>12.02257829771141</v>
       </c>
       <c r="P15" t="n">
-        <v>266.3568685191613</v>
+        <v>266.6222713039435</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23890,28 +23890,28 @@
         <v>0.0465</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09156388459619726</v>
+        <v>0.06805012221400558</v>
       </c>
       <c r="J16" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K16" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003379938264303828</v>
+        <v>0.001839344224286887</v>
       </c>
       <c r="M16" t="n">
-        <v>8.981823101620785</v>
+        <v>9.058471634238591</v>
       </c>
       <c r="N16" t="n">
-        <v>127.947087567608</v>
+        <v>130.7007940947476</v>
       </c>
       <c r="O16" t="n">
-        <v>11.31136983603701</v>
+        <v>11.43244479954955</v>
       </c>
       <c r="P16" t="n">
-        <v>260.0936580722503</v>
+        <v>260.3385847111393</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23968,28 +23968,28 @@
         <v>0.0529</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1027215985208383</v>
+        <v>0.07866747912425058</v>
       </c>
       <c r="J17" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K17" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004777574441044208</v>
+        <v>0.002748802363929381</v>
       </c>
       <c r="M17" t="n">
-        <v>8.280021439479425</v>
+        <v>8.375034516108647</v>
       </c>
       <c r="N17" t="n">
-        <v>114.4067026155702</v>
+        <v>117.4266728714556</v>
       </c>
       <c r="O17" t="n">
-        <v>10.69610689062007</v>
+        <v>10.83635883825631</v>
       </c>
       <c r="P17" t="n">
-        <v>255.0288779665812</v>
+        <v>255.2783226866169</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24046,28 +24046,28 @@
         <v>0.0504</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07945045151256669</v>
+        <v>0.05273683598830112</v>
       </c>
       <c r="J18" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K18" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002909581428785168</v>
+        <v>0.001249657910806556</v>
       </c>
       <c r="M18" t="n">
-        <v>8.408508799645013</v>
+        <v>8.524790629338684</v>
       </c>
       <c r="N18" t="n">
-        <v>109.7546684235175</v>
+        <v>113.3465513764065</v>
       </c>
       <c r="O18" t="n">
-        <v>10.47638622920697</v>
+        <v>10.64643373982135</v>
       </c>
       <c r="P18" t="n">
-        <v>254.4163030747117</v>
+        <v>254.6978241527815</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -24124,28 +24124,28 @@
         <v>0.0623</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09725742010063286</v>
+        <v>0.07871903340873634</v>
       </c>
       <c r="J19" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K19" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005084010613640277</v>
+        <v>0.003298356291495885</v>
       </c>
       <c r="M19" t="n">
-        <v>7.666138306222417</v>
+        <v>7.723899643661632</v>
       </c>
       <c r="N19" t="n">
-        <v>95.14044057455938</v>
+        <v>96.71599849663599</v>
       </c>
       <c r="O19" t="n">
-        <v>9.753996133614129</v>
+        <v>9.834429241020345</v>
       </c>
       <c r="P19" t="n">
-        <v>259.2494130880143</v>
+        <v>259.444703616424</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -24202,28 +24202,28 @@
         <v>0.0711</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06110169740226631</v>
+        <v>0.04629841461727292</v>
       </c>
       <c r="J20" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K20" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002147027657142919</v>
+        <v>0.001227103522665196</v>
       </c>
       <c r="M20" t="n">
-        <v>7.096976764764568</v>
+        <v>7.13431670281427</v>
       </c>
       <c r="N20" t="n">
-        <v>87.02927870242442</v>
+        <v>87.92780300488424</v>
       </c>
       <c r="O20" t="n">
-        <v>9.328948424255781</v>
+        <v>9.376982617286023</v>
       </c>
       <c r="P20" t="n">
-        <v>259.2589501833589</v>
+        <v>259.4178898611012</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -24280,28 +24280,28 @@
         <v>0.0505</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2014744906025558</v>
+        <v>0.18317148675891</v>
       </c>
       <c r="J21" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K21" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01901848149017604</v>
+        <v>0.01563234713421624</v>
       </c>
       <c r="M21" t="n">
-        <v>8.008431181245834</v>
+        <v>8.064778079075253</v>
       </c>
       <c r="N21" t="n">
-        <v>104.8744566246046</v>
+        <v>106.3386881111511</v>
       </c>
       <c r="O21" t="n">
-        <v>10.24082304429701</v>
+        <v>10.31206517197943</v>
       </c>
       <c r="P21" t="n">
-        <v>267.7995223258959</v>
+        <v>267.9961902788086</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -24358,28 +24358,28 @@
         <v>0.0769</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3176486462086661</v>
+        <v>0.3074351633824785</v>
       </c>
       <c r="J22" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K22" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03368590064174048</v>
+        <v>0.03177122498605867</v>
       </c>
       <c r="M22" t="n">
-        <v>9.111134449287784</v>
+        <v>9.121172048823826</v>
       </c>
       <c r="N22" t="n">
-        <v>144.0442186258176</v>
+        <v>144.0263794986686</v>
       </c>
       <c r="O22" t="n">
-        <v>12.00184230132264</v>
+        <v>12.00109909544407</v>
       </c>
       <c r="P22" t="n">
-        <v>273.831312637354</v>
+        <v>273.9422916363262</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -22800,9 +22800,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I2" t="n">
         <v>0.6437295237570048</v>
       </c>
@@ -22872,9 +22878,15 @@
       <c r="E3" t="n">
         <v>0.05007513922212249</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0101</v>
+      </c>
       <c r="I3" t="n">
         <v>0.175311681004636</v>
       </c>
@@ -22945,13 +22957,13 @@
         <v>0.1001502784425744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0413</v>
+        <v>0.0149</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0683</v>
+        <v>0.0205</v>
       </c>
       <c r="I4" t="n">
         <v>-0.311339862613389</v>
@@ -23023,13 +23035,13 @@
         <v>0.1493421441334712</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0285</v>
+        <v>0.0245</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0346</v>
+        <v>0.0258</v>
       </c>
       <c r="I5" t="n">
         <v>-0.4797059195603756</v>
@@ -23107,7 +23119,7 @@
         <v>0.0291</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0326</v>
+        <v>0.0318</v>
       </c>
       <c r="I6" t="n">
         <v>-0.5035060056246391</v>
@@ -23179,13 +23191,13 @@
         <v>0.2494924225751188</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0293</v>
+        <v>0.0297</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0337</v>
+        <v>0.039</v>
       </c>
       <c r="I7" t="n">
         <v>-0.3908914223263695</v>
@@ -23257,13 +23269,13 @@
         <v>0.2990328206169061</v>
       </c>
       <c r="F8" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.033</v>
+        <v>0.0392</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0361</v>
+        <v>0.0536</v>
       </c>
       <c r="I8" t="n">
         <v>-0.4175923369003476</v>
@@ -23335,13 +23347,13 @@
         <v>0.3491079598381029</v>
       </c>
       <c r="F9" t="n">
-        <v>0.035</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0339</v>
+        <v>0.0485</v>
       </c>
       <c r="H9" t="n">
-        <v>0.037</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>-0.2573705278267531</v>
@@ -23413,13 +23425,13 @@
         <v>0.3991830990597066</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.037</v>
+        <v>0.0467</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0412</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="I10" t="n">
         <v>-0.1873877437936509</v>
@@ -23491,13 +23503,13 @@
         <v>0.4492582382803983</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0355</v>
+        <v>0.0469</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0408</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="I11" t="n">
         <v>-0.02658821299784736</v>
@@ -23569,13 +23581,13 @@
         <v>0.4993333775015951</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0381</v>
+        <v>0.0386</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0406</v>
+        <v>0.0563</v>
       </c>
       <c r="I12" t="n">
         <v>-0.08177651029697118</v>
@@ -23647,13 +23659,13 @@
         <v>0.5493748680806667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.039</v>
+        <v>0.0391</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0422</v>
+        <v>0.0537</v>
       </c>
       <c r="I13" t="n">
         <v>-0.02972466490938546</v>
@@ -23725,13 +23737,13 @@
         <v>0.5994500073021872</v>
       </c>
       <c r="F14" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0433</v>
+        <v>0.0528</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0473</v>
+        <v>0.0692</v>
       </c>
       <c r="I14" t="n">
         <v>-0.003254555167351294</v>
@@ -23803,13 +23815,13 @@
         <v>0.6495251465230427</v>
       </c>
       <c r="F15" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G15" t="n">
-        <v>0.044</v>
+        <v>0.0548</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0473</v>
+        <v>0.0706</v>
       </c>
       <c r="I15" t="n">
         <v>0.020378350140694</v>
@@ -23881,13 +23893,13 @@
         <v>0.6995817927939786</v>
       </c>
       <c r="F16" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0438</v>
+        <v>0.0485</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0465</v>
+        <v>0.0591</v>
       </c>
       <c r="I16" t="n">
         <v>0.0680732747147485</v>
@@ -23959,13 +23971,13 @@
         <v>0.7496569320153338</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0489</v>
+        <v>0.0545</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0529</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="I17" t="n">
         <v>0.07866747912425051</v>
@@ -24037,13 +24049,13 @@
         <v>0.7997320712368142</v>
       </c>
       <c r="F18" t="n">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.044</v>
+        <v>0.0574</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0504</v>
+        <v>0.0834</v>
       </c>
       <c r="I18" t="n">
         <v>0.05275829938038772</v>
@@ -24115,13 +24127,13 @@
         <v>0.8497745923430657</v>
       </c>
       <c r="F19" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0533</v>
+        <v>0.0604</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0623</v>
+        <v>0.0757</v>
       </c>
       <c r="I19" t="n">
         <v>0.07871724472009484</v>
@@ -24193,13 +24205,13 @@
         <v>0.8998497315643235</v>
       </c>
       <c r="F20" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0596</v>
+        <v>0.0668</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0711</v>
+        <v>0.0961</v>
       </c>
       <c r="I20" t="n">
         <v>0.04635350729793529</v>
@@ -24271,13 +24283,13 @@
         <v>0.9499248707858283</v>
       </c>
       <c r="F21" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0444</v>
+        <v>0.0517</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0505</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="I21" t="n">
         <v>0.1832103698201379</v>
@@ -24349,13 +24361,13 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.065</v>
+        <v>0.055</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0587</v>
+        <v>0.0488</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0769</v>
+        <v>0.0631</v>
       </c>
       <c r="I22" t="n">
         <v>0.307494144875473</v>

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -599,7 +599,7 @@
         <v>265.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>252.21</v>
+        <v>253.42</v>
       </c>
       <c r="R2" t="n">
         <v>253.73</v>
@@ -668,7 +668,7 @@
         <v>265.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>258.83</v>
+        <v>259.35</v>
       </c>
       <c r="R3" t="n">
         <v>260.67</v>
@@ -737,7 +737,7 @@
         <v>273.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>268.61</v>
+        <v>267.9</v>
       </c>
       <c r="R4" t="n">
         <v>269.88</v>
@@ -800,7 +800,7 @@
         <v>260.43</v>
       </c>
       <c r="Q5" t="n">
-        <v>254.52</v>
+        <v>254.54</v>
       </c>
       <c r="R5" t="n">
         <v>255.37</v>
@@ -871,7 +871,7 @@
         <v>234.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>235.04</v>
+        <v>234.04</v>
       </c>
       <c r="R6" t="n">
         <v>235.66</v>
@@ -940,7 +940,7 @@
         <v>255.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.56</v>
+        <v>251.69</v>
       </c>
       <c r="R7" t="n">
         <v>252.96</v>
@@ -1013,7 +1013,7 @@
         <v>256.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>252.38</v>
+        <v>252.15</v>
       </c>
       <c r="R8" t="n">
         <v>246.05</v>
@@ -1139,7 +1139,7 @@
         <v>244.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>244.34</v>
+        <v>243.21</v>
       </c>
       <c r="R10" t="n">
         <v>244.05</v>
@@ -1210,7 +1210,7 @@
         <v>253.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>248.22</v>
+        <v>248.55</v>
       </c>
       <c r="R11" t="n">
         <v>248.02</v>
@@ -1279,7 +1279,7 @@
         <v>259.69</v>
       </c>
       <c r="Q12" t="n">
-        <v>249.87</v>
+        <v>250.93</v>
       </c>
       <c r="R12" t="n">
         <v>252.62</v>
@@ -1340,7 +1340,7 @@
         <v>249.89</v>
       </c>
       <c r="Q13" t="n">
-        <v>249.57</v>
+        <v>249.9</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
         <v>267.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>263.28</v>
+        <v>263.03</v>
       </c>
       <c r="R14" t="n">
         <v>264.17</v>
@@ -1472,7 +1472,7 @@
         <v>253.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>246.89</v>
+        <v>246.74</v>
       </c>
       <c r="R15" t="n">
         <v>247.97</v>
@@ -1543,7 +1543,7 @@
         <v>253.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>248.56</v>
+        <v>248.61</v>
       </c>
       <c r="R16" t="n">
         <v>249.55</v>
@@ -1614,7 +1614,7 @@
         <v>256.47</v>
       </c>
       <c r="Q17" t="n">
-        <v>258.87</v>
+        <v>258.45</v>
       </c>
       <c r="R17" t="n">
         <v>252.43</v>
@@ -1687,7 +1687,7 @@
         <v>257.43</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.41</v>
+        <v>249.36</v>
       </c>
       <c r="R18" t="n">
         <v>245.01</v>
@@ -1756,7 +1756,7 @@
         <v>252.84</v>
       </c>
       <c r="Q19" t="n">
-        <v>250.03</v>
+        <v>249.59</v>
       </c>
       <c r="R19" t="n">
         <v>245.83</v>
@@ -1825,7 +1825,7 @@
         <v>257.26</v>
       </c>
       <c r="Q20" t="n">
-        <v>253.42</v>
+        <v>253.9</v>
       </c>
       <c r="R20" t="n">
         <v>251.52</v>
@@ -1890,7 +1890,7 @@
         <v>263.51</v>
       </c>
       <c r="Q21" t="n">
-        <v>276.07</v>
+        <v>275.36</v>
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
@@ -1951,7 +1951,7 @@
         <v>257.88</v>
       </c>
       <c r="Q22" t="n">
-        <v>253.77</v>
+        <v>253.72</v>
       </c>
       <c r="R22" t="n">
         <v>241.95</v>
@@ -2024,7 +2024,7 @@
         <v>250.19</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.55</v>
+        <v>245.26</v>
       </c>
       <c r="R23" t="n">
         <v>242.12</v>
@@ -2091,7 +2091,7 @@
         <v>264.17</v>
       </c>
       <c r="Q24" t="n">
-        <v>257.3</v>
+        <v>258.28</v>
       </c>
       <c r="R24" t="n">
         <v>254.43</v>
@@ -2156,7 +2156,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="n">
-        <v>252.29</v>
+        <v>252.88</v>
       </c>
       <c r="R25" t="n">
         <v>252.16</v>
@@ -2229,7 +2229,7 @@
         <v>249.46</v>
       </c>
       <c r="Q26" t="n">
-        <v>248.43</v>
+        <v>247.51</v>
       </c>
       <c r="R26" t="n">
         <v>250.25</v>
@@ -2300,7 +2300,7 @@
         <v>269.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>261.39</v>
+        <v>260.76</v>
       </c>
       <c r="R27" t="n">
         <v>270.41</v>
@@ -2404,7 +2404,7 @@
         <v>248.54</v>
       </c>
       <c r="Q29" t="n">
-        <v>243.67</v>
+        <v>244.38</v>
       </c>
       <c r="R29" t="n">
         <v>240.76</v>
@@ -2471,7 +2471,7 @@
         <v>253.57</v>
       </c>
       <c r="Q30" t="n">
-        <v>248.35</v>
+        <v>249.02</v>
       </c>
       <c r="R30" t="n">
         <v>252.79</v>
@@ -2542,7 +2542,7 @@
         <v>259.81</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.31</v>
+        <v>255.79</v>
       </c>
       <c r="R31" t="n">
         <v>259.73</v>
@@ -2615,7 +2615,7 @@
         <v>273.48</v>
       </c>
       <c r="Q32" t="n">
-        <v>265.78</v>
+        <v>266.73</v>
       </c>
       <c r="R32" t="n">
         <v>272.03</v>
@@ -2688,7 +2688,7 @@
         <v>272.16</v>
       </c>
       <c r="Q33" t="n">
-        <v>266.43</v>
+        <v>267.57</v>
       </c>
       <c r="R33" t="n">
         <v>261.96</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="n">
-        <v>251.43</v>
+        <v>251.24</v>
       </c>
       <c r="R34" t="n">
         <v>253.63</v>
@@ -2824,7 +2824,7 @@
         <v>292.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>283.07</v>
+        <v>282.86</v>
       </c>
       <c r="R35" t="n">
         <v>274.35</v>
@@ -2893,7 +2893,7 @@
         <v>267.88</v>
       </c>
       <c r="Q36" t="n">
-        <v>263.55</v>
+        <v>264.8</v>
       </c>
       <c r="R36" t="n">
         <v>259.87</v>
@@ -2962,7 +2962,7 @@
         <v>275.61</v>
       </c>
       <c r="Q37" t="n">
-        <v>267.49</v>
+        <v>268.76</v>
       </c>
       <c r="R37" t="n">
         <v>265.81</v>
@@ -3027,7 +3027,7 @@
         <v>265.24</v>
       </c>
       <c r="Q38" t="n">
-        <v>258.5</v>
+        <v>258.95</v>
       </c>
       <c r="R38" t="n">
         <v>258.01</v>
@@ -3098,7 +3098,7 @@
         <v>268.72</v>
       </c>
       <c r="Q39" t="n">
-        <v>261.55</v>
+        <v>261.63</v>
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
@@ -3165,7 +3165,7 @@
         <v>268.88</v>
       </c>
       <c r="Q40" t="n">
-        <v>256.84</v>
+        <v>257.96</v>
       </c>
       <c r="R40" t="n">
         <v>257.79</v>
@@ -3269,7 +3269,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="n">
-        <v>262.82</v>
+        <v>263.8</v>
       </c>
       <c r="R42" t="n">
         <v>262.68</v>
@@ -3334,7 +3334,7 @@
         <v>265.35</v>
       </c>
       <c r="Q43" t="n">
-        <v>253.47</v>
+        <v>254.49</v>
       </c>
       <c r="R43" t="n">
         <v>241.94</v>
@@ -3401,7 +3401,7 @@
         <v>271.99</v>
       </c>
       <c r="Q44" t="n">
-        <v>268.49</v>
+        <v>268.18</v>
       </c>
       <c r="R44" t="n">
         <v>268.07</v>
@@ -3470,7 +3470,7 @@
         <v>255.61</v>
       </c>
       <c r="Q45" t="n">
-        <v>253.24</v>
+        <v>253.99</v>
       </c>
       <c r="R45" t="n">
         <v>252.86</v>
@@ -3541,7 +3541,7 @@
         <v>252.37</v>
       </c>
       <c r="Q46" t="n">
-        <v>253.69</v>
+        <v>252.61</v>
       </c>
       <c r="R46" t="n">
         <v>253.68</v>
@@ -3663,7 +3663,7 @@
         <v>263.67</v>
       </c>
       <c r="Q48" t="n">
-        <v>256.04</v>
+        <v>256.68</v>
       </c>
       <c r="R48" t="n">
         <v>252.98</v>
@@ -3797,7 +3797,7 @@
         <v>256.26</v>
       </c>
       <c r="Q50" t="n">
-        <v>250.49</v>
+        <v>250.44</v>
       </c>
       <c r="R50" t="n">
         <v>247.45</v>
@@ -3860,7 +3860,7 @@
         <v>271.7</v>
       </c>
       <c r="Q51" t="n">
-        <v>266.31</v>
+        <v>267.46</v>
       </c>
       <c r="R51" t="n">
         <v>261.58</v>
@@ -3923,7 +3923,7 @@
         <v>257.14</v>
       </c>
       <c r="Q52" t="n">
-        <v>250.52</v>
+        <v>251.33</v>
       </c>
       <c r="R52" t="n">
         <v>247.97</v>
@@ -3992,7 +3992,7 @@
         <v>272.84</v>
       </c>
       <c r="Q53" t="n">
-        <v>263.38</v>
+        <v>264.2</v>
       </c>
       <c r="R53" t="n">
         <v>269.51</v>
@@ -4063,7 +4063,7 @@
         <v>268.09</v>
       </c>
       <c r="Q54" t="n">
-        <v>261.9</v>
+        <v>262.72</v>
       </c>
       <c r="R54" t="n">
         <v>262.96</v>
@@ -4134,7 +4134,7 @@
         <v>260.66</v>
       </c>
       <c r="Q55" t="n">
-        <v>254.19</v>
+        <v>253.83</v>
       </c>
       <c r="R55" t="n">
         <v>254</v>
@@ -4203,7 +4203,7 @@
         <v>251.26</v>
       </c>
       <c r="Q56" t="n">
-        <v>243.85</v>
+        <v>244.27</v>
       </c>
       <c r="R56" t="n">
         <v>247.59</v>
@@ -4272,7 +4272,7 @@
         <v>256.46</v>
       </c>
       <c r="Q57" t="n">
-        <v>252.8</v>
+        <v>253.65</v>
       </c>
       <c r="R57" t="n">
         <v>249.31</v>
@@ -4335,7 +4335,7 @@
         <v>218.44</v>
       </c>
       <c r="Q58" t="n">
-        <v>220.94</v>
+        <v>222.02</v>
       </c>
       <c r="R58" t="n">
         <v>225.53</v>
@@ -4402,7 +4402,7 @@
         <v>275.7</v>
       </c>
       <c r="Q59" t="n">
-        <v>268.53</v>
+        <v>269.48</v>
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -4532,7 +4532,7 @@
         <v>269.36</v>
       </c>
       <c r="Q61" t="n">
-        <v>260.63</v>
+        <v>259.88</v>
       </c>
       <c r="R61" t="n">
         <v>268.63</v>
@@ -4591,7 +4591,7 @@
         <v>243.83</v>
       </c>
       <c r="Q62" t="n">
-        <v>240.51</v>
+        <v>241.49</v>
       </c>
       <c r="R62" t="n">
         <v>243.32</v>
@@ -4658,7 +4658,7 @@
         <v>247.65</v>
       </c>
       <c r="Q63" t="n">
-        <v>247.26</v>
+        <v>246.35</v>
       </c>
       <c r="R63" t="n">
         <v>250.59</v>
@@ -4725,7 +4725,7 @@
         <v>266.66</v>
       </c>
       <c r="Q64" t="n">
-        <v>260.88</v>
+        <v>260.7</v>
       </c>
       <c r="R64" t="n">
         <v>257.91</v>
@@ -4790,7 +4790,7 @@
         <v>256.28</v>
       </c>
       <c r="Q65" t="n">
-        <v>260.68</v>
+        <v>259.63</v>
       </c>
       <c r="R65" t="n">
         <v>254.97</v>
@@ -4857,7 +4857,7 @@
         <v>253</v>
       </c>
       <c r="Q66" t="n">
-        <v>241.71</v>
+        <v>242.38</v>
       </c>
       <c r="R66" t="n">
         <v>245.41</v>
@@ -4922,7 +4922,7 @@
         <v>266.34</v>
       </c>
       <c r="Q67" t="n">
-        <v>259.96</v>
+        <v>260.73</v>
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
@@ -4985,7 +4985,7 @@
         <v>247.12</v>
       </c>
       <c r="Q68" t="n">
-        <v>246.1</v>
+        <v>246.48</v>
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
@@ -5054,7 +5054,7 @@
         <v>261.41</v>
       </c>
       <c r="Q69" t="n">
-        <v>256.32</v>
+        <v>256.59</v>
       </c>
       <c r="R69" t="n">
         <v>254.59</v>
@@ -5123,7 +5123,7 @@
         <v>247.9</v>
       </c>
       <c r="Q70" t="n">
-        <v>252.66</v>
+        <v>251.64</v>
       </c>
       <c r="R70" t="n">
         <v>244.11</v>
@@ -5194,7 +5194,7 @@
         <v>270.87</v>
       </c>
       <c r="Q71" t="n">
-        <v>267.14</v>
+        <v>266.12</v>
       </c>
       <c r="R71" t="n">
         <v>264.81</v>
@@ -5259,7 +5259,7 @@
         <v>256.41</v>
       </c>
       <c r="Q72" t="n">
-        <v>246.7</v>
+        <v>245.93</v>
       </c>
       <c r="R72" t="n">
         <v>243.77</v>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="n">
-        <v>250.52</v>
+        <v>249.67</v>
       </c>
       <c r="R73" t="n">
         <v>250.3</v>
@@ -5395,7 +5395,7 @@
         <v>259.36</v>
       </c>
       <c r="Q74" t="n">
-        <v>248.32</v>
+        <v>248.34</v>
       </c>
       <c r="R74" t="n">
         <v>247.86</v>
@@ -5460,7 +5460,7 @@
         <v>242.61</v>
       </c>
       <c r="Q75" t="n">
-        <v>245.06</v>
+        <v>245.87</v>
       </c>
       <c r="R75" t="n">
         <v>243.62</v>
@@ -5523,7 +5523,7 @@
         <v>266.84</v>
       </c>
       <c r="Q76" t="n">
-        <v>264.25</v>
+        <v>264.04</v>
       </c>
       <c r="R76" t="n">
         <v>266.28</v>
@@ -5584,7 +5584,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="n">
-        <v>272.63</v>
+        <v>271.99</v>
       </c>
       <c r="R77" t="n">
         <v>269.72</v>
@@ -5653,7 +5653,7 @@
         <v>262.81</v>
       </c>
       <c r="Q78" t="n">
-        <v>253.01</v>
+        <v>253.89</v>
       </c>
       <c r="R78" t="n">
         <v>253.6</v>
@@ -5718,7 +5718,7 @@
         <v>254.28</v>
       </c>
       <c r="Q79" t="n">
-        <v>249.63</v>
+        <v>250.53</v>
       </c>
       <c r="R79" t="n">
         <v>247.86</v>
@@ -5783,7 +5783,7 @@
         <v>258.52</v>
       </c>
       <c r="Q80" t="n">
-        <v>253.58</v>
+        <v>253.87</v>
       </c>
       <c r="R80" t="n">
         <v>250.79</v>
@@ -5850,7 +5850,7 @@
         <v>273.18</v>
       </c>
       <c r="Q81" t="n">
-        <v>262.77</v>
+        <v>261.68</v>
       </c>
       <c r="R81" t="n">
         <v>261.25</v>
@@ -5913,7 +5913,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="n">
-        <v>257.14</v>
+        <v>256.16</v>
       </c>
       <c r="R82" t="n">
         <v>255.09</v>
@@ -5986,7 +5986,7 @@
         <v>244.32</v>
       </c>
       <c r="Q83" t="n">
-        <v>243.9</v>
+        <v>243.15</v>
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="n">
@@ -6053,7 +6053,7 @@
         <v>275.24</v>
       </c>
       <c r="Q84" t="n">
-        <v>270.01</v>
+        <v>270.89</v>
       </c>
       <c r="R84" t="n">
         <v>267.07</v>
@@ -6122,7 +6122,7 @@
         <v>266.87</v>
       </c>
       <c r="Q85" t="n">
-        <v>262.03</v>
+        <v>263.28</v>
       </c>
       <c r="R85" t="n">
         <v>259.74</v>
@@ -6189,7 +6189,7 @@
         <v>262.29</v>
       </c>
       <c r="Q86" t="n">
-        <v>257.09</v>
+        <v>256.53</v>
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="n">
@@ -6258,7 +6258,7 @@
         <v>252.89</v>
       </c>
       <c r="Q87" t="n">
-        <v>248.91</v>
+        <v>248.45</v>
       </c>
       <c r="R87" t="n">
         <v>244.24</v>
@@ -6325,7 +6325,7 @@
         <v>263.78</v>
       </c>
       <c r="Q88" t="n">
-        <v>257.6</v>
+        <v>257.73</v>
       </c>
       <c r="R88" t="n">
         <v>257.4</v>
@@ -6396,7 +6396,7 @@
         <v>265.03</v>
       </c>
       <c r="Q89" t="n">
-        <v>257.51</v>
+        <v>258.3</v>
       </c>
       <c r="R89" t="n">
         <v>259.07</v>
@@ -6459,7 +6459,7 @@
         <v>272.43</v>
       </c>
       <c r="Q90" t="n">
-        <v>261.81</v>
+        <v>260.9</v>
       </c>
       <c r="R90" t="n">
         <v>259.71</v>
@@ -6522,7 +6522,7 @@
         <v>239.46</v>
       </c>
       <c r="Q91" t="n">
-        <v>236.59</v>
+        <v>235.78</v>
       </c>
       <c r="R91" t="n">
         <v>237.46</v>
@@ -6591,7 +6591,7 @@
         <v>256.45</v>
       </c>
       <c r="Q92" t="n">
-        <v>258.04</v>
+        <v>257.29</v>
       </c>
       <c r="R92" t="n">
         <v>254.02</v>
@@ -6664,7 +6664,7 @@
         <v>265.6</v>
       </c>
       <c r="Q93" t="n">
-        <v>262.79</v>
+        <v>262.88</v>
       </c>
       <c r="R93" t="n">
         <v>264.3</v>
@@ -6735,7 +6735,7 @@
         <v>259.85</v>
       </c>
       <c r="Q94" t="n">
-        <v>256.09</v>
+        <v>256.32</v>
       </c>
       <c r="R94" t="n">
         <v>250.79</v>
@@ -6804,7 +6804,7 @@
         <v>263.19</v>
       </c>
       <c r="Q95" t="n">
-        <v>250.84</v>
+        <v>251.88</v>
       </c>
       <c r="R95" t="n">
         <v>250.15</v>
@@ -6871,7 +6871,7 @@
         <v>251.03</v>
       </c>
       <c r="Q96" t="n">
-        <v>238.49</v>
+        <v>237.76</v>
       </c>
       <c r="R96" t="n">
         <v>233.21</v>
@@ -7003,7 +7003,7 @@
         <v>260.53</v>
       </c>
       <c r="Q98" t="n">
-        <v>254.16</v>
+        <v>254.34</v>
       </c>
       <c r="R98" t="n">
         <v>250.4</v>
@@ -7070,7 +7070,7 @@
         <v>254.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>250.09</v>
+        <v>249.45</v>
       </c>
       <c r="R99" t="n">
         <v>249.35</v>
@@ -7137,7 +7137,7 @@
         <v>252.95</v>
       </c>
       <c r="Q100" t="n">
-        <v>249.7</v>
+        <v>251.22</v>
       </c>
       <c r="R100" t="n">
         <v>239.22</v>
@@ -7257,7 +7257,7 @@
         <v>253.92</v>
       </c>
       <c r="Q102" t="n">
-        <v>249.47</v>
+        <v>249.06</v>
       </c>
       <c r="R102" t="n">
         <v>249.66</v>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="n">
-        <v>260.03</v>
+        <v>260.57</v>
       </c>
       <c r="R103" t="n">
         <v>255.15</v>
@@ -7389,7 +7389,7 @@
         <v>262.3</v>
       </c>
       <c r="Q104" t="n">
-        <v>256.6</v>
+        <v>257.42</v>
       </c>
       <c r="R104" t="n">
         <v>252.72</v>
@@ -7458,7 +7458,7 @@
         <v>276.9</v>
       </c>
       <c r="Q105" t="n">
-        <v>268.96</v>
+        <v>268.05</v>
       </c>
       <c r="R105" t="n">
         <v>267.98</v>
@@ -7527,7 +7527,7 @@
         <v>271.95</v>
       </c>
       <c r="Q106" t="n">
-        <v>253.29</v>
+        <v>254.52</v>
       </c>
       <c r="R106" t="n">
         <v>260.06</v>
@@ -7592,7 +7592,7 @@
         <v>248.21</v>
       </c>
       <c r="Q107" t="n">
-        <v>247.14</v>
+        <v>246.27</v>
       </c>
       <c r="R107" t="n">
         <v>244.46</v>
@@ -7665,7 +7665,7 @@
         <v>275.97</v>
       </c>
       <c r="Q108" t="n">
-        <v>272.09</v>
+        <v>271.03</v>
       </c>
       <c r="R108" t="n">
         <v>272.44</v>
@@ -7738,7 +7738,7 @@
         <v>259.21</v>
       </c>
       <c r="Q109" t="n">
-        <v>255.55</v>
+        <v>255.4</v>
       </c>
       <c r="R109" t="n">
         <v>250.93</v>
@@ -7809,7 +7809,7 @@
         <v>258.77</v>
       </c>
       <c r="Q110" t="n">
-        <v>255.62</v>
+        <v>255.79</v>
       </c>
       <c r="R110" t="n">
         <v>254.71</v>
@@ -7868,7 +7868,7 @@
         <v>257.13</v>
       </c>
       <c r="Q111" t="n">
-        <v>253.67</v>
+        <v>252.69</v>
       </c>
       <c r="R111" t="n">
         <v>253.5</v>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="n">
-        <v>236.93</v>
+        <v>236.05</v>
       </c>
       <c r="R112" t="n">
         <v>237.49</v>
@@ -8008,7 +8008,7 @@
         <v>256.96</v>
       </c>
       <c r="Q113" t="n">
-        <v>250.27</v>
+        <v>250.75</v>
       </c>
       <c r="R113" t="n">
         <v>248.6</v>
@@ -8077,7 +8077,7 @@
         <v>276.69</v>
       </c>
       <c r="Q114" t="n">
-        <v>270.17</v>
+        <v>269.46</v>
       </c>
       <c r="R114" t="n">
         <v>269.22</v>
@@ -8148,7 +8148,7 @@
         <v>273.91</v>
       </c>
       <c r="Q115" t="n">
-        <v>268.76</v>
+        <v>268.21</v>
       </c>
       <c r="R115" t="n">
         <v>263.94</v>
@@ -8221,7 +8221,7 @@
         <v>271.01</v>
       </c>
       <c r="Q116" t="n">
-        <v>261.98</v>
+        <v>262.27</v>
       </c>
       <c r="R116" t="n">
         <v>260.95</v>
@@ -8294,7 +8294,7 @@
         <v>253.46</v>
       </c>
       <c r="Q117" t="n">
-        <v>244.38</v>
+        <v>245.23</v>
       </c>
       <c r="R117" t="n">
         <v>250.39</v>
@@ -8367,7 +8367,7 @@
         <v>244.91</v>
       </c>
       <c r="Q118" t="n">
-        <v>251.16</v>
+        <v>252.57</v>
       </c>
       <c r="R118" t="n">
         <v>255.79</v>
@@ -8436,7 +8436,7 @@
         <v>250.96</v>
       </c>
       <c r="Q119" t="n">
-        <v>255.94</v>
+        <v>255.31</v>
       </c>
       <c r="R119" t="n">
         <v>260.91</v>
@@ -8503,7 +8503,7 @@
         <v>252</v>
       </c>
       <c r="Q120" t="n">
-        <v>247.01</v>
+        <v>246.22</v>
       </c>
       <c r="R120" t="n">
         <v>250.18</v>
@@ -8576,7 +8576,7 @@
         <v>256</v>
       </c>
       <c r="Q121" t="n">
-        <v>239.21</v>
+        <v>239.75</v>
       </c>
       <c r="R121" t="n">
         <v>247.27</v>
@@ -8649,7 +8649,7 @@
         <v>260.96</v>
       </c>
       <c r="Q122" t="n">
-        <v>258.35</v>
+        <v>258.66</v>
       </c>
       <c r="R122" t="n">
         <v>252.87</v>
@@ -8720,7 +8720,7 @@
         <v>258.45</v>
       </c>
       <c r="Q123" t="n">
-        <v>253.94</v>
+        <v>254.29</v>
       </c>
       <c r="R123" t="n">
         <v>249.73</v>
@@ -8789,7 +8789,7 @@
         <v>266.49</v>
       </c>
       <c r="Q124" t="n">
-        <v>259.17</v>
+        <v>259.65</v>
       </c>
       <c r="R124" t="n">
         <v>256.68</v>
@@ -8860,7 +8860,7 @@
         <v>270.38</v>
       </c>
       <c r="Q125" t="n">
-        <v>264.01</v>
+        <v>262.99</v>
       </c>
       <c r="R125" t="n">
         <v>262.81</v>
@@ -8931,7 +8931,7 @@
         <v>248.22</v>
       </c>
       <c r="Q126" t="n">
-        <v>245.25</v>
+        <v>246.13</v>
       </c>
       <c r="R126" t="n">
         <v>244.83</v>
@@ -9065,7 +9065,7 @@
         <v>267.46</v>
       </c>
       <c r="Q128" t="n">
-        <v>259.52</v>
+        <v>260.17</v>
       </c>
       <c r="R128" t="n">
         <v>258.02</v>
@@ -9136,7 +9136,7 @@
         <v>261.37</v>
       </c>
       <c r="Q129" t="n">
-        <v>253.88</v>
+        <v>254.4</v>
       </c>
       <c r="R129" t="n">
         <v>255.14</v>
@@ -9209,7 +9209,7 @@
         <v>261.35</v>
       </c>
       <c r="Q130" t="n">
-        <v>257.04</v>
+        <v>257.58</v>
       </c>
       <c r="R130" t="n">
         <v>254.48</v>
@@ -9280,7 +9280,7 @@
         <v>259.62</v>
       </c>
       <c r="Q131" t="n">
-        <v>257.69</v>
+        <v>258.59</v>
       </c>
       <c r="R131" t="n">
         <v>256.09</v>
@@ -9343,7 +9343,7 @@
         <v>244.29</v>
       </c>
       <c r="Q132" t="n">
-        <v>241.09</v>
+        <v>241.53</v>
       </c>
       <c r="R132" t="n">
         <v>241.05</v>
@@ -9410,7 +9410,7 @@
         <v>260.77</v>
       </c>
       <c r="Q133" t="n">
-        <v>257</v>
+        <v>256.4</v>
       </c>
       <c r="R133" t="n">
         <v>253.16</v>
@@ -9481,7 +9481,7 @@
         <v>269.32</v>
       </c>
       <c r="Q134" t="n">
-        <v>259.79</v>
+        <v>260.74</v>
       </c>
       <c r="R134" t="n">
         <v>258.91</v>
@@ -9554,7 +9554,7 @@
         <v>263.94</v>
       </c>
       <c r="Q135" t="n">
-        <v>258.62</v>
+        <v>257.95</v>
       </c>
       <c r="R135" t="n">
         <v>259.47</v>
@@ -9623,7 +9623,7 @@
         <v>256.37</v>
       </c>
       <c r="Q136" t="n">
-        <v>249.21</v>
+        <v>248.92</v>
       </c>
       <c r="R136" t="n">
         <v>247.75</v>
@@ -9694,7 +9694,7 @@
         <v>264.76</v>
       </c>
       <c r="Q137" t="n">
-        <v>258.66</v>
+        <v>258.95</v>
       </c>
       <c r="R137" t="n">
         <v>257.38</v>
@@ -9895,7 +9895,7 @@
         <v>290.23</v>
       </c>
       <c r="Q140" t="n">
-        <v>282.07</v>
+        <v>281.05</v>
       </c>
       <c r="R140" t="n">
         <v>286.04</v>
@@ -9962,7 +9962,7 @@
         <v>262.88</v>
       </c>
       <c r="Q141" t="n">
-        <v>258.3</v>
+        <v>258.93</v>
       </c>
       <c r="R141" t="n">
         <v>257.19</v>
@@ -10031,7 +10031,7 @@
         <v>273.92</v>
       </c>
       <c r="Q142" t="n">
-        <v>264.25</v>
+        <v>263.39</v>
       </c>
       <c r="R142" t="n">
         <v>266.28</v>
@@ -10096,7 +10096,7 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="n">
-        <v>259.14</v>
+        <v>259.41</v>
       </c>
       <c r="R143" t="n">
         <v>255.95</v>
@@ -10167,7 +10167,7 @@
         <v>260.93</v>
       </c>
       <c r="Q144" t="n">
-        <v>255.82</v>
+        <v>255.91</v>
       </c>
       <c r="R144" t="n">
         <v>250.57</v>
@@ -10236,7 +10236,7 @@
         <v>261.36</v>
       </c>
       <c r="Q145" t="n">
-        <v>263.21</v>
+        <v>263.23</v>
       </c>
       <c r="R145" t="n">
         <v>253.89</v>
@@ -10301,7 +10301,7 @@
         <v>264.21</v>
       </c>
       <c r="Q146" t="n">
-        <v>260.72</v>
+        <v>260.66</v>
       </c>
       <c r="R146" t="n">
         <v>258.15</v>
@@ -10368,7 +10368,7 @@
         <v>279.68</v>
       </c>
       <c r="Q147" t="n">
-        <v>275</v>
+        <v>274.21</v>
       </c>
       <c r="R147" t="n">
         <v>277.19</v>
@@ -10441,7 +10441,7 @@
         <v>267.33</v>
       </c>
       <c r="Q148" t="n">
-        <v>257.8</v>
+        <v>258.24</v>
       </c>
       <c r="R148" t="n">
         <v>259.79</v>
@@ -10514,7 +10514,7 @@
         <v>270.33</v>
       </c>
       <c r="Q149" t="n">
-        <v>262.81</v>
+        <v>263.52</v>
       </c>
       <c r="R149" t="n">
         <v>257.92</v>
@@ -10587,7 +10587,7 @@
         <v>266.42</v>
       </c>
       <c r="Q150" t="n">
-        <v>256.16</v>
+        <v>257.12</v>
       </c>
       <c r="R150" t="n">
         <v>258.1</v>
@@ -10652,7 +10652,7 @@
         <v>271.66</v>
       </c>
       <c r="Q151" t="n">
-        <v>269.19</v>
+        <v>268.48</v>
       </c>
       <c r="R151" t="n">
         <v>263.75</v>
@@ -10723,7 +10723,7 @@
         <v>275.63</v>
       </c>
       <c r="Q152" t="n">
-        <v>283.61</v>
+        <v>283.93</v>
       </c>
       <c r="R152" t="n">
         <v>280.68</v>
@@ -10794,7 +10794,7 @@
         <v>264.13</v>
       </c>
       <c r="Q153" t="n">
-        <v>255.08</v>
+        <v>254.87</v>
       </c>
       <c r="R153" t="n">
         <v>260.73</v>
@@ -10867,7 +10867,7 @@
         <v>276.65</v>
       </c>
       <c r="Q154" t="n">
-        <v>265.66</v>
+        <v>265.91</v>
       </c>
       <c r="R154" t="n">
         <v>277.39</v>
@@ -10930,7 +10930,7 @@
         <v>282.86</v>
       </c>
       <c r="Q155" t="n">
-        <v>276.93</v>
+        <v>276.29</v>
       </c>
       <c r="R155" t="n">
         <v>278.71</v>
@@ -11005,7 +11005,7 @@
         <v>248.8</v>
       </c>
       <c r="Q156" t="n">
-        <v>248.54</v>
+        <v>247.62</v>
       </c>
       <c r="R156" t="n">
         <v>247.22</v>
@@ -11080,7 +11080,7 @@
         <v>253.95</v>
       </c>
       <c r="Q157" t="n">
-        <v>253.03</v>
+        <v>252.35</v>
       </c>
       <c r="R157" t="n">
         <v>251.53</v>
@@ -11147,7 +11147,7 @@
         <v>252.27</v>
       </c>
       <c r="Q158" t="n">
-        <v>249.86</v>
+        <v>249.76</v>
       </c>
       <c r="R158" t="n">
         <v>246.65</v>
@@ -11285,7 +11285,7 @@
         <v>268.85</v>
       </c>
       <c r="Q160" t="n">
-        <v>268.65</v>
+        <v>269.11</v>
       </c>
       <c r="R160" t="n">
         <v>264.97</v>
@@ -11470,7 +11470,7 @@
         <v>244.8</v>
       </c>
       <c r="Q163" t="n">
-        <v>241.9</v>
+        <v>241.73</v>
       </c>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="inlineStr"/>
@@ -11535,7 +11535,7 @@
         <v>259.5</v>
       </c>
       <c r="Q164" t="n">
-        <v>248.06</v>
+        <v>248.61</v>
       </c>
       <c r="R164" t="n">
         <v>245.82</v>
@@ -11598,7 +11598,7 @@
         <v>274.98</v>
       </c>
       <c r="Q165" t="n">
-        <v>264.75</v>
+        <v>265.94</v>
       </c>
       <c r="R165" t="n">
         <v>260.79</v>
@@ -11669,7 +11669,7 @@
         <v>256.04</v>
       </c>
       <c r="Q166" t="n">
-        <v>251.28</v>
+        <v>250.23</v>
       </c>
       <c r="R166" t="n">
         <v>256.38</v>
@@ -11742,7 +11742,7 @@
         <v>266.21</v>
       </c>
       <c r="Q167" t="n">
-        <v>263.24</v>
+        <v>263.56</v>
       </c>
       <c r="R167" t="n">
         <v>267.92</v>
@@ -11815,7 +11815,7 @@
         <v>283.65</v>
       </c>
       <c r="Q168" t="n">
-        <v>268.75</v>
+        <v>268.21</v>
       </c>
       <c r="R168" t="n">
         <v>268.04</v>
@@ -11884,7 +11884,7 @@
         <v>249.93</v>
       </c>
       <c r="Q169" t="n">
-        <v>243.86</v>
+        <v>245.38</v>
       </c>
       <c r="R169" t="n">
         <v>243.28</v>
@@ -11957,7 +11957,7 @@
         <v>296.63</v>
       </c>
       <c r="Q170" t="n">
-        <v>298.62</v>
+        <v>297.79</v>
       </c>
       <c r="R170" t="n">
         <v>273.52</v>
@@ -12030,7 +12030,7 @@
         <v>278.97</v>
       </c>
       <c r="Q171" t="n">
-        <v>267.26</v>
+        <v>268.47</v>
       </c>
       <c r="R171" t="n">
         <v>263.67</v>
@@ -12103,7 +12103,7 @@
         <v>256.21</v>
       </c>
       <c r="Q172" t="n">
-        <v>252.5</v>
+        <v>251.62</v>
       </c>
       <c r="R172" t="n">
         <v>257.48</v>
@@ -12172,7 +12172,7 @@
         <v>250.84</v>
       </c>
       <c r="Q173" t="n">
-        <v>248.96</v>
+        <v>248.84</v>
       </c>
       <c r="R173" t="n">
         <v>251.02</v>
@@ -12243,7 +12243,7 @@
         <v>264.4</v>
       </c>
       <c r="Q174" t="n">
-        <v>257.97</v>
+        <v>258.61</v>
       </c>
       <c r="R174" t="n">
         <v>252.77</v>
@@ -12316,7 +12316,7 @@
         <v>251.23</v>
       </c>
       <c r="Q175" t="n">
-        <v>251.62</v>
+        <v>250.76</v>
       </c>
       <c r="R175" t="n">
         <v>254.68</v>
@@ -12428,7 +12428,7 @@
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="n">
-        <v>241.66</v>
+        <v>242.62</v>
       </c>
       <c r="R177" t="n">
         <v>238.57</v>
@@ -12501,7 +12501,7 @@
         <v>253.85</v>
       </c>
       <c r="Q178" t="n">
-        <v>251.6</v>
+        <v>250.54</v>
       </c>
       <c r="R178" t="n">
         <v>247.98</v>
@@ -12566,7 +12566,7 @@
         <v>232.83</v>
       </c>
       <c r="Q179" t="n">
-        <v>234.33</v>
+        <v>234.88</v>
       </c>
       <c r="R179" t="n">
         <v>236.43</v>
@@ -12637,7 +12637,7 @@
         <v>260.65</v>
       </c>
       <c r="Q180" t="n">
-        <v>257.6</v>
+        <v>257.92</v>
       </c>
       <c r="R180" t="n">
         <v>255.79</v>
@@ -12710,7 +12710,7 @@
         <v>262.33</v>
       </c>
       <c r="Q181" t="n">
-        <v>253.43</v>
+        <v>252.88</v>
       </c>
       <c r="R181" t="n">
         <v>254.34</v>
@@ -12781,7 +12781,7 @@
         <v>268.47</v>
       </c>
       <c r="Q182" t="n">
-        <v>261.43</v>
+        <v>261.83</v>
       </c>
       <c r="R182" t="n">
         <v>262.53</v>
@@ -12854,7 +12854,7 @@
         <v>278.2</v>
       </c>
       <c r="Q183" t="n">
-        <v>270.94</v>
+        <v>271.92</v>
       </c>
       <c r="R183" t="n">
         <v>267.6</v>
@@ -12929,7 +12929,7 @@
         <v>273.24</v>
       </c>
       <c r="Q184" t="n">
-        <v>268.78</v>
+        <v>267.93</v>
       </c>
       <c r="R184" t="n">
         <v>265.49</v>
@@ -13053,7 +13053,7 @@
         <v>268.64</v>
       </c>
       <c r="Q186" t="n">
-        <v>260.06</v>
+        <v>260.65</v>
       </c>
       <c r="R186" t="n">
         <v>263.31</v>
@@ -13163,7 +13163,7 @@
         <v>257.12</v>
       </c>
       <c r="Q188" t="n">
-        <v>253.05</v>
+        <v>253.09</v>
       </c>
       <c r="R188" t="n">
         <v>247.49</v>
@@ -13226,7 +13226,7 @@
         <v>249.57</v>
       </c>
       <c r="Q189" t="n">
-        <v>245.16</v>
+        <v>245.12</v>
       </c>
       <c r="R189" t="n">
         <v>245.13</v>
@@ -13301,7 +13301,7 @@
         <v>263.72</v>
       </c>
       <c r="Q190" t="n">
-        <v>257.55</v>
+        <v>256.7</v>
       </c>
       <c r="R190" t="n">
         <v>261.14</v>
@@ -13376,7 +13376,7 @@
         <v>251.94</v>
       </c>
       <c r="Q191" t="n">
-        <v>247.88</v>
+        <v>247.03</v>
       </c>
       <c r="R191" t="n">
         <v>249.41</v>
@@ -13445,7 +13445,7 @@
         <v>279.19</v>
       </c>
       <c r="Q192" t="n">
-        <v>269.58</v>
+        <v>268.71</v>
       </c>
       <c r="R192" t="n">
         <v>265.81</v>
@@ -13516,7 +13516,7 @@
         <v>297.36</v>
       </c>
       <c r="Q193" t="n">
-        <v>288.14</v>
+        <v>287.47</v>
       </c>
       <c r="R193" t="n">
         <v>286.11</v>
@@ -13587,7 +13587,7 @@
         <v>254.17</v>
       </c>
       <c r="Q194" t="n">
-        <v>254.42</v>
+        <v>253.8</v>
       </c>
       <c r="R194" t="n">
         <v>248.28</v>
@@ -13658,7 +13658,7 @@
         <v>268.38</v>
       </c>
       <c r="Q195" t="n">
-        <v>263.15</v>
+        <v>264.01</v>
       </c>
       <c r="R195" t="n">
         <v>257.84</v>
@@ -13731,7 +13731,7 @@
         <v>264.03</v>
       </c>
       <c r="Q196" t="n">
-        <v>262</v>
+        <v>262.17</v>
       </c>
       <c r="R196" t="n">
         <v>256.67</v>
@@ -13865,7 +13865,7 @@
         <v>261.22</v>
       </c>
       <c r="Q198" t="n">
-        <v>258.44</v>
+        <v>259.57</v>
       </c>
       <c r="R198" t="n">
         <v>253.94</v>
@@ -13938,7 +13938,7 @@
         <v>271.62</v>
       </c>
       <c r="Q199" t="n">
-        <v>262.6</v>
+        <v>262.48</v>
       </c>
       <c r="R199" t="n">
         <v>264.66</v>
@@ -14011,7 +14011,7 @@
         <v>266.12</v>
       </c>
       <c r="Q200" t="n">
-        <v>263.44</v>
+        <v>263.73</v>
       </c>
       <c r="R200" t="n">
         <v>259.4</v>
@@ -14056,7 +14056,7 @@
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="n">
-        <v>225.32</v>
+        <v>224.34</v>
       </c>
       <c r="R201" t="n">
         <v>228.2</v>
@@ -14129,7 +14129,7 @@
         <v>247.42</v>
       </c>
       <c r="Q202" t="n">
-        <v>242.61</v>
+        <v>241.76</v>
       </c>
       <c r="R202" t="n">
         <v>249.41</v>
@@ -14202,7 +14202,7 @@
         <v>247.59</v>
       </c>
       <c r="Q203" t="n">
-        <v>239.05</v>
+        <v>240</v>
       </c>
       <c r="R203" t="n">
         <v>239</v>
@@ -14273,7 +14273,7 @@
         <v>251.31</v>
       </c>
       <c r="Q204" t="n">
-        <v>239.16</v>
+        <v>238.26</v>
       </c>
       <c r="R204" t="n">
         <v>235.61</v>
@@ -14346,7 +14346,7 @@
         <v>269.22</v>
       </c>
       <c r="Q205" t="n">
-        <v>260.39</v>
+        <v>260.95</v>
       </c>
       <c r="R205" t="n">
         <v>257.75</v>
@@ -14421,7 +14421,7 @@
         <v>284.34</v>
       </c>
       <c r="Q206" t="n">
-        <v>268.17</v>
+        <v>267.32</v>
       </c>
       <c r="R206" t="n">
         <v>267.06</v>
@@ -14545,7 +14545,7 @@
         <v>255.4</v>
       </c>
       <c r="Q208" t="n">
-        <v>250.54</v>
+        <v>250.66</v>
       </c>
       <c r="R208" t="n">
         <v>247.33</v>
@@ -14616,7 +14616,7 @@
         <v>261.15</v>
       </c>
       <c r="Q209" t="n">
-        <v>259.6</v>
+        <v>260.08</v>
       </c>
       <c r="R209" t="n">
         <v>252.22</v>
@@ -14687,7 +14687,7 @@
         <v>271</v>
       </c>
       <c r="Q210" t="n">
-        <v>268.9</v>
+        <v>270.32</v>
       </c>
       <c r="R210" t="n">
         <v>262.65</v>
@@ -14758,7 +14758,7 @@
         <v>267.84</v>
       </c>
       <c r="Q211" t="n">
-        <v>260.98</v>
+        <v>261.65</v>
       </c>
       <c r="R211" t="n">
         <v>257.92</v>
@@ -14831,7 +14831,7 @@
         <v>265.29</v>
       </c>
       <c r="Q212" t="n">
-        <v>263.15</v>
+        <v>263.2</v>
       </c>
       <c r="R212" t="n">
         <v>259.75</v>
@@ -14902,7 +14902,7 @@
         <v>256.27</v>
       </c>
       <c r="Q213" t="n">
-        <v>253.84</v>
+        <v>255.22</v>
       </c>
       <c r="R213" t="n">
         <v>253.57</v>
@@ -14975,7 +14975,7 @@
         <v>269.66</v>
       </c>
       <c r="Q214" t="n">
-        <v>263</v>
+        <v>263.67</v>
       </c>
       <c r="R214" t="n">
         <v>255.09</v>
@@ -15046,7 +15046,7 @@
         <v>264.15</v>
       </c>
       <c r="Q215" t="n">
-        <v>261.07</v>
+        <v>261.11</v>
       </c>
       <c r="R215" t="n">
         <v>263.33</v>
@@ -15117,7 +15117,7 @@
         <v>238.73</v>
       </c>
       <c r="Q216" t="n">
-        <v>236.64</v>
+        <v>236.79</v>
       </c>
       <c r="R216" t="n">
         <v>243.89</v>
@@ -15186,7 +15186,7 @@
         <v>260.1</v>
       </c>
       <c r="Q217" t="n">
-        <v>252.87</v>
+        <v>252.02</v>
       </c>
       <c r="R217" t="n">
         <v>261.29</v>
@@ -15257,7 +15257,7 @@
         <v>256.31</v>
       </c>
       <c r="Q218" t="n">
-        <v>260.08</v>
+        <v>260.53</v>
       </c>
       <c r="R218" t="n">
         <v>254.2</v>
@@ -15324,7 +15324,7 @@
         <v>248.5</v>
       </c>
       <c r="Q219" t="n">
-        <v>253.83</v>
+        <v>252.81</v>
       </c>
       <c r="R219" t="n">
         <v>247.72</v>
@@ -15395,7 +15395,7 @@
         <v>249.39</v>
       </c>
       <c r="Q220" t="n">
-        <v>255.79</v>
+        <v>256.65</v>
       </c>
       <c r="R220" t="n">
         <v>253.79</v>
@@ -15462,7 +15462,7 @@
         <v>239.84</v>
       </c>
       <c r="Q221" t="n">
-        <v>243.39</v>
+        <v>242.64</v>
       </c>
       <c r="R221" t="n">
         <v>236.55</v>
@@ -15529,7 +15529,7 @@
         <v>288.58</v>
       </c>
       <c r="Q222" t="n">
-        <v>260.72</v>
+        <v>260.01</v>
       </c>
       <c r="R222" t="n">
         <v>268</v>
@@ -15600,7 +15600,7 @@
         <v>259.34</v>
       </c>
       <c r="Q223" t="n">
-        <v>250.32</v>
+        <v>251.47</v>
       </c>
       <c r="R223" t="n">
         <v>257.53</v>
@@ -15671,7 +15671,7 @@
         <v>248.66</v>
       </c>
       <c r="Q224" t="n">
-        <v>246.16</v>
+        <v>246.06</v>
       </c>
       <c r="R224" t="n">
         <v>240.44</v>
@@ -15742,7 +15742,7 @@
         <v>252.73</v>
       </c>
       <c r="Q225" t="n">
-        <v>247.7</v>
+        <v>247.55</v>
       </c>
       <c r="R225" t="n">
         <v>250.5</v>
@@ -15813,7 +15813,7 @@
         <v>240.26</v>
       </c>
       <c r="Q226" t="n">
-        <v>239.49</v>
+        <v>239.14</v>
       </c>
       <c r="R226" t="n">
         <v>236.5</v>
@@ -15886,7 +15886,7 @@
         <v>246.78</v>
       </c>
       <c r="Q227" t="n">
-        <v>242.09</v>
+        <v>241.53</v>
       </c>
       <c r="R227" t="n">
         <v>242.57</v>
@@ -15955,7 +15955,7 @@
         <v>263.7</v>
       </c>
       <c r="Q228" t="n">
-        <v>258.59</v>
+        <v>259.77</v>
       </c>
       <c r="R228" t="n">
         <v>254.56</v>
@@ -16028,7 +16028,7 @@
         <v>260.1</v>
       </c>
       <c r="Q229" t="n">
-        <v>250.87</v>
+        <v>250.77</v>
       </c>
       <c r="R229" t="n">
         <v>255.75</v>
@@ -16099,7 +16099,7 @@
         <v>266.23</v>
       </c>
       <c r="Q230" t="n">
-        <v>262.14</v>
+        <v>262.83</v>
       </c>
       <c r="R230" t="n">
         <v>259.99</v>
@@ -16215,7 +16215,7 @@
         <v>272.61</v>
       </c>
       <c r="Q232" t="n">
-        <v>269.96</v>
+        <v>270.37</v>
       </c>
       <c r="R232" t="n">
         <v>272.89</v>
@@ -16278,7 +16278,7 @@
         <v>264.74</v>
       </c>
       <c r="Q233" t="n">
-        <v>252.35</v>
+        <v>251.44</v>
       </c>
       <c r="R233" t="n">
         <v>245.07</v>
@@ -16351,7 +16351,7 @@
         <v>267.5</v>
       </c>
       <c r="Q234" t="n">
-        <v>264.61</v>
+        <v>264.66</v>
       </c>
       <c r="R234" t="n">
         <v>259.97</v>
@@ -16414,7 +16414,7 @@
         <v>285.89</v>
       </c>
       <c r="Q235" t="n">
-        <v>300.4</v>
+        <v>300.9</v>
       </c>
       <c r="R235" t="inlineStr"/>
       <c r="S235" t="inlineStr"/>
@@ -16475,7 +16475,7 @@
         <v>257.78</v>
       </c>
       <c r="Q236" t="n">
-        <v>261.78</v>
+        <v>262.93</v>
       </c>
       <c r="R236" t="n">
         <v>259.84</v>
@@ -16544,7 +16544,7 @@
         <v>256.05</v>
       </c>
       <c r="Q237" t="n">
-        <v>260.13</v>
+        <v>260.94</v>
       </c>
       <c r="R237" t="n">
         <v>259.22</v>
@@ -16617,7 +16617,7 @@
         <v>250.94</v>
       </c>
       <c r="Q238" t="n">
-        <v>247.11</v>
+        <v>245.94</v>
       </c>
       <c r="R238" t="n">
         <v>259.57</v>
@@ -16690,7 +16690,7 @@
         <v>251.68</v>
       </c>
       <c r="Q239" t="n">
-        <v>250.99</v>
+        <v>251.24</v>
       </c>
       <c r="R239" t="n">
         <v>252.54</v>
@@ -16822,7 +16822,7 @@
         <v>259.76</v>
       </c>
       <c r="Q241" t="n">
-        <v>260.49</v>
+        <v>261.14</v>
       </c>
       <c r="R241" t="n">
         <v>253.94</v>
@@ -16893,7 +16893,7 @@
         <v>257.1</v>
       </c>
       <c r="Q242" t="n">
-        <v>252.38</v>
+        <v>252.36</v>
       </c>
       <c r="R242" t="n">
         <v>245.89</v>
@@ -16964,7 +16964,7 @@
         <v>261.24</v>
       </c>
       <c r="Q243" t="n">
-        <v>255.25</v>
+        <v>255.63</v>
       </c>
       <c r="R243" t="n">
         <v>251.78</v>
@@ -17025,7 +17025,7 @@
         <v>262.46</v>
       </c>
       <c r="Q244" t="n">
-        <v>257.64</v>
+        <v>258.29</v>
       </c>
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="inlineStr"/>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="P245" t="inlineStr"/>
       <c r="Q245" t="n">
-        <v>249.14</v>
+        <v>248.7</v>
       </c>
       <c r="R245" t="n">
         <v>245.07</v>
@@ -17145,7 +17145,7 @@
         <v>253.36</v>
       </c>
       <c r="Q246" t="n">
-        <v>249.31</v>
+        <v>248.33</v>
       </c>
       <c r="R246" t="n">
         <v>247.35</v>
@@ -17202,7 +17202,7 @@
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr"/>
       <c r="Q247" t="n">
-        <v>257.05</v>
+        <v>257.38</v>
       </c>
       <c r="R247" t="n">
         <v>266.46</v>
@@ -17269,7 +17269,7 @@
         <v>261.91</v>
       </c>
       <c r="Q248" t="n">
-        <v>249.48</v>
+        <v>250.11</v>
       </c>
       <c r="R248" t="n">
         <v>254.17</v>
@@ -17373,7 +17373,7 @@
         <v>262.25</v>
       </c>
       <c r="Q250" t="n">
-        <v>242.48</v>
+        <v>242.92</v>
       </c>
       <c r="R250" t="n">
         <v>250.11</v>
@@ -17442,7 +17442,7 @@
         <v>247.94</v>
       </c>
       <c r="Q251" t="n">
-        <v>247.49</v>
+        <v>247.28</v>
       </c>
       <c r="R251" t="n">
         <v>244.07</v>
@@ -17517,7 +17517,7 @@
         <v>256.78</v>
       </c>
       <c r="Q252" t="n">
-        <v>260.96</v>
+        <v>260.17</v>
       </c>
       <c r="R252" t="n">
         <v>263.8</v>
@@ -17592,7 +17592,7 @@
         <v>251.79</v>
       </c>
       <c r="Q253" t="n">
-        <v>246.94</v>
+        <v>246.25</v>
       </c>
       <c r="R253" t="n">
         <v>248.44</v>
@@ -17663,7 +17663,7 @@
         <v>271.18</v>
       </c>
       <c r="Q254" t="n">
-        <v>262.44</v>
+        <v>263.29</v>
       </c>
       <c r="R254" t="n">
         <v>258.11</v>
@@ -17738,7 +17738,7 @@
         <v>250.91</v>
       </c>
       <c r="Q255" t="n">
-        <v>252</v>
+        <v>250.88</v>
       </c>
       <c r="R255" t="n">
         <v>250.61</v>
@@ -17864,7 +17864,7 @@
         <v>271.78</v>
       </c>
       <c r="Q257" t="n">
-        <v>265.89</v>
+        <v>265.52</v>
       </c>
       <c r="R257" t="n">
         <v>269.21</v>
@@ -17927,7 +17927,7 @@
         <v>266.97</v>
       </c>
       <c r="Q258" t="n">
-        <v>260.85</v>
+        <v>261.35</v>
       </c>
       <c r="R258" t="n">
         <v>258.71</v>
@@ -17990,7 +17990,7 @@
         <v>263.18</v>
       </c>
       <c r="Q259" t="n">
-        <v>258.68</v>
+        <v>260.01</v>
       </c>
       <c r="R259" t="inlineStr"/>
       <c r="S259" t="inlineStr"/>
@@ -18053,7 +18053,7 @@
         <v>264.76</v>
       </c>
       <c r="Q260" t="n">
-        <v>258.7</v>
+        <v>259.22</v>
       </c>
       <c r="R260" t="n">
         <v>257.85</v>
@@ -18124,7 +18124,7 @@
         <v>276.46</v>
       </c>
       <c r="Q261" t="n">
-        <v>273.01</v>
+        <v>272.66</v>
       </c>
       <c r="R261" t="n">
         <v>271.44</v>
@@ -18195,7 +18195,7 @@
         <v>257.04</v>
       </c>
       <c r="Q262" t="n">
-        <v>262.74</v>
+        <v>264.29</v>
       </c>
       <c r="R262" t="n">
         <v>262.91</v>
@@ -18262,7 +18262,7 @@
         <v>259.62</v>
       </c>
       <c r="Q263" t="n">
-        <v>258.3</v>
+        <v>258.82</v>
       </c>
       <c r="R263" t="n">
         <v>254.23</v>
@@ -18331,7 +18331,7 @@
         <v>254.89</v>
       </c>
       <c r="Q264" t="n">
-        <v>259.3</v>
+        <v>260.32</v>
       </c>
       <c r="R264" t="n">
         <v>254.7</v>
@@ -18406,7 +18406,7 @@
         <v>262.99</v>
       </c>
       <c r="Q265" t="n">
-        <v>266.5</v>
+        <v>265.68</v>
       </c>
       <c r="R265" t="n">
         <v>262.54</v>
@@ -18477,7 +18477,7 @@
         <v>266.39</v>
       </c>
       <c r="Q266" t="n">
-        <v>262.62</v>
+        <v>263.47</v>
       </c>
       <c r="R266" t="n">
         <v>259.45</v>
@@ -18548,7 +18548,7 @@
         <v>257.35</v>
       </c>
       <c r="Q267" t="n">
-        <v>256.47</v>
+        <v>257.2</v>
       </c>
       <c r="R267" t="n">
         <v>255.94</v>
@@ -18617,7 +18617,7 @@
         <v>265.27</v>
       </c>
       <c r="Q268" t="n">
-        <v>266.13</v>
+        <v>267.3</v>
       </c>
       <c r="R268" t="n">
         <v>260.87</v>
@@ -18688,7 +18688,7 @@
         <v>254.02</v>
       </c>
       <c r="Q269" t="n">
-        <v>248.36</v>
+        <v>248.07</v>
       </c>
       <c r="R269" t="n">
         <v>249.27</v>
@@ -18737,7 +18737,7 @@
         <v>263.22</v>
       </c>
       <c r="Q270" t="n">
-        <v>254.82</v>
+        <v>255.15</v>
       </c>
       <c r="R270" t="n">
         <v>256.16</v>
@@ -18808,7 +18808,7 @@
         <v>276.3</v>
       </c>
       <c r="Q271" t="n">
-        <v>268.62</v>
+        <v>268.21</v>
       </c>
       <c r="R271" t="n">
         <v>271.56</v>
@@ -18879,7 +18879,7 @@
         <v>257.47</v>
       </c>
       <c r="Q272" t="n">
-        <v>255.98</v>
+        <v>255.39</v>
       </c>
       <c r="R272" t="n">
         <v>251.18</v>
@@ -18952,7 +18952,7 @@
         <v>283.15</v>
       </c>
       <c r="Q273" t="n">
-        <v>282.41</v>
+        <v>281.66</v>
       </c>
       <c r="R273" t="n">
         <v>271.13</v>
@@ -19027,7 +19027,7 @@
         <v>252.17</v>
       </c>
       <c r="Q274" t="n">
-        <v>247.02</v>
+        <v>246.5</v>
       </c>
       <c r="R274" t="n">
         <v>251.67</v>
@@ -19098,7 +19098,7 @@
         <v>253.43</v>
       </c>
       <c r="Q275" t="n">
-        <v>239.85</v>
+        <v>240.25</v>
       </c>
       <c r="R275" t="n">
         <v>253.86</v>
@@ -19173,7 +19173,7 @@
         <v>259.35</v>
       </c>
       <c r="Q276" t="n">
-        <v>254.33</v>
+        <v>253.73</v>
       </c>
       <c r="R276" t="n">
         <v>251.77</v>
@@ -19289,7 +19289,7 @@
         <v>267.75</v>
       </c>
       <c r="Q278" t="n">
-        <v>270.07</v>
+        <v>269.16</v>
       </c>
       <c r="R278" t="n">
         <v>266.84</v>
@@ -19362,7 +19362,7 @@
         <v>252.41</v>
       </c>
       <c r="Q279" t="n">
-        <v>250.15</v>
+        <v>248.92</v>
       </c>
       <c r="R279" t="n">
         <v>249.62</v>
@@ -19423,7 +19423,7 @@
         <v>268.74</v>
       </c>
       <c r="Q280" t="n">
-        <v>258.96</v>
+        <v>259.58</v>
       </c>
       <c r="R280" t="n">
         <v>258.34</v>
@@ -19494,7 +19494,7 @@
         <v>266.82</v>
       </c>
       <c r="Q281" t="n">
-        <v>250.18</v>
+        <v>250.76</v>
       </c>
       <c r="R281" t="n">
         <v>255.3</v>
@@ -19565,7 +19565,7 @@
         <v>260.46</v>
       </c>
       <c r="Q282" t="n">
-        <v>254.58</v>
+        <v>254.41</v>
       </c>
       <c r="R282" t="n">
         <v>254.86</v>
@@ -19636,7 +19636,7 @@
         <v>256.55</v>
       </c>
       <c r="Q283" t="n">
-        <v>252.49</v>
+        <v>252.62</v>
       </c>
       <c r="R283" t="n">
         <v>249.24</v>
@@ -19701,7 +19701,7 @@
         <v>236.3</v>
       </c>
       <c r="Q284" t="n">
-        <v>230.85</v>
+        <v>229.94</v>
       </c>
       <c r="R284" t="n">
         <v>230</v>
@@ -19756,7 +19756,7 @@
         <v>262.58</v>
       </c>
       <c r="Q285" t="n">
-        <v>257.94</v>
+        <v>258.12</v>
       </c>
       <c r="R285" t="n">
         <v>252.99</v>
@@ -24031,7 +24031,7 @@
         <v>0.0733</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09763405067413584</v>
+        <v>0.09262702135851904</v>
       </c>
       <c r="J17" t="n">
         <v>284</v>
@@ -24040,19 +24040,19 @@
         <v>260</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004572665098561579</v>
+        <v>0.004088241772749579</v>
       </c>
       <c r="M17" t="n">
-        <v>7.795792591636372</v>
+        <v>7.905363196635115</v>
       </c>
       <c r="N17" t="n">
-        <v>109.0594770853422</v>
+        <v>109.8450050547963</v>
       </c>
       <c r="O17" t="n">
-        <v>10.44315455623166</v>
+        <v>10.48069678288597</v>
       </c>
       <c r="P17" t="n">
-        <v>254.7461387430058</v>
+        <v>254.8914505583747</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -24676,7 +24676,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-35.52281560959671,174.46198839061609</t>
+          <t>-35.52281883418468,174.46200113685128</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -24781,7 +24781,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-35.522833251540554,174.46205812622892</t>
+          <t>-35.522834637310844,174.462063603952</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -24886,7 +24886,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-35.52285931463919,174.46216114958955</t>
+          <t>-35.522857422535864,174.46215367038639</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -24979,7 +24979,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-35.52282176562711,174.46201272433868</t>
+          <t>-35.52282181892605,174.46201293502028</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -25088,7 +25088,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-35.52276985227881,174.46180752059038</t>
+          <t>-35.52276718731293,174.4617969865239</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -25193,7 +25193,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-35.522811212429076,174.46197100938784</t>
+          <t>-35.522814223822934,174.46198291289545</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -25306,7 +25306,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-35.52281606263807,174.46199018140942</t>
+          <t>-35.52281544969975,174.46198775857138</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -25492,7 +25492,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-35.522794636416606,174.4619054874407</t>
+          <t>-35.522791625014946,174.4618935839386</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -25601,7 +25601,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-35.52280497644149,174.4619463596491</t>
+          <t>-35.52280585587596,174.46194983589405</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -25706,7 +25706,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-35.52280937361276,174.46196374087472</t>
+          <t>-35.52281219846083,174.46197490699643</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -25795,7 +25795,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-35.52280857412726,174.46196058065175</t>
+          <t>-35.522809453561315,174.46196405689705</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -25884,7 +25884,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-35.52284511052807,174.4621050029035</t>
+          <t>-35.5228444442933,174.4621023693821</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -25993,7 +25993,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-35.522801432053114,174.4619323493291</t>
+          <t>-35.52280103230996,174.4619307692179</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -26102,7 +26102,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-35.52280588252549,174.46194994123482</t>
+          <t>-35.522806015773135,174.4619504679386</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -26211,7 +26211,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-35.52283335813829,174.46205854759222</t>
+          <t>-35.522832238862115,174.46205412327754</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -26324,7 +26324,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-35.52281081268644,174.46196942927628</t>
+          <t>-35.52280801448736,174.46195836849571</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -26429,7 +26429,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-35.52280980000499,174.46196542632703</t>
+          <t>-35.522808627426286,174.46196079133327</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -26534,7 +26534,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-35.52281883418468,174.46200113685128</t>
+          <t>-35.52282011335969,174.46200619320933</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -26631,7 +26631,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-35.52287919502015,174.4622397339137</t>
+          <t>-35.52287730292179,174.46223225470698</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
@@ -26720,7 +26720,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-35.52281976691649,174.462004823779</t>
+          <t>-35.52281963366909,174.46200429707505</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -26833,7 +26833,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-35.52279786101351,174.46191823366954</t>
+          <t>-35.52279708817636,174.46191517878816</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -26934,7 +26934,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-35.52282917417653,174.46204200908318</t>
+          <t>-35.52283178582172,174.46205233248352</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -27031,7 +27031,7 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-35.52281582279265,174.46198923334236</t>
+          <t>-35.52281739511254,174.46199544844868</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -27144,7 +27144,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-35.52280553608162,174.46194857180495</t>
+          <t>-35.5228030843246,174.46193888045553</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -27253,7 +27253,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-35.52284007379182,174.4620850934828</t>
+          <t>-35.52283839487899,174.46207845700974</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -27395,7 +27395,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-35.522792850895414,174.46189842961192</t>
+          <t>-35.52279474301486,174.46190590880363</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -27496,7 +27496,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-35.52280532288539,174.4619477290789</t>
+          <t>-35.52280710840365,174.46195478690976</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -27605,7 +27605,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-35.52282653588098,174.46203158034263</t>
+          <t>-35.522825150109206,174.4620261026206</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-35.52285177287243,174.46213133811975</t>
+          <t>-35.52285430456176,174.462141345503</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -27831,7 +27831,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-35.522853505081,174.46213818527664</t>
+          <t>-35.5228565431074,174.46215019413714</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -27932,7 +27932,7 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-35.522813530935956,174.46198017403523</t>
+          <t>-35.522813024595436,174.4619781725605</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -28037,7 +28037,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-35.52289784948562,174.4623134725894</t>
+          <t>-35.52289728985233,174.46231126042863</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -28142,7 +28142,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-35.52284583006153,174.46210784710667</t>
+          <t>-35.522849161234134,174.46212101471448</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -28247,7 +28247,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-35.522856329912614,174.46214935141006</t>
+          <t>-35.52285971437926,174.46216272970295</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -28344,7 +28344,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-35.522832372109285,174.46205464998167</t>
+          <t>-35.52283357133372,174.4620593903188</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -28453,7 +28453,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-35.522840500182326,174.4620867789363</t>
+          <t>-35.52284071337755,174.46208762166307</t>
         </is>
       </c>
       <c r="R39" t="inlineStr"/>
@@ -28554,7 +28554,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>-35.522827948301945,174.46203716340568</t>
+          <t>-35.52283093303972,174.4620489615772</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -28696,7 +28696,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-35.52284388465606,174.46210015722417</t>
+          <t>-35.52284649629617,174.46211048062813</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -28793,7 +28793,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>-35.52281896743209,174.46200166355524</t>
+          <t>-35.52282168567869,174.4620124083163</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -28894,7 +28894,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>-35.52285899484711,174.46215988549886</t>
+          <t>-35.52285816871751,174.46215661993128</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -28999,7 +28999,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>-35.52281835449399,174.4619992407171</t>
+          <t>-35.52282035320499,174.46200714127647</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -29108,7 +29108,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>-35.52281955372066,174.46200398105267</t>
+          <t>-35.52281667557635,174.46199260424746</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -29286,7 +29286,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-35.522825816345666,174.4620287361408</t>
+          <t>-35.52282752191074,174.46203547795267</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -29488,7 +29488,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>-35.5228110258825,174.46197027200242</t>
+          <t>-35.52281089263497,174.46196974529857</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -29581,7 +29581,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>-35.52285318528869,174.46213692118613</t>
+          <t>-35.52285624996455,174.4621490353874</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -29674,7 +29674,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>-35.52281110583104,174.46197058802477</t>
+          <t>-35.522813264440956,174.46197912062746</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -29779,7 +29779,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-35.52284537702193,174.46210605631208</t>
+          <t>-35.52284756227146,174.4621146942626</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -29888,7 +29888,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>-35.52284143291145,174.46209046586594</t>
+          <t>-35.52284361816211,174.46209910381563</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -29997,7 +29997,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>-35.5228208861945,174.4620092480924</t>
+          <t>-35.522819926813355,174.46200545582377</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -30102,7 +30102,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>-35.52279333058771,174.461900325745</t>
+          <t>-35.52279444986962,174.4619047500556</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -30207,7 +30207,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>-35.52281718191663,174.4619946057224</t>
+          <t>-35.522819447122735,174.4620035596895</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -30300,7 +30300,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>-35.5227322761732,174.46165899031442</t>
+          <t>-35.5227351543496,174.46167036709684</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -30401,7 +30401,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>-35.52285910144447,174.46216030686242</t>
+          <t>-35.52286163313134,174.46217031424743</t>
         </is>
       </c>
       <c r="R59" t="inlineStr"/>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>-35.52283804843662,174.46207708757885</t>
+          <t>-35.522836049730294,174.4620691870161</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -30680,7 +30680,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>-35.52278442962561,174.46186514194588</t>
+          <t>-35.52278704128623,174.46187546533528</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -30781,7 +30781,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>-35.52280241808614,174.46193624693677</t>
+          <t>-35.52279999297767,174.46192666092884</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -30882,7 +30882,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>-35.52283871467194,174.46207972109983</t>
+          <t>-35.52283823498251,174.46207782496472</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -30979,7 +30979,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>-35.52283818168369,174.46207761428303</t>
+          <t>-35.52283538349475,174.46206655349528</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -31080,7 +31080,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>-35.52278762757726,174.46187778283095</t>
+          <t>-35.52278941309969,174.46188484065885</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -31177,7 +31177,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>-35.522836262925665,174.46207002974276</t>
+          <t>-35.52283831493075,174.46207814098724</t>
         </is>
       </c>
       <c r="R67" t="inlineStr"/>
@@ -31270,7 +31270,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>-35.52279932673893,174.46192402741025</t>
+          <t>-35.52280033942178,174.4619280303585</t>
         </is>
       </c>
       <c r="R68" t="inlineStr"/>
@@ -31375,7 +31375,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>-35.52282656253044,174.46203168568346</t>
+          <t>-35.522827282065684,174.46203452988533</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -31480,7 +31480,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>-35.522816808823805,174.46199313095138</t>
+          <t>-35.52281409057545,174.46198238619158</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -31589,7 +31589,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>-35.5228553971853,174.46214566447915</t>
+          <t>-35.52285267895082,174.46213491970948</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -31686,7 +31686,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>-35.522800925711785,174.46193034785492</t>
+          <t>-35.522798873696544,174.46192223661765</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -31791,7 +31791,7 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>-35.52281110583104,174.46197058802477</t>
+          <t>-35.522808840622446,174.4619616340594</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -31892,7 +31892,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>-35.5228052429368,174.46194741305663</t>
+          <t>-35.522805296235866,174.46194762373815</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -31989,7 +31989,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>-35.52279655518519,174.46191307197344</t>
+          <t>-35.52279871379924,174.4619216045732</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -32082,7 +32082,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>-35.522847695518365,174.4621152209669</t>
+          <t>-35.52284713588137,174.4621130088088</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -32171,7 +32171,7 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>-35.52287002766597,174.4622034966336</t>
+          <t>-35.52286832211049,174.46219675481493</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -32276,7 +32276,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>-35.52281774155585,174.4619968178789</t>
+          <t>-35.522820086710226,174.46200608786853</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -32373,7 +32373,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>-35.52280873402437,174.46196121269634</t>
+          <t>-35.522811132480555,174.46197069336552</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -32470,7 +32470,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>-35.52281926057638,174.46200282230396</t>
+          <t>-35.522820033411264,174.46200587718695</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -32571,7 +32571,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>-35.522843751409084,174.4620996305199</t>
+          <t>-35.52284084662458,174.46208814836731</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -32664,7 +32664,7 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>-35.52282874778539,174.4620403236301</t>
+          <t>-35.522826136139145,174.4620300002305</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -32777,7 +32777,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>-35.522793463835576,174.46190085244862</t>
+          <t>-35.52279146511748,174.46189295189424</t>
         </is>
       </c>
       <c r="R83" t="inlineStr"/>
@@ -32878,7 +32878,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>-35.522863045545755,174.46217589731512</t>
+          <t>-35.5228653906861,174.46218516731471</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -32983,7 +32983,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>-35.52284177935366,174.46209183529695</t>
+          <t>-35.52284511052807,174.4621050029035</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -33084,7 +33084,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>-35.522828614538156,174.46203979692604</t>
+          <t>-35.52282712216896,174.46203389784048</t>
         </is>
       </c>
       <c r="R86" t="inlineStr"/>
@@ -33189,7 +33189,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>-35.52280681525889,174.4619536281614</t>
+          <t>-35.522805589380674,174.46194878248647</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -33290,7 +33290,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>-35.522829973659846,174.46204516930771</t>
+          <t>-35.5228303201026,174.46204653873835</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -33399,7 +33399,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>-35.52282973381485,174.46204422124032</t>
+          <t>-35.5228318391206,174.46205254316516</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -33492,7 +33492,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>-35.52284119306683,174.4620895177983</t>
+          <t>-35.52283876797077,174.46207993178152</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -33585,7 +33585,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>-35.52277398297409,174.46182384839477</t>
+          <t>-35.522771824352965,174.4618153158</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -33690,7 +33690,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>-35.52283114623522,174.46204980430377</t>
+          <t>-35.52282914752708,174.46204190374235</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -33803,7 +33803,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>-35.52284380470787,174.46209984120162</t>
+          <t>-35.52284404455242,174.4621007892693</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -33912,7 +33912,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>-35.522825949592956,174.46202926284482</t>
+          <t>-35.52282656253044,174.46203168568346</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -34017,7 +34017,7 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>-35.52281195861527,174.4619739589295</t>
+          <t>-35.522814730163375,174.4619849143703</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -34118,7 +34118,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>-35.52277904640391,174.46184386312487</t>
+          <t>-35.52277710098128,174.4618361732546</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -34316,7 +34316,7 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>-35.52282080624607,174.46200893207</t>
+          <t>-35.52282128593661,174.46201082820434</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -34417,7 +34417,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>-35.52280995990207,174.46196605837162</t>
+          <t>-35.52280825433303,174.4619593165626</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -34518,7 +34518,7 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>-35.522808920570995,174.4619619500817</t>
+          <t>-35.52281297129644,174.46197796187892</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -34692,7 +34692,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>-35.52280830763209,174.46195952724412</t>
+          <t>-35.52280721500173,174.46195520827283</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -34785,7 +34785,7 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>-35.52283644947161,174.46207076712864</t>
+          <t>-35.52283788854014,174.4620764555338</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -34890,7 +34890,7 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>-35.52282730871513,174.46203463522616</t>
+          <t>-35.522829493969866,174.46204327317298</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
@@ -34995,7 +34995,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>-35.52286024736599,174.46216483652083</t>
+          <t>-35.522857822276045,174.4621552504997</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -35100,7 +35100,7 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>-35.52281848774142,174.46199976742102</t>
+          <t>-35.52282176562711,174.46201272433868</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -35197,7 +35197,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>-35.52280209829166,174.4619349828478</t>
+          <t>-35.522799779781266,174.46192581820287</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -35310,7 +35310,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>-35.52286858860355,174.4621978082241</t>
+          <t>-35.52286576377652,174.4621866420874</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -35423,7 +35423,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>-35.52282451052217,174.46202357444125</t>
+          <t>-35.52282411078021,174.46202199432918</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -35532,7 +35532,7 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>-35.52282469706839,174.4620243118269</t>
+          <t>-35.522825150109206,174.4620261026206</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -35617,7 +35617,7 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>-35.52281950042169,174.4620037703711</t>
+          <t>-35.52281688877227,174.46199344697374</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -35722,7 +35722,7 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>-35.522774889061765,174.4618274299779</t>
+          <t>-35.52277254389342,174.46181815999822</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -35831,7 +35831,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>-35.522810439593286,174.46196795450547</t>
+          <t>-35.522811718769724,174.46197301086252</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -35936,7 +35936,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>-35.52286347193496,174.46217758276956</t>
+          <t>-35.52286157983268,174.46217010356563</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -36045,7 +36045,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>-35.52285971437926,174.46216272970295</t>
+          <t>-35.52285824866554,174.4621569359539</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -36158,7 +36158,7 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>-35.52284164610666,174.4620913085927</t>
+          <t>-35.52284241893927,174.46209436347732</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -36271,7 +36271,7 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>-35.52279474301486,174.46190590880363</t>
+          <t>-35.5227970082277,174.46191486276595</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -36384,7 +36384,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>-35.52281281139942,174.46197732983427</t>
+          <t>-35.5228165689784,174.4619921828843</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -36489,7 +36489,7 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>-35.52282554985109,174.46202768273272</t>
+          <t>-35.522823870935056,174.46202104626195</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -36590,7 +36590,7 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>-35.52280175184763,174.46193361341807</t>
+          <t>-35.52279964653352,174.46192529149917</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -36703,7 +36703,7 @@
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>-35.52278096517644,174.46185144765482</t>
+          <t>-35.52278240425551,174.46185713605252</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -36816,7 +36816,7 @@
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>-35.52283197236777,174.46205306986928</t>
+          <t>-35.52283279850022,174.46205633543485</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -36925,7 +36925,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>-35.522820219957595,174.46200661457252</t>
+          <t>-35.52282115268924,174.46201030150036</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -37030,7 +37030,7 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>-35.52283415762116,174.46206170781707</t>
+          <t>-35.522835436793585,174.46206676417694</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -37139,7 +37139,7 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>-35.52284705593322,174.46211269278623</t>
+          <t>-35.52284433769574,174.4621019480187</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -37248,7 +37248,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>-35.52279706152681,174.46191507344744</t>
+          <t>-35.52279940668758,174.46192434343249</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -37450,7 +37450,7 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>-35.52283509035107,174.46206539474613</t>
+          <t>-35.52283682256348,174.46207224190033</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -37559,7 +37559,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>-35.52282006006075,174.46200598252776</t>
+          <t>-35.52282144583344,174.4620114602491</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -37672,7 +37672,7 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>-35.522828481290915,174.46203927022194</t>
+          <t>-35.522829920360955,174.46204495862605</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -37781,7 +37781,7 @@
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>-35.52283021350482,174.46204611737508</t>
+          <t>-35.52283261195419,174.4620555980491</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -37874,7 +37874,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>-35.522785975302405,174.46187125170687</t>
+          <t>-35.5227871478846,174.4618758866981</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -37975,7 +37975,7 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>-35.52282837469312,174.4620388488587</t>
+          <t>-35.52282677572606,174.46203252840994</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -38084,7 +38084,7 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>-35.52283580988551,174.4620682389486</t>
+          <t>-35.52283834158017,174.46207824632808</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
@@ -38197,7 +38197,7 @@
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>-35.52283269190249,174.46205591407156</t>
+          <t>-35.522830906390276,174.4620488562364</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -38302,7 +38302,7 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>-35.52280761474457,174.46195678838424</t>
+          <t>-35.522806841908405,174.46195373350216</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -38411,7 +38411,7 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>-35.52283279850022,174.46205633543485</t>
+          <t>-35.52283357133372,174.4620593903188</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -38714,7 +38714,7 @@
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>-35.52289518456479,174.46230293849086</t>
+          <t>-35.522892466344594,174.46229219371105</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -38815,7 +38815,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>-35.5228318391206,174.46205254316516</t>
+          <t>-35.522833518034865,174.46205917963718</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -38920,7 +38920,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>-35.522847695518365,174.4621152209669</t>
+          <t>-35.522845403671326,174.46210616165294</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -39017,7 +39017,7 @@
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>-35.52283407767289,174.46206139179458</t>
+          <t>-35.5228347972074,174.462064235997</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -39126,7 +39126,7 @@
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>-35.52282523005759,174.462026418643</t>
+          <t>-35.52282546990273,174.4620273667103</t>
         </is>
       </c>
       <c r="R144" t="inlineStr">
@@ -39231,7 +39231,7 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>-35.522844923982326,174.4621042655175</t>
+          <t>-35.52284497728112,174.46210447619922</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
@@ -39328,7 +39328,7 @@
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>-35.52283828828135,174.46207803564639</t>
+          <t>-35.522838128384855,174.46207740360134</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -39429,7 +39429,7 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>-35.522876343547786,174.46222846243327</t>
+          <t>-35.52287423825444,174.46222014049965</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
@@ -39542,7 +39542,7 @@
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>-35.522830506648674,174.46204727612408</t>
+          <t>-35.52283167922397,174.46205191112026</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
@@ -39655,7 +39655,7 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>-35.52284385800666,174.4621000518833</t>
+          <t>-35.52284575011336,174.4621075310841</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -39768,7 +39768,7 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>-35.522826136139145,174.4620300002305</t>
+          <t>-35.522828694486485,174.46204011294847</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -39865,7 +39865,7 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>-35.522860860300696,174.46216725936142</t>
+          <t>-35.52285896819776,174.46215978015795</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -39974,7 +39974,7 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>-35.522899288542476,174.46231916100285</t>
+          <t>-35.522900141316775,174.46232253191465</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -40083,7 +40083,7 @@
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>-35.52282325799735,174.4620186234235</t>
+          <t>-35.52282269835854,174.4620164112667</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -40196,7 +40196,7 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>-35.52285145308003,174.46213007402926</t>
+          <t>-35.52285211931417,174.4621327075511</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
@@ -40289,7 +40289,7 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>-35.52288148685694,174.46224879323495</t>
+          <t>-35.522879781304034,174.46224205141442</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -40406,7 +40406,7 @@
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>-35.522805829226435,174.4619497305533</t>
+          <t>-35.5228033774695,174.46194003920382</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -40523,7 +40523,7 @@
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>-35.52281779485482,174.46199702856052</t>
+          <t>-35.52281598268959,174.46198986538707</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -40624,7 +40624,7 @@
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>-35.52280934696324,174.46196363553398</t>
+          <t>-35.52280908046809,174.4619625821263</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
@@ -40834,7 +40834,7 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>-35.52285942123655,174.46216157095313</t>
+          <t>-35.522860647106036,174.46216641663423</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -41105,7 +41105,7 @@
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>-35.522788133919484,174.4618797843045</t>
+          <t>-35.52278768087644,174.46187799351236</t>
         </is>
       </c>
       <c r="R163" t="inlineStr"/>
@@ -41202,7 +41202,7 @@
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>-35.52280455004899,174.46194467419699</t>
+          <t>-35.522806015773135,174.4619504679386</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -41295,7 +41295,7 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>-35.52284902798725,174.46212048801013</t>
+          <t>-35.52285219926226,174.4621330235737</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -41404,7 +41404,7 @@
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>-35.522813131193445,174.46197859392356</t>
+          <t>-35.52281033299524,174.46196753314243</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
@@ -41517,7 +41517,7 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>-35.5228450039305,174.46210458154007</t>
+          <t>-35.522845856710916,174.4621079524475</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -41630,7 +41630,7 @@
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>-35.52285968772993,174.46216262436207</t>
+          <t>-35.52285824866554,174.4621569359539</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -41735,7 +41735,7 @@
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>-35.522793357237276,174.4619004310857</t>
+          <t>-35.522797407971055,174.461916442877</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -41848,7 +41848,7 @@
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>-35.522939288883734,174.46247727790734</t>
+          <t>-35.52293707701163,174.4624685345969</t>
         </is>
       </c>
       <c r="R170" t="inlineStr">
@@ -41961,7 +41961,7 @@
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>-35.52285571697754,174.46214692856972</t>
+          <t>-35.522858941548414,174.46215967481706</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -42074,7 +42074,7 @@
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>-35.52281638243196,174.46199144549882</t>
+          <t>-35.52281403727645,174.46198217551003</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -42179,7 +42179,7 @@
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>-35.5228069485065,174.4619541548652</t>
+          <t>-35.52280662871222,174.46195289077608</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -42288,7 +42288,7 @@
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>-35.52283095968916,174.46204906691804</t>
+          <t>-35.52283266525306,174.46205580873072</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
@@ -42401,7 +42401,7 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>-35.52281403727645,174.46198217551003</t>
+          <t>-35.522811745419226,174.4619731162033</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
@@ -42559,7 +42559,7 @@
       <c r="P177" t="inlineStr"/>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>-35.5227874943293,174.46187725612737</t>
+          <t>-35.52279005268971,174.46188736883607</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -42672,7 +42672,7 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>-35.52281398397745,174.46198196482848</t>
+          <t>-35.52281115913005,174.4619707987063</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -42769,7 +42769,7 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>-35.52276796015313,174.46180004140308</t>
+          <t>-35.522769425884334,174.4618058351397</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
@@ -42878,7 +42878,7 @@
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>-35.522829973659846,174.46204516930771</t>
+          <t>-35.52283082644196,174.4620485402139</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -42991,7 +42991,7 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>-35.522818860834164,174.4620012421921</t>
+          <t>-35.52281739511254,174.46199544844868</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -43100,7 +43100,7 @@
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>-35.522840180389444,174.46208551484617</t>
+          <t>-35.52284124636562,174.46208972848</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -43213,7 +43213,7 @@
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>-35.52286552393268,174.46218569401924</t>
+          <t>-35.52286813556532,174.4621960174285</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
@@ -43330,7 +43330,7 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>-35.52285976767793,174.46216294038473</t>
+          <t>-35.522857502483895,174.46215398640905</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -43512,7 +43512,7 @@
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>-35.522836529419855,174.46207108315113</t>
+          <t>-35.522838101735445,174.4620772982605</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -43666,7 +43666,7 @@
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>-35.522817848153785,174.4619972392421</t>
+          <t>-35.52281795475173,174.46199766060522</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -43759,7 +43759,7 @@
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>-35.52279682168077,174.4619141253808</t>
+          <t>-35.52279671508254,174.46191370401786</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -43876,7 +43876,7 @@
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>-35.52282984041263,174.4620446426036</t>
+          <t>-35.52282757520964,174.46203568863427</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -43993,7 +43993,7 @@
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>-35.5228040703574,174.4619427780634</t>
+          <t>-35.52280180514671,174.46193382409956</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -44098,7 +44098,7 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>-35.52286189962466,174.46217136765642</t>
+          <t>-35.52285958113257,174.46216220299848</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -44207,7 +44207,7 @@
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>-35.52291136061976,174.46236688047918</t>
+          <t>-35.52290957512611,174.46235982263082</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
@@ -44316,7 +44316,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>-35.52282149913238,174.4620116709307</t>
+          <t>-35.52281984686491,174.4620051398014</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -44425,7 +44425,7 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>-35.52284476408598,174.4621036334724</t>
+          <t>-35.52284705593322,174.46211269278623</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -44538,7 +44538,7 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>-35.522841699405475,174.4620915192744</t>
+          <t>-35.52284215244527,174.46209331006884</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -44740,7 +44740,7 @@
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>-35.52283221221269,174.4620540179367</t>
+          <t>-35.5228352235982,174.4620659214503</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -44853,7 +44853,7 @@
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>-35.52284329836937,174.4620978397254</t>
+          <t>-35.52284297857662,174.4620965756352</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -44966,7 +44966,7 @@
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>-35.52284553691827,174.4621066883572</t>
+          <t>-35.52284630975047,174.46210974324214</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
@@ -45023,7 +45023,7 @@
       <c r="P201" t="inlineStr"/>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>-35.52274394877067,174.46170512949232</t>
+          <t>-35.52274133709518,174.4616948061135</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -45136,7 +45136,7 @@
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>-35.52279002604012,174.46188726349536</t>
+          <t>-35.52278776082522,174.46187830953448</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
@@ -45249,7 +45249,7 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>-35.52278053878259,174.4618497622037</t>
+          <t>-35.522783070495734,174.46185976957003</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -45358,7 +45358,7 @@
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>-35.52278083192836,174.46185092095135</t>
+          <t>-35.52277843346258,174.46184144028902</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -45471,7 +45471,7 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>-35.52283740885065,174.46207455939873</t>
+          <t>-35.52283890121782,174.46208045848573</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -45588,7 +45588,7 @@
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>-35.52285814206817,174.4621565145904</t>
+          <t>-35.52285587687364,174.46214756061502</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -45770,7 +45770,7 @@
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>-35.52281115913005,174.4619707987063</t>
+          <t>-35.522811478924154,174.46197206279558</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
@@ -45879,7 +45879,7 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>-35.522835303546465,174.46206623747278</t>
+          <t>-35.522836582718696,174.4620712938328</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
@@ -45988,7 +45988,7 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>-35.52286008746998,174.46216420447547</t>
+          <t>-35.522863871674815,174.4621791628831</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -46097,7 +46097,7 @@
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>-35.52283898116605,174.46208077450825</t>
+          <t>-35.52284076667637,174.46208783234476</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
@@ -46210,7 +46210,7 @@
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>-35.52284476408598,174.4621036334724</t>
+          <t>-35.522844897332945,174.46210416017664</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -46319,7 +46319,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>-35.522819953462836,174.46200556116457</t>
+          <t>-35.522823631089864,174.46202009819473</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -46432,7 +46432,7 @@
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>-35.522844364345126,174.46210205335953</t>
+          <t>-35.52284614985416,174.46210911119695</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
@@ -46541,7 +46541,7 @@
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>-35.522839221010734,174.46208172257582</t>
+          <t>-35.52283932760838,174.46208214393917</t>
         </is>
       </c>
       <c r="R215" t="inlineStr">
@@ -46650,7 +46650,7 @@
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>-35.52277411622228,174.46182437509816</t>
+          <t>-35.52277451596686,174.46182595520833</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -46755,7 +46755,7 @@
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>-35.522817368463045,174.4619953431079</t>
+          <t>-35.52281510325632,174.46198638914123</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -46864,7 +46864,7 @@
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>-35.522836582718696,174.4620712938328</t>
+          <t>-35.52283778194247,174.46207603417045</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -46965,7 +46965,7 @@
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>-35.522819926813355,174.46200545582377</t>
+          <t>-35.52281720856612,174.4619947110632</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -47074,7 +47074,7 @@
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>-35.522825150109206,174.4620261026206</t>
+          <t>-35.522827441962384,174.46203516193023</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -47175,7 +47175,7 @@
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>-35.52279210470733,174.46189548007163</t>
+          <t>-35.52279010598889,174.4618875795175</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -47276,7 +47276,7 @@
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>-35.52283828828135,174.46207803564639</t>
+          <t>-35.522836396172764,174.46207055644695</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -47385,7 +47385,7 @@
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>-35.52281057284084,174.46196848120934</t>
+          <t>-35.522813637533964,174.46198059539833</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
@@ -47494,7 +47494,7 @@
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>-35.52279948663623,174.46192465945472</t>
+          <t>-35.52279922014072,174.4619236060473</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
@@ -47603,7 +47603,7 @@
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>-35.52280359066578,174.46194088192985</t>
+          <t>-35.52280319092274,174.46193930181855</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -47712,7 +47712,7 @@
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>-35.522781711365624,174.46185439719434</t>
+          <t>-35.52278077862914,174.46185071026997</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -47825,7 +47825,7 @@
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>-35.52278864026168,174.46188178577808</t>
+          <t>-35.5227871478846,174.4618758866981</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
@@ -47930,7 +47930,7 @@
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>-35.52283261195419,174.4620555980491</t>
+          <t>-35.522835756586666,174.46206802826694</t>
         </is>
       </c>
       <c r="R228" t="inlineStr">
@@ -48043,7 +48043,7 @@
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>-35.5228120385638,174.46197427495179</t>
+          <t>-35.52281177206873,174.46197322154407</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
@@ -48152,7 +48152,7 @@
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>-35.522842072497085,174.4620929940463</t>
+          <t>-35.52284391130544,174.462100262565</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
@@ -48318,7 +48318,7 @@
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>-35.52286291229912,174.46217537061062</t>
+          <t>-35.52286400492144,174.46217968958763</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -48411,7 +48411,7 @@
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>-35.52281598268959,174.46198986538707</t>
+          <t>-35.522813557585465,174.461980279376</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -48524,7 +48524,7 @@
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>-35.522848654896,174.462119013238</t>
+          <t>-35.52284878814288,174.46211953994236</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -48617,7 +48617,7 @@
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>-35.52294403241453,174.46249602862284</t>
+          <t>-35.522945364866445,174.46250129567812</t>
         </is>
       </c>
       <c r="R235" t="inlineStr"/>
@@ -48706,7 +48706,7 @@
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>-35.52284111311861,174.46208920177577</t>
+          <t>-35.52284417779937,174.46210131597354</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
@@ -48811,7 +48811,7 @@
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>-35.522836715965795,174.46207182053698</t>
+          <t>-35.52283887456841,174.4620803531449</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
@@ -48924,7 +48924,7 @@
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>-35.52280201834303,174.46193466682556</t>
+          <t>-35.52279890034612,174.46192234195837</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -49037,7 +49037,7 @@
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>-35.522812358357854,174.46197553904108</t>
+          <t>-35.522813024595436,174.4619781725605</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -49235,7 +49235,7 @@
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>-35.52283767534481,174.4620756128071</t>
+          <t>-35.52283940755662,174.46208245996172</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -49344,7 +49344,7 @@
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>-35.52281606263807,174.46199018140942</t>
+          <t>-35.522816009339095,174.46198997072784</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -49453,7 +49453,7 @@
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>-35.52282371103828,174.46202041421714</t>
+          <t>-35.522824723717854,174.4620244171677</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -49542,7 +49542,7 @@
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>-35.52283008025761,174.46204559067098</t>
+          <t>-35.52283181247115,174.46205243782435</t>
         </is>
       </c>
       <c r="R244" t="inlineStr"/>
@@ -49619,7 +49619,7 @@
       <c r="P245" t="inlineStr"/>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>-35.522807428197915,174.4619560509989</t>
+          <t>-35.52280625561886,174.46195141600546</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -49716,7 +49716,7 @@
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>-35.52280788123978,174.46195784179187</t>
+          <t>-35.52280526958633,174.46194751839738</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -49797,7 +49797,7 @@
       <c r="P247" t="inlineStr"/>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>-35.52282850794036,174.46203937556277</t>
+          <t>-35.52282938737209,174.4620428518097</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -49898,7 +49898,7 @@
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>-35.522808334281606,174.46195963258486</t>
+          <t>-35.52281001320109,174.46196626905316</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -50040,7 +50040,7 @@
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>-35.52278967959554,174.46188589406603</t>
+          <t>-35.522790852177174,174.46189052905768</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -50145,7 +50145,7 @@
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>-35.522803031025525,174.46193866977404</t>
+          <t>-35.52280247138521,174.4619364576183</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -50262,7 +50262,7 @@
       </c>
       <c r="Q252" t="inlineStr">
         <is>
-          <t>-35.52283892786723,174.46208056382656</t>
+          <t>-35.52283682256348,174.46207224190033</t>
         </is>
       </c>
       <c r="R252" t="inlineStr">
@@ -50379,7 +50379,7 @@
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>-35.52280156530083,174.46193287603282</t>
+          <t>-35.52279972648218,174.4619256075214</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
@@ -50488,7 +50488,7 @@
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>-35.52284287197903,174.4620961542718</t>
+          <t>-35.52284513717745,174.46210510824437</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -50605,7 +50605,7 @@
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>-35.52281504995733,174.46198617845965</t>
+          <t>-35.5228120652133,174.46197438029256</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -50791,7 +50791,7 @@
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>-35.52285206601545,174.46213249686934</t>
+          <t>-35.52285107998889,174.46212859925706</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
@@ -50884,7 +50884,7 @@
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>-35.522838634723705,174.4620794050773</t>
+          <t>-35.52283996719418,174.4620846721194</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -50977,7 +50977,7 @@
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>-35.52283285179909,174.46205654611651</t>
+          <t>-35.522836396172764,174.46207055644695</t>
         </is>
       </c>
       <c r="R259" t="inlineStr"/>
@@ -51070,7 +51070,7 @@
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>-35.52283290509795,174.46205675679815</t>
+          <t>-35.522834290868296,174.4620622345212</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -51179,7 +51179,7 @@
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>-35.52287104033936,174.46220749958857</t>
+          <t>-35.52287010761388,174.46220381265636</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -51288,7 +51288,7 @@
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>-35.52284367146089,174.46209931449732</t>
+          <t>-35.52284780211589,174.46211564233036</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -51389,7 +51389,7 @@
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>-35.5228318391206,174.46205254316516</t>
+          <t>-35.52283322489114,174.4620580208881</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -51494,7 +51494,7 @@
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>-35.52283450406371,174.46206307724785</t>
+          <t>-35.522837222304744,174.46207382201288</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -51611,7 +51611,7 @@
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>-35.52285369162653,174.4621389226628</t>
+          <t>-35.52285150637877,174.462130284711</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -51720,7 +51720,7 @@
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>-35.52284335166816,174.46209805040712</t>
+          <t>-35.52284561686644,174.4621070043798</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -51829,7 +51829,7 @@
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>-35.522826962272234,174.4620332657956</t>
+          <t>-35.522828907682076,174.46204095567498</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -51934,7 +51934,7 @@
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>-35.52285270560017,174.46213502505037</t>
+          <t>-35.52285582357494,174.46214734993325</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -52043,7 +52043,7 @@
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>-35.52280534953491,174.46194783441968</t>
+          <t>-35.52280457669853,174.46194477953773</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -52108,7 +52108,7 @@
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>-35.522822565111206,174.46201588456267</t>
+          <t>-35.52282344454361,174.4620193608091</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -52217,7 +52217,7 @@
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>-35.52285934128854,174.46216125493044</t>
+          <t>-35.52285824866554,174.4621569359539</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -52326,7 +52326,7 @@
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>-35.52282565644892,174.46202810409594</t>
+          <t>-35.522824084130754,174.46202188898837</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -52439,7 +52439,7 @@
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>-35.522896090637985,174.46230652008427</t>
+          <t>-35.52289409194698,174.46229861951065</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -52556,7 +52556,7 @@
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>-35.52280177849717,174.46193371875881</t>
+          <t>-35.52280039272087,174.46192824104</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -52665,7 +52665,7 @@
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>-35.52278267075162,174.46185818945952</t>
+          <t>-35.52278373673588,174.4618624030876</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -52782,7 +52782,7 @@
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>-35.52282125928712,174.46201072286354</t>
+          <t>-35.52281966031857,174.46200440241583</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -52948,7 +52948,7 @@
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>-35.5228632054417,174.46217652936053</t>
+          <t>-35.52286078035271,174.46216694333873</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -53061,7 +53061,7 @@
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>-35.522810119799146,174.46196669041626</t>
+          <t>-35.522806841908405,174.46195373350216</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -53150,7 +53150,7 @@
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>-35.522833597983166,174.46205949565967</t>
+          <t>-35.522835250247624,174.46206602679112</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -53259,7 +53259,7 @@
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>-35.52281019974768,174.46196700643856</t>
+          <t>-35.522811745419226,174.4619731162033</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -53368,7 +53368,7 @@
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>-35.52282192552393,174.46201335638347</t>
+          <t>-35.52282147248291,174.46201156558993</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -53477,7 +53477,7 @@
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>-35.52281635578247,174.46199134015802</t>
+          <t>-35.52281670222584,174.46199270958823</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -53574,7 +53574,7 @@
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>-35.522758686065494,174.46176338285622</t>
+          <t>-35.522756260943,174.46175379685823</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -53651,7 +53651,7 @@
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>-35.52283087974083,174.46204875089558</t>
+          <t>-35.52283135943072,174.46205064703037</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">

--- a/data/nzd0086/nzd0086.xlsx
+++ b/data/nzd0086/nzd0086.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W285"/>
+  <dimension ref="A1:W286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21656,6 +21656,81 @@
       <c r="W285" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>306.88</v>
+      </c>
+      <c r="C286" t="n">
+        <v>231.87</v>
+      </c>
+      <c r="D286" t="n">
+        <v>212.4</v>
+      </c>
+      <c r="E286" t="n">
+        <v>246.53</v>
+      </c>
+      <c r="F286" t="n">
+        <v>258.06</v>
+      </c>
+      <c r="G286" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H286" t="n">
+        <v>273.24</v>
+      </c>
+      <c r="I286" t="n">
+        <v>274.61</v>
+      </c>
+      <c r="J286" t="n">
+        <v>273.74</v>
+      </c>
+      <c r="K286" t="n">
+        <v>276.95</v>
+      </c>
+      <c r="L286" t="n">
+        <v>277.97</v>
+      </c>
+      <c r="M286" t="n">
+        <v>275.67</v>
+      </c>
+      <c r="N286" t="n">
+        <v>269.94</v>
+      </c>
+      <c r="O286" t="n">
+        <v>262.56</v>
+      </c>
+      <c r="P286" t="n">
+        <v>259.48</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>253.43</v>
+      </c>
+      <c r="R286" t="n">
+        <v>252.08</v>
+      </c>
+      <c r="S286" t="n">
+        <v>260.22</v>
+      </c>
+      <c r="T286" t="n">
+        <v>258.67</v>
+      </c>
+      <c r="U286" t="n">
+        <v>268.94</v>
+      </c>
+      <c r="V286" t="n">
+        <v>280.1</v>
+      </c>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24568,6 +24643,16 @@
       </c>
       <c r="B289" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -24735,34 +24820,34 @@
         <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.073</v>
+        <v>0.0735</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.667316927684391</v>
+        <v>0.6674956500969315</v>
       </c>
       <c r="J2" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K2" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0640945719296645</v>
+        <v>0.06472583813534616</v>
       </c>
       <c r="M2" t="n">
-        <v>14.02937954297709</v>
+        <v>13.97048131610763</v>
       </c>
       <c r="N2" t="n">
-        <v>310.6634020858839</v>
+        <v>309.3415837907122</v>
       </c>
       <c r="O2" t="n">
-        <v>17.62564614662067</v>
+        <v>17.58810915905153</v>
       </c>
       <c r="P2" t="n">
-        <v>289.2466152330293</v>
+        <v>289.2446442524704</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24819,28 +24904,28 @@
         <v>0.0101</v>
       </c>
       <c r="I3" t="n">
-        <v>1.25448047883897</v>
+        <v>1.28559866878372</v>
       </c>
       <c r="J3" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K3" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05486698177450267</v>
+        <v>0.05777553696113835</v>
       </c>
       <c r="M3" t="n">
-        <v>29.45627035023524</v>
+        <v>29.43440146964687</v>
       </c>
       <c r="N3" t="n">
-        <v>1238.238018917359</v>
+        <v>1238.022394842089</v>
       </c>
       <c r="O3" t="n">
-        <v>35.18860637930066</v>
+        <v>35.18554241221938</v>
       </c>
       <c r="P3" t="n">
-        <v>164.4567242330127</v>
+        <v>164.1061480073881</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24897,28 +24982,28 @@
         <v>0.0205</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.091073468838179</v>
+        <v>-1.096262990137439</v>
       </c>
       <c r="J4" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K4" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07140362833327862</v>
+        <v>0.07257732462882416</v>
       </c>
       <c r="M4" t="n">
-        <v>19.54171864962261</v>
+        <v>19.49401004692471</v>
       </c>
       <c r="N4" t="n">
-        <v>718.3910480160531</v>
+        <v>715.8909868531657</v>
       </c>
       <c r="O4" t="n">
-        <v>26.80281791185496</v>
+        <v>26.75613923669044</v>
       </c>
       <c r="P4" t="n">
-        <v>247.346547002766</v>
+        <v>247.4055184985463</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24969,34 +25054,34 @@
         <v>0.025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0245</v>
+        <v>0.0244</v>
       </c>
       <c r="H5" t="n">
         <v>0.0258</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4284112215594837</v>
+        <v>-0.4275011812123003</v>
       </c>
       <c r="J5" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K5" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06728197186186824</v>
+        <v>0.06750845106319847</v>
       </c>
       <c r="M5" t="n">
-        <v>8.628073062519018</v>
+        <v>8.602237432524696</v>
       </c>
       <c r="N5" t="n">
-        <v>132.6155086140722</v>
+        <v>132.1556590789625</v>
       </c>
       <c r="O5" t="n">
-        <v>11.5158807137827</v>
+        <v>11.49589748905941</v>
       </c>
       <c r="P5" t="n">
-        <v>256.4717636778068</v>
+        <v>256.4622313299292</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25053,28 +25138,28 @@
         <v>0.0318</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4313660332194206</v>
+        <v>-0.4303613555991007</v>
       </c>
       <c r="J6" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K6" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08943116912784232</v>
+        <v>0.08968935264854661</v>
       </c>
       <c r="M6" t="n">
-        <v>7.712923268434005</v>
+        <v>7.690580258390613</v>
       </c>
       <c r="N6" t="n">
-        <v>98.74991728855422</v>
+        <v>98.41009079224452</v>
       </c>
       <c r="O6" t="n">
-        <v>9.937299295510536</v>
+        <v>9.920186026090667</v>
       </c>
       <c r="P6" t="n">
-        <v>267.9405535382802</v>
+        <v>267.930029898739</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25131,28 +25216,28 @@
         <v>0.039</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3786933747809344</v>
+        <v>-0.3825041737781094</v>
       </c>
       <c r="J7" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K7" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08712884377997065</v>
+        <v>0.08927564586539039</v>
       </c>
       <c r="M7" t="n">
-        <v>7.156492907954856</v>
+        <v>7.146471027763565</v>
       </c>
       <c r="N7" t="n">
-        <v>78.31481525524514</v>
+        <v>78.13590960138166</v>
       </c>
       <c r="O7" t="n">
-        <v>8.849565822979404</v>
+        <v>8.839451883537896</v>
       </c>
       <c r="P7" t="n">
-        <v>279.7060192627109</v>
+        <v>279.7459360222755</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25209,28 +25294,28 @@
         <v>0.0536</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3128833985861776</v>
+        <v>-0.3167716178596456</v>
       </c>
       <c r="J8" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K8" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05968400546985597</v>
+        <v>0.06146809492482119</v>
       </c>
       <c r="M8" t="n">
-        <v>7.423761299187039</v>
+        <v>7.416270128474626</v>
       </c>
       <c r="N8" t="n">
-        <v>80.38997281278623</v>
+        <v>80.20772140847555</v>
       </c>
       <c r="O8" t="n">
-        <v>8.966045550452341</v>
+        <v>8.955876361835035</v>
       </c>
       <c r="P8" t="n">
-        <v>286.7823777535722</v>
+        <v>286.8231054629026</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25284,31 +25369,31 @@
         <v>0.0485</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.0876</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1989621309852477</v>
+        <v>-0.2002430535548849</v>
       </c>
       <c r="J9" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K9" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02776718378902354</v>
+        <v>0.02832825115367199</v>
       </c>
       <c r="M9" t="n">
-        <v>6.944853953115056</v>
+        <v>6.927025169743358</v>
       </c>
       <c r="N9" t="n">
-        <v>72.24374780363334</v>
+        <v>72.00109415180604</v>
       </c>
       <c r="O9" t="n">
-        <v>8.49963221578636</v>
+        <v>8.485345847507103</v>
       </c>
       <c r="P9" t="n">
-        <v>281.5716169716508</v>
+        <v>281.5850341784546</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25359,34 +25444,34 @@
         <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0467</v>
+        <v>0.0465</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.0806</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1120872649430065</v>
+        <v>-0.1150378130251348</v>
       </c>
       <c r="J10" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K10" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01115362278544918</v>
+        <v>0.01182196402658597</v>
       </c>
       <c r="M10" t="n">
-        <v>6.212309820691301</v>
+        <v>6.204414271300549</v>
       </c>
       <c r="N10" t="n">
-        <v>58.05590473027646</v>
+        <v>57.90967966106037</v>
       </c>
       <c r="O10" t="n">
-        <v>7.619442547212786</v>
+        <v>7.609840974755016</v>
       </c>
       <c r="P10" t="n">
-        <v>280.7394462084881</v>
+        <v>280.7703521467088</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25437,34 +25522,34 @@
         <v>0.055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0469</v>
+        <v>0.0466</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05454712733226984</v>
+        <v>0.05060096761497378</v>
       </c>
       <c r="J11" t="n">
+        <v>285</v>
+      </c>
+      <c r="K11" t="n">
         <v>284</v>
       </c>
-      <c r="K11" t="n">
-        <v>283</v>
-      </c>
       <c r="L11" t="n">
-        <v>0.002872101752515732</v>
+        <v>0.002487340804116833</v>
       </c>
       <c r="M11" t="n">
-        <v>5.859118280778012</v>
+        <v>5.855741361236566</v>
       </c>
       <c r="N11" t="n">
-        <v>53.81922415135895</v>
+        <v>53.73259805662317</v>
       </c>
       <c r="O11" t="n">
-        <v>7.336158678174767</v>
+        <v>7.330252250545214</v>
       </c>
       <c r="P11" t="n">
-        <v>280.9598272625128</v>
+        <v>281.0012287487193</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25518,31 +25603,31 @@
         <v>0.0385</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0561</v>
+        <v>0.0562</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.03505874880640408</v>
+        <v>-0.04045005806809068</v>
       </c>
       <c r="J12" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K12" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001495262767031713</v>
+        <v>0.001996292786307974</v>
       </c>
       <c r="M12" t="n">
-        <v>5.291289718136357</v>
+        <v>5.301829711073165</v>
       </c>
       <c r="N12" t="n">
-        <v>42.78055505818273</v>
+        <v>42.82235837376817</v>
       </c>
       <c r="O12" t="n">
-        <v>6.540684601643984</v>
+        <v>6.543879458988236</v>
       </c>
       <c r="P12" t="n">
-        <v>286.3209817575557</v>
+        <v>286.3774537981164</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25599,28 +25684,28 @@
         <v>0.0536</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03122392719439356</v>
+        <v>0.0280122444614343</v>
       </c>
       <c r="J13" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K13" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001097976715738413</v>
+        <v>0.0008895960094257305</v>
       </c>
       <c r="M13" t="n">
-        <v>5.405280753768443</v>
+        <v>5.40108719318909</v>
       </c>
       <c r="N13" t="n">
-        <v>46.2302021947729</v>
+        <v>46.13609542314242</v>
       </c>
       <c r="O13" t="n">
-        <v>6.799279534978166</v>
+        <v>6.792355660825073</v>
       </c>
       <c r="P13" t="n">
-        <v>279.2839814216233</v>
+        <v>279.3176226521223</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25674,31 +25759,31 @@
         <v>0.0527</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06909999999999999</v>
+        <v>0.0689</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03012526355857602</v>
+        <v>0.02825042528466709</v>
       </c>
       <c r="J14" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K14" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001099492065101182</v>
+        <v>0.0009741581455268156</v>
       </c>
       <c r="M14" t="n">
-        <v>4.997439302831296</v>
+        <v>4.989600674012672</v>
       </c>
       <c r="N14" t="n">
-        <v>42.97469706625921</v>
+        <v>42.84711666685283</v>
       </c>
       <c r="O14" t="n">
-        <v>6.555508909784137</v>
+        <v>6.54577089935577</v>
       </c>
       <c r="P14" t="n">
-        <v>271.7403678519316</v>
+        <v>271.7600061137916</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25752,31 +25837,31 @@
         <v>0.0548</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.0704</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06335420316583371</v>
+        <v>0.05993521503594851</v>
       </c>
       <c r="J15" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K15" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004920512473931549</v>
+        <v>0.004432737551042343</v>
       </c>
       <c r="M15" t="n">
-        <v>5.039164182987845</v>
+        <v>5.037282112814273</v>
       </c>
       <c r="N15" t="n">
-        <v>42.30768691666518</v>
+        <v>42.23641902005051</v>
       </c>
       <c r="O15" t="n">
-        <v>6.504435941468344</v>
+        <v>6.498955225268944</v>
       </c>
       <c r="P15" t="n">
-        <v>265.6224160159858</v>
+        <v>265.6582286965381</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25827,34 +25912,34 @@
         <v>0.055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0485</v>
+        <v>0.0484</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0591</v>
+        <v>0.059</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1150758190709131</v>
+        <v>0.1127247497619725</v>
       </c>
       <c r="J16" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K16" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0223049974002677</v>
+        <v>0.02156287234356147</v>
       </c>
       <c r="M16" t="n">
-        <v>4.2928719079362</v>
+        <v>4.289736721638366</v>
       </c>
       <c r="N16" t="n">
-        <v>30.25452557180934</v>
+        <v>30.18486499744406</v>
       </c>
       <c r="O16" t="n">
-        <v>5.500411400232653</v>
+        <v>5.494075445190397</v>
       </c>
       <c r="P16" t="n">
-        <v>259.7176180518724</v>
+        <v>259.7422446638753</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25905,34 +25990,34 @@
         <v>0.06</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0545</v>
+        <v>0.0544</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0733</v>
+        <v>0.0731</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1349667894463572</v>
+        <v>0.1316865263921709</v>
       </c>
       <c r="J17" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K17" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03414978584036332</v>
+        <v>0.03272906459950553</v>
       </c>
       <c r="M17" t="n">
-        <v>4.164726561607575</v>
+        <v>4.164569560163326</v>
       </c>
       <c r="N17" t="n">
-        <v>26.85323480951269</v>
+        <v>26.83005697321715</v>
       </c>
       <c r="O17" t="n">
-        <v>5.182010691759781</v>
+        <v>5.179773834176271</v>
       </c>
       <c r="P17" t="n">
-        <v>254.4277894403628</v>
+        <v>254.4621490252529</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -25983,34 +26068,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0574</v>
+        <v>0.0573</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0832</v>
+        <v>0.08309999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1304792821656824</v>
+        <v>0.1272186200194802</v>
       </c>
       <c r="J18" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K18" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03378559541452286</v>
+        <v>0.03233172224288172</v>
       </c>
       <c r="M18" t="n">
-        <v>3.972134674626855</v>
+        <v>3.975188891522339</v>
       </c>
       <c r="N18" t="n">
-        <v>25.37733586020358</v>
+        <v>25.35849011921393</v>
       </c>
       <c r="O18" t="n">
-        <v>5.037592268157833</v>
+        <v>5.035721410008096</v>
       </c>
       <c r="P18" t="n">
-        <v>253.1720066453945</v>
+        <v>253.2061609177683</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26061,34 +26146,34 @@
         <v>0.065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0604</v>
+        <v>0.0603</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0757</v>
+        <v>0.0756</v>
       </c>
       <c r="I19" t="n">
-        <v>0.122434769596111</v>
+        <v>0.1211210787378164</v>
       </c>
       <c r="J19" t="n">
+        <v>285</v>
+      </c>
+      <c r="K19" t="n">
         <v>284</v>
       </c>
-      <c r="K19" t="n">
-        <v>283</v>
-      </c>
       <c r="L19" t="n">
-        <v>0.02293972948144185</v>
+        <v>0.02262738248993112</v>
       </c>
       <c r="M19" t="n">
-        <v>4.551787729609591</v>
+        <v>4.542859626462052</v>
       </c>
       <c r="N19" t="n">
-        <v>33.38886406224916</v>
+        <v>33.28274071111005</v>
       </c>
       <c r="O19" t="n">
-        <v>5.778309792858908</v>
+        <v>5.769119578506763</v>
       </c>
       <c r="P19" t="n">
-        <v>258.829278002615</v>
+        <v>258.8430221248005</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26139,34 +26224,34 @@
         <v>0.08</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0667</v>
+        <v>0.0665</v>
       </c>
       <c r="H20" t="n">
-        <v>0.096</v>
+        <v>0.0958</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03998465123721331</v>
+        <v>0.03861086244513687</v>
       </c>
       <c r="J20" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K20" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003151866290498018</v>
+        <v>0.002961467729402645</v>
       </c>
       <c r="M20" t="n">
-        <v>4.036638624051801</v>
+        <v>4.029136313785466</v>
       </c>
       <c r="N20" t="n">
-        <v>26.35535184499539</v>
+        <v>26.2753378501581</v>
       </c>
       <c r="O20" t="n">
-        <v>5.133746375211322</v>
+        <v>5.125947507550004</v>
       </c>
       <c r="P20" t="n">
-        <v>259.5186713769777</v>
+        <v>259.5330613243212</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26217,34 +26302,34 @@
         <v>0.06</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0516</v>
+        <v>0.0514</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.194151350562575</v>
+        <v>0.1913697070947964</v>
       </c>
       <c r="J21" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K21" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07237646025666811</v>
+        <v>0.0708475320284635</v>
       </c>
       <c r="M21" t="n">
-        <v>3.752939931007708</v>
+        <v>3.755489959095431</v>
       </c>
       <c r="N21" t="n">
-        <v>25.18118901526475</v>
+        <v>25.14392129956843</v>
       </c>
       <c r="O21" t="n">
-        <v>5.018086190497803</v>
+        <v>5.014371476024531</v>
       </c>
       <c r="P21" t="n">
-        <v>267.7016670331698</v>
+        <v>267.7308037558309</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26295,34 +26380,34 @@
         <v>0.055</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0488</v>
+        <v>0.0487</v>
       </c>
       <c r="H22" t="n">
-        <v>0.063</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2904723775731541</v>
+        <v>0.2891752098943778</v>
       </c>
       <c r="J22" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K22" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09295207348762624</v>
+        <v>0.09284138507172746</v>
       </c>
       <c r="M22" t="n">
-        <v>5.165353284965347</v>
+        <v>5.154855424666615</v>
       </c>
       <c r="N22" t="n">
-        <v>42.91427808102227</v>
+        <v>42.77481137214452</v>
       </c>
       <c r="O22" t="n">
-        <v>6.550899028455734</v>
+        <v>6.540245513139741</v>
       </c>
       <c r="P22" t="n">
-        <v>274.2967988720614</v>
+        <v>274.3103862405862</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26360,7 +26445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W285"/>
+  <dimension ref="A1:W286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59325,6 +59410,123 @@
         </is>
       </c>
     </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>-35.51427180718675,174.47060743948688</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>-35.51381968443871,174.469511386863</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>-35.513942770558366,174.4682909125168</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>-35.514796083660194,174.46750967942893</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>-35.51540154852274,174.46689777488362</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>-35.51597496110457,174.46625030958603</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>-35.51667104202694,174.46563940111344</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>-35.51738404000774,174.4651599585195</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>-35.51801810989475,174.4647123666044</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>-35.51866982511205,174.4643042433656</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>-35.519358246007926,174.46384561319522</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>-35.52008227001425,174.4634665444817</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>-35.52075104749957,174.46308534514327</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>-35.52142245429988,174.46268357764455</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>-35.52212664524491,174.46234398263502</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>-35.522818860834164,174.4620012421921</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>-35.52351479495739,174.4617115676028</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>-35.52432015532815,174.46150159062043</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>-35.5251300224005,174.46136368389062</t>
+        </is>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>-35.52586628286431,174.46137216746524</t>
+        </is>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>-35.52660337888572,174.46139096662097</t>
+        </is>
+      </c>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
